--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB13.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB13.xlsx
@@ -1649,7 +1649,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2065,22 +2065,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="39" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="40" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="51" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2332,291 +2316,52 @@
     <xf numFmtId="178" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="33" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2627,49 +2372,288 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2680,7 +2664,14 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2984,10 +2975,10 @@
   </sheetPr>
   <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="70" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="120" zoomScaleNormal="70" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
+      <selection pane="topRight" activeCell="E28" sqref="E28:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3000,7 +2991,7 @@
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="34.453125" customWidth="1"/>
     <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.54296875" style="160" customWidth="1"/>
+    <col min="9" max="11" width="4.54296875" style="156" customWidth="1"/>
     <col min="12" max="12" width="6.54296875" customWidth="1"/>
     <col min="13" max="13" width="11.7265625" customWidth="1"/>
     <col min="14" max="14" width="6.81640625" customWidth="1"/>
@@ -3019,7 +3010,7 @@
     <col min="27" max="27" width="19" customWidth="1"/>
     <col min="28" max="28" width="28" customWidth="1"/>
     <col min="29" max="29" width="19.453125" customWidth="1"/>
-    <col min="30" max="30" width="23.1796875" style="160" customWidth="1"/>
+    <col min="30" max="30" width="23.1796875" style="156" customWidth="1"/>
     <col min="31" max="33" width="12.81640625" style="126" customWidth="1"/>
     <col min="34" max="34" width="8.7265625" style="1"/>
     <col min="35" max="35" width="8.7265625" style="2"/>
@@ -3031,112 +3022,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
+      <c r="A1" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="338"/>
+      <c r="Q1" s="338"/>
+      <c r="R1" s="338"/>
+      <c r="S1" s="338"/>
+      <c r="T1" s="338"/>
+      <c r="U1" s="338"/>
+      <c r="V1" s="338"/>
+      <c r="W1" s="338"/>
+      <c r="X1" s="338"/>
+      <c r="Y1" s="338"/>
+      <c r="Z1" s="338"/>
+      <c r="AA1" s="338"/>
+      <c r="AB1" s="338"/>
+      <c r="AC1" s="338"/>
+      <c r="AD1" s="338"/>
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
     </row>
     <row r="2" spans="1:48" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="339" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="239"/>
-      <c r="U2" s="239"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="239"/>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="239"/>
-      <c r="AD2" s="239"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="339"/>
+      <c r="N2" s="339"/>
+      <c r="O2" s="339"/>
+      <c r="P2" s="339"/>
+      <c r="Q2" s="339"/>
+      <c r="R2" s="339"/>
+      <c r="S2" s="339"/>
+      <c r="T2" s="339"/>
+      <c r="U2" s="339"/>
+      <c r="V2" s="339"/>
+      <c r="W2" s="339"/>
+      <c r="X2" s="339"/>
+      <c r="Y2" s="339"/>
+      <c r="Z2" s="339"/>
+      <c r="AA2" s="339"/>
+      <c r="AB2" s="339"/>
+      <c r="AC2" s="339"/>
+      <c r="AD2" s="339"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:48" ht="19" x14ac:dyDescent="0.35">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="340" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="241"/>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="241"/>
-      <c r="O3" s="241"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="241"/>
-      <c r="R3" s="241"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="241"/>
-      <c r="U3" s="241"/>
-      <c r="V3" s="241"/>
-      <c r="W3" s="241"/>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="241"/>
-      <c r="AD3" s="241"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="341"/>
+      <c r="P3" s="341"/>
+      <c r="Q3" s="341"/>
+      <c r="R3" s="341"/>
+      <c r="S3" s="341"/>
+      <c r="T3" s="341"/>
+      <c r="U3" s="341"/>
+      <c r="V3" s="341"/>
+      <c r="W3" s="341"/>
+      <c r="X3" s="341"/>
+      <c r="Y3" s="341"/>
+      <c r="Z3" s="341"/>
+      <c r="AA3" s="341"/>
+      <c r="AB3" s="341"/>
+      <c r="AC3" s="341"/>
+      <c r="AD3" s="341"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -3158,34 +3149,34 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
+      <c r="Q4" s="342"/>
+      <c r="R4" s="342"/>
+      <c r="S4" s="342"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="243" t="s">
+      <c r="Z4" s="343" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="244" t="s">
+      <c r="AA4" s="343"/>
+      <c r="AB4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="245"/>
+      <c r="AC4" s="345"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AP4" s="220"/>
-      <c r="AQ4" s="220"/>
-      <c r="AR4" s="220"/>
-      <c r="AS4" s="220"/>
-      <c r="AT4" s="220"/>
-      <c r="AU4" s="220"/>
-      <c r="AV4" s="220"/>
+      <c r="AP4" s="216"/>
+      <c r="AQ4" s="216"/>
+      <c r="AR4" s="216"/>
+      <c r="AS4" s="216"/>
+      <c r="AT4" s="216"/>
+      <c r="AU4" s="216"/>
+      <c r="AV4" s="216"/>
     </row>
     <row r="5" spans="1:48" ht="19" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -3204,9 +3195,9 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="246"/>
-      <c r="S5" s="246"/>
+      <c r="Q5" s="336"/>
+      <c r="R5" s="336"/>
+      <c r="S5" s="336"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -3227,37 +3218,37 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-      <c r="AP5" s="220"/>
-      <c r="AQ5" s="220"/>
-      <c r="AR5" s="220"/>
-      <c r="AS5" s="220"/>
-      <c r="AT5" s="220"/>
-      <c r="AU5" s="220"/>
-      <c r="AV5" s="220"/>
+      <c r="AP5" s="216"/>
+      <c r="AQ5" s="216"/>
+      <c r="AR5" s="216"/>
+      <c r="AS5" s="216"/>
+      <c r="AT5" s="216"/>
+      <c r="AU5" s="216"/>
+      <c r="AV5" s="216"/>
     </row>
     <row r="6" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="247"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="247"/>
-      <c r="J6" s="247"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="247"/>
-      <c r="M6" s="247"/>
-      <c r="N6" s="247"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="337"/>
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="246"/>
-      <c r="V6" s="246"/>
+      <c r="U6" s="336"/>
+      <c r="V6" s="336"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="15"/>
@@ -3269,155 +3260,155 @@
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
-      <c r="AP6" s="220"/>
-      <c r="AQ6" s="220"/>
-      <c r="AR6" s="221"/>
-      <c r="AS6" s="222"/>
-      <c r="AT6" s="222"/>
-      <c r="AU6" s="222"/>
-      <c r="AV6" s="220"/>
+      <c r="AP6" s="216"/>
+      <c r="AQ6" s="216"/>
+      <c r="AR6" s="217"/>
+      <c r="AS6" s="218"/>
+      <c r="AT6" s="218"/>
+      <c r="AU6" s="218"/>
+      <c r="AV6" s="216"/>
     </row>
     <row r="7" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="290"/>
-      <c r="B7" s="262" t="s">
+      <c r="A7" s="300"/>
+      <c r="B7" s="317" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262" t="s">
+      <c r="C7" s="317"/>
+      <c r="D7" s="317"/>
+      <c r="E7" s="317" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="262"/>
-      <c r="G7" s="262"/>
-      <c r="H7" s="262"/>
-      <c r="I7" s="252" t="s">
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
-      <c r="O7" s="253"/>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="279" t="s">
+      <c r="J7" s="308"/>
+      <c r="K7" s="308"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="308"/>
+      <c r="N7" s="308"/>
+      <c r="O7" s="308"/>
+      <c r="P7" s="308"/>
+      <c r="Q7" s="308"/>
+      <c r="R7" s="308"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="309"/>
+      <c r="U7" s="334" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="280"/>
-      <c r="W7" s="252" t="s">
+      <c r="V7" s="335"/>
+      <c r="W7" s="307" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="254"/>
-      <c r="AB7" s="255" t="s">
+      <c r="X7" s="308"/>
+      <c r="Y7" s="308"/>
+      <c r="Z7" s="308"/>
+      <c r="AA7" s="309"/>
+      <c r="AB7" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="256"/>
-      <c r="AD7" s="257"/>
+      <c r="AC7" s="311"/>
+      <c r="AD7" s="312"/>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
-      <c r="AH7" s="218"/>
-      <c r="AI7" s="219"/>
-      <c r="AJ7" s="220"/>
-      <c r="AK7" s="220"/>
-      <c r="AL7" s="220"/>
-      <c r="AP7" s="220"/>
-      <c r="AQ7" s="224"/>
-      <c r="AR7" s="218"/>
-      <c r="AS7" s="219"/>
-      <c r="AT7" s="220"/>
-      <c r="AU7" s="222"/>
-      <c r="AV7" s="220"/>
+      <c r="AH7" s="214"/>
+      <c r="AI7" s="215"/>
+      <c r="AJ7" s="216"/>
+      <c r="AK7" s="216"/>
+      <c r="AL7" s="216"/>
+      <c r="AP7" s="216"/>
+      <c r="AQ7" s="220"/>
+      <c r="AR7" s="214"/>
+      <c r="AS7" s="215"/>
+      <c r="AT7" s="216"/>
+      <c r="AU7" s="218"/>
+      <c r="AV7" s="216"/>
     </row>
     <row r="8" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="290"/>
-      <c r="B8" s="258" t="s">
+      <c r="A8" s="300"/>
+      <c r="B8" s="313" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="262" t="s">
+      <c r="C8" s="314"/>
+      <c r="D8" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="263" t="s">
+      <c r="E8" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="264"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="266" t="s">
+      <c r="F8" s="319"/>
+      <c r="G8" s="320"/>
+      <c r="H8" s="321" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="268" t="s">
+      <c r="I8" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="269"/>
-      <c r="K8" s="270"/>
-      <c r="L8" s="271" t="s">
+      <c r="J8" s="324"/>
+      <c r="K8" s="325"/>
+      <c r="L8" s="326" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="272"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="273"/>
-      <c r="P8" s="274" t="s">
+      <c r="M8" s="327"/>
+      <c r="N8" s="327"/>
+      <c r="O8" s="328"/>
+      <c r="P8" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="276" t="s">
+      <c r="Q8" s="331" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="277"/>
-      <c r="S8" s="278"/>
-      <c r="T8" s="284" t="s">
+      <c r="R8" s="332"/>
+      <c r="S8" s="333"/>
+      <c r="T8" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="279"/>
-      <c r="V8" s="280"/>
-      <c r="W8" s="286" t="s">
+      <c r="U8" s="334"/>
+      <c r="V8" s="335"/>
+      <c r="W8" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="287"/>
-      <c r="Y8" s="288" t="s">
+      <c r="X8" s="297"/>
+      <c r="Y8" s="298" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="288" t="s">
+      <c r="Z8" s="298" t="s">
         <v>19</v>
       </c>
-      <c r="AA8" s="248" t="s">
+      <c r="AA8" s="303" t="s">
         <v>24</v>
       </c>
-      <c r="AB8" s="250" t="s">
+      <c r="AB8" s="305" t="s">
         <v>25</v>
       </c>
-      <c r="AC8" s="251"/>
+      <c r="AC8" s="306"/>
       <c r="AD8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
-      <c r="AG8" s="221"/>
-      <c r="AH8" s="221"/>
-      <c r="AI8" s="222"/>
-      <c r="AJ8" s="222"/>
-      <c r="AK8" s="222"/>
-      <c r="AL8" s="220"/>
-      <c r="AP8" s="220"/>
-      <c r="AQ8" s="220"/>
-      <c r="AR8" s="220"/>
-      <c r="AS8" s="220"/>
-      <c r="AT8" s="220"/>
-      <c r="AU8" s="222"/>
-      <c r="AV8" s="220"/>
+      <c r="AG8" s="217"/>
+      <c r="AH8" s="217"/>
+      <c r="AI8" s="218"/>
+      <c r="AJ8" s="218"/>
+      <c r="AK8" s="218"/>
+      <c r="AL8" s="216"/>
+      <c r="AP8" s="216"/>
+      <c r="AQ8" s="216"/>
+      <c r="AR8" s="216"/>
+      <c r="AS8" s="216"/>
+      <c r="AT8" s="216"/>
+      <c r="AU8" s="218"/>
+      <c r="AV8" s="216"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="290"/>
-      <c r="B9" s="260"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="262"/>
+      <c r="A9" s="300"/>
+      <c r="B9" s="315"/>
+      <c r="C9" s="316"/>
+      <c r="D9" s="317"/>
       <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
@@ -3427,7 +3418,7 @@
       <c r="G9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="267"/>
+      <c r="H9" s="322"/>
       <c r="I9" s="20" t="s">
         <v>28</v>
       </c>
@@ -3449,7 +3440,7 @@
       <c r="O9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="275"/>
+      <c r="P9" s="330"/>
       <c r="Q9" s="25" t="s">
         <v>31</v>
       </c>
@@ -3459,7 +3450,7 @@
       <c r="S9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="285"/>
+      <c r="T9" s="295"/>
       <c r="U9" s="20" t="s">
         <v>34</v>
       </c>
@@ -3472,9 +3463,9 @@
       <c r="X9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="289"/>
-      <c r="Z9" s="289"/>
-      <c r="AA9" s="249"/>
+      <c r="Y9" s="299"/>
+      <c r="Z9" s="299"/>
+      <c r="AA9" s="304"/>
       <c r="AB9" s="30" t="s">
         <v>38</v>
       </c>
@@ -3486,22 +3477,22 @@
       </c>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
-      <c r="AG9" s="221"/>
-      <c r="AH9" s="221"/>
-      <c r="AI9" s="222"/>
-      <c r="AJ9" s="222"/>
-      <c r="AK9" s="222"/>
-      <c r="AL9" s="220"/>
-      <c r="AP9" s="220"/>
-      <c r="AQ9" s="220"/>
-      <c r="AR9" s="220"/>
-      <c r="AS9" s="220"/>
-      <c r="AT9" s="220"/>
-      <c r="AU9" s="222"/>
-      <c r="AV9" s="220"/>
+      <c r="AG9" s="217"/>
+      <c r="AH9" s="217"/>
+      <c r="AI9" s="218"/>
+      <c r="AJ9" s="218"/>
+      <c r="AK9" s="218"/>
+      <c r="AL9" s="216"/>
+      <c r="AP9" s="216"/>
+      <c r="AQ9" s="216"/>
+      <c r="AR9" s="216"/>
+      <c r="AS9" s="216"/>
+      <c r="AT9" s="216"/>
+      <c r="AU9" s="218"/>
+      <c r="AV9" s="216"/>
     </row>
     <row r="10" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="301" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="33">
@@ -3521,15 +3512,15 @@
       <c r="I10" s="40"/>
       <c r="J10" s="41"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="340">
+      <c r="L10" s="234">
         <f>E10*I10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="341">
+      <c r="M10" s="235">
         <f>F10*J10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="342">
+      <c r="N10" s="236">
         <f>G10*K10</f>
         <v>0</v>
       </c>
@@ -3558,7 +3549,7 @@
         <f>SUM(Y10*W10)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="343"/>
+      <c r="Y10" s="237"/>
       <c r="Z10" s="53">
         <f>Y10*O10</f>
         <v>0</v>
@@ -3577,23 +3568,23 @@
       </c>
       <c r="AD10" s="57"/>
       <c r="AE10" s="58"/>
-      <c r="AF10" s="223"/>
-      <c r="AG10" s="223"/>
-      <c r="AH10" s="218"/>
-      <c r="AI10" s="219"/>
-      <c r="AJ10" s="220"/>
-      <c r="AK10" s="222"/>
-      <c r="AL10" s="220"/>
-      <c r="AP10" s="220"/>
-      <c r="AQ10" s="220"/>
-      <c r="AR10" s="220"/>
-      <c r="AS10" s="220"/>
-      <c r="AT10" s="220"/>
-      <c r="AU10" s="222"/>
-      <c r="AV10" s="220"/>
+      <c r="AF10" s="219"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="214"/>
+      <c r="AI10" s="215"/>
+      <c r="AJ10" s="216"/>
+      <c r="AK10" s="218"/>
+      <c r="AL10" s="216"/>
+      <c r="AP10" s="216"/>
+      <c r="AQ10" s="216"/>
+      <c r="AR10" s="216"/>
+      <c r="AS10" s="216"/>
+      <c r="AT10" s="216"/>
+      <c r="AU10" s="218"/>
+      <c r="AV10" s="216"/>
     </row>
     <row r="11" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="292"/>
+      <c r="A11" s="278"/>
       <c r="B11" s="59">
         <v>1012</v>
       </c>
@@ -3611,15 +3602,15 @@
       <c r="I11" s="66"/>
       <c r="J11" s="67"/>
       <c r="K11" s="68"/>
-      <c r="L11" s="340">
+      <c r="L11" s="234">
         <f t="shared" ref="L11:L47" si="1">E11*I11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="341">
+      <c r="M11" s="235">
         <f t="shared" ref="M11:M47" si="2">F11*J11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="342">
+      <c r="N11" s="236">
         <f t="shared" ref="N11:N47" si="3">G11*K11</f>
         <v>0</v>
       </c>
@@ -3648,7 +3639,7 @@
         <f t="shared" ref="X11:X47" si="7">SUM(Y11*W11)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="344"/>
+      <c r="Y11" s="238"/>
       <c r="Z11" s="53">
         <f t="shared" ref="Z11:Z47" si="8">Y11*O11</f>
         <v>0</v>
@@ -3667,23 +3658,23 @@
       </c>
       <c r="AD11" s="73"/>
       <c r="AE11" s="58"/>
-      <c r="AF11" s="223"/>
-      <c r="AG11" s="223"/>
-      <c r="AH11" s="218"/>
-      <c r="AI11" s="219"/>
-      <c r="AJ11" s="220"/>
-      <c r="AK11" s="222"/>
-      <c r="AL11" s="220"/>
-      <c r="AP11" s="220"/>
-      <c r="AQ11" s="220"/>
-      <c r="AR11" s="220"/>
-      <c r="AS11" s="220"/>
-      <c r="AT11" s="220"/>
-      <c r="AU11" s="222"/>
-      <c r="AV11" s="220"/>
+      <c r="AF11" s="219"/>
+      <c r="AG11" s="219"/>
+      <c r="AH11" s="214"/>
+      <c r="AI11" s="215"/>
+      <c r="AJ11" s="216"/>
+      <c r="AK11" s="218"/>
+      <c r="AL11" s="216"/>
+      <c r="AP11" s="216"/>
+      <c r="AQ11" s="216"/>
+      <c r="AR11" s="216"/>
+      <c r="AS11" s="216"/>
+      <c r="AT11" s="216"/>
+      <c r="AU11" s="218"/>
+      <c r="AV11" s="216"/>
     </row>
     <row r="12" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="292"/>
+      <c r="A12" s="278"/>
       <c r="B12" s="59">
         <v>3013</v>
       </c>
@@ -3701,15 +3692,15 @@
       <c r="I12" s="66"/>
       <c r="J12" s="67"/>
       <c r="K12" s="68"/>
-      <c r="L12" s="340">
+      <c r="L12" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="341">
+      <c r="M12" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="342">
+      <c r="N12" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3738,7 +3729,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="344"/>
+      <c r="Y12" s="238"/>
       <c r="Z12" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3757,23 +3748,23 @@
       </c>
       <c r="AD12" s="73"/>
       <c r="AE12" s="80"/>
-      <c r="AF12" s="224"/>
-      <c r="AG12" s="224"/>
-      <c r="AH12" s="218"/>
-      <c r="AI12" s="219"/>
-      <c r="AJ12" s="220"/>
-      <c r="AK12" s="222"/>
-      <c r="AL12" s="220"/>
-      <c r="AP12" s="220"/>
-      <c r="AQ12" s="220"/>
-      <c r="AR12" s="220"/>
-      <c r="AS12" s="220"/>
-      <c r="AT12" s="220"/>
-      <c r="AU12" s="222"/>
-      <c r="AV12" s="220"/>
+      <c r="AF12" s="220"/>
+      <c r="AG12" s="220"/>
+      <c r="AH12" s="214"/>
+      <c r="AI12" s="215"/>
+      <c r="AJ12" s="216"/>
+      <c r="AK12" s="218"/>
+      <c r="AL12" s="216"/>
+      <c r="AP12" s="216"/>
+      <c r="AQ12" s="216"/>
+      <c r="AR12" s="216"/>
+      <c r="AS12" s="216"/>
+      <c r="AT12" s="216"/>
+      <c r="AU12" s="218"/>
+      <c r="AV12" s="216"/>
     </row>
     <row r="13" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="292"/>
+      <c r="A13" s="278"/>
       <c r="B13" s="59">
         <v>3014</v>
       </c>
@@ -3791,15 +3782,15 @@
       <c r="I13" s="81"/>
       <c r="J13" s="82"/>
       <c r="K13" s="83"/>
-      <c r="L13" s="340">
+      <c r="L13" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="341">
+      <c r="M13" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="342">
+      <c r="N13" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3828,7 +3819,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="344"/>
+      <c r="Y13" s="238"/>
       <c r="Z13" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3850,23 +3841,23 @@
         <v>0</v>
       </c>
       <c r="AE13" s="80"/>
-      <c r="AF13" s="224"/>
-      <c r="AG13" s="224"/>
-      <c r="AH13" s="218"/>
-      <c r="AI13" s="219"/>
-      <c r="AJ13" s="220"/>
-      <c r="AK13" s="222"/>
-      <c r="AL13" s="220"/>
-      <c r="AP13" s="220"/>
-      <c r="AQ13" s="220"/>
-      <c r="AR13" s="220"/>
-      <c r="AS13" s="220"/>
-      <c r="AT13" s="220"/>
-      <c r="AU13" s="222"/>
-      <c r="AV13" s="220"/>
+      <c r="AF13" s="220"/>
+      <c r="AG13" s="220"/>
+      <c r="AH13" s="214"/>
+      <c r="AI13" s="215"/>
+      <c r="AJ13" s="216"/>
+      <c r="AK13" s="218"/>
+      <c r="AL13" s="216"/>
+      <c r="AP13" s="216"/>
+      <c r="AQ13" s="216"/>
+      <c r="AR13" s="216"/>
+      <c r="AS13" s="216"/>
+      <c r="AT13" s="216"/>
+      <c r="AU13" s="218"/>
+      <c r="AV13" s="216"/>
     </row>
     <row r="14" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="292"/>
+      <c r="A14" s="278"/>
       <c r="B14" s="59">
         <v>3015</v>
       </c>
@@ -3884,15 +3875,15 @@
       <c r="I14" s="85"/>
       <c r="J14" s="67"/>
       <c r="K14" s="72"/>
-      <c r="L14" s="340">
+      <c r="L14" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="341">
+      <c r="M14" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="342">
+      <c r="N14" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3921,7 +3912,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="344"/>
+      <c r="Y14" s="238"/>
       <c r="Z14" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3943,23 +3934,23 @@
         <v>0</v>
       </c>
       <c r="AE14" s="80"/>
-      <c r="AF14" s="224"/>
-      <c r="AG14" s="224"/>
-      <c r="AH14" s="218"/>
-      <c r="AI14" s="219"/>
-      <c r="AJ14" s="220"/>
-      <c r="AK14" s="222"/>
-      <c r="AL14" s="220"/>
-      <c r="AP14" s="220"/>
-      <c r="AQ14" s="220"/>
-      <c r="AR14" s="220"/>
-      <c r="AS14" s="220"/>
-      <c r="AT14" s="220"/>
-      <c r="AU14" s="222"/>
-      <c r="AV14" s="220"/>
+      <c r="AF14" s="220"/>
+      <c r="AG14" s="220"/>
+      <c r="AH14" s="214"/>
+      <c r="AI14" s="215"/>
+      <c r="AJ14" s="216"/>
+      <c r="AK14" s="218"/>
+      <c r="AL14" s="216"/>
+      <c r="AP14" s="216"/>
+      <c r="AQ14" s="216"/>
+      <c r="AR14" s="216"/>
+      <c r="AS14" s="216"/>
+      <c r="AT14" s="216"/>
+      <c r="AU14" s="218"/>
+      <c r="AV14" s="216"/>
     </row>
     <row r="15" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="292"/>
+      <c r="A15" s="278"/>
       <c r="B15" s="59">
         <v>3016</v>
       </c>
@@ -3977,15 +3968,15 @@
       <c r="I15" s="85"/>
       <c r="J15" s="67"/>
       <c r="K15" s="72"/>
-      <c r="L15" s="340">
+      <c r="L15" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="341">
+      <c r="M15" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="342">
+      <c r="N15" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4014,7 +4005,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="344"/>
+      <c r="Y15" s="238"/>
       <c r="Z15" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4033,23 +4024,23 @@
       </c>
       <c r="AD15" s="73"/>
       <c r="AE15" s="80"/>
-      <c r="AF15" s="224"/>
-      <c r="AG15" s="224"/>
-      <c r="AH15" s="218"/>
-      <c r="AI15" s="219"/>
-      <c r="AJ15" s="220"/>
-      <c r="AK15" s="222"/>
-      <c r="AL15" s="220"/>
-      <c r="AP15" s="220"/>
-      <c r="AQ15" s="220"/>
-      <c r="AR15" s="220"/>
-      <c r="AS15" s="220"/>
-      <c r="AT15" s="220"/>
-      <c r="AU15" s="222"/>
-      <c r="AV15" s="220"/>
+      <c r="AF15" s="220"/>
+      <c r="AG15" s="220"/>
+      <c r="AH15" s="214"/>
+      <c r="AI15" s="215"/>
+      <c r="AJ15" s="216"/>
+      <c r="AK15" s="218"/>
+      <c r="AL15" s="216"/>
+      <c r="AP15" s="216"/>
+      <c r="AQ15" s="216"/>
+      <c r="AR15" s="216"/>
+      <c r="AS15" s="216"/>
+      <c r="AT15" s="216"/>
+      <c r="AU15" s="218"/>
+      <c r="AV15" s="216"/>
     </row>
     <row r="16" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="292"/>
+      <c r="A16" s="278"/>
       <c r="B16" s="59">
         <v>3017</v>
       </c>
@@ -4067,15 +4058,15 @@
       <c r="I16" s="85"/>
       <c r="J16" s="67"/>
       <c r="K16" s="72"/>
-      <c r="L16" s="340">
+      <c r="L16" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="341">
+      <c r="M16" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="342">
+      <c r="N16" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4104,7 +4095,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="344"/>
+      <c r="Y16" s="238"/>
       <c r="Z16" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4123,23 +4114,23 @@
       </c>
       <c r="AD16" s="73"/>
       <c r="AE16" s="80"/>
-      <c r="AF16" s="224"/>
-      <c r="AG16" s="224"/>
-      <c r="AH16" s="218"/>
-      <c r="AI16" s="219"/>
-      <c r="AJ16" s="220"/>
-      <c r="AK16" s="222"/>
-      <c r="AL16" s="220"/>
-      <c r="AP16" s="220"/>
-      <c r="AQ16" s="220"/>
-      <c r="AR16" s="220"/>
-      <c r="AS16" s="220"/>
-      <c r="AT16" s="220"/>
-      <c r="AU16" s="222"/>
-      <c r="AV16" s="220"/>
+      <c r="AF16" s="220"/>
+      <c r="AG16" s="220"/>
+      <c r="AH16" s="214"/>
+      <c r="AI16" s="215"/>
+      <c r="AJ16" s="216"/>
+      <c r="AK16" s="218"/>
+      <c r="AL16" s="216"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="216"/>
+      <c r="AR16" s="216"/>
+      <c r="AS16" s="216"/>
+      <c r="AT16" s="216"/>
+      <c r="AU16" s="218"/>
+      <c r="AV16" s="216"/>
     </row>
     <row r="17" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="292"/>
+      <c r="A17" s="278"/>
       <c r="B17" s="59">
         <v>3018</v>
       </c>
@@ -4157,15 +4148,15 @@
       <c r="I17" s="85"/>
       <c r="J17" s="67"/>
       <c r="K17" s="72"/>
-      <c r="L17" s="340">
+      <c r="L17" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="341">
+      <c r="M17" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="342">
+      <c r="N17" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4194,7 +4185,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="344"/>
+      <c r="Y17" s="238"/>
       <c r="Z17" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4213,23 +4204,23 @@
       </c>
       <c r="AD17" s="73"/>
       <c r="AE17" s="80"/>
-      <c r="AF17" s="224"/>
-      <c r="AG17" s="224"/>
-      <c r="AH17" s="218"/>
-      <c r="AI17" s="219"/>
-      <c r="AJ17" s="220"/>
-      <c r="AK17" s="222"/>
-      <c r="AL17" s="220"/>
-      <c r="AP17" s="220"/>
-      <c r="AQ17" s="220"/>
-      <c r="AR17" s="220"/>
-      <c r="AS17" s="220"/>
-      <c r="AT17" s="220"/>
-      <c r="AU17" s="222"/>
-      <c r="AV17" s="220"/>
+      <c r="AF17" s="220"/>
+      <c r="AG17" s="220"/>
+      <c r="AH17" s="214"/>
+      <c r="AI17" s="215"/>
+      <c r="AJ17" s="216"/>
+      <c r="AK17" s="218"/>
+      <c r="AL17" s="216"/>
+      <c r="AP17" s="216"/>
+      <c r="AQ17" s="216"/>
+      <c r="AR17" s="216"/>
+      <c r="AS17" s="216"/>
+      <c r="AT17" s="216"/>
+      <c r="AU17" s="218"/>
+      <c r="AV17" s="216"/>
     </row>
     <row r="18" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="292"/>
+      <c r="A18" s="278"/>
       <c r="B18" s="88">
         <v>3019</v>
       </c>
@@ -4247,15 +4238,15 @@
       <c r="I18" s="95"/>
       <c r="J18" s="96"/>
       <c r="K18" s="97"/>
-      <c r="L18" s="340">
+      <c r="L18" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="341">
+      <c r="M18" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="342">
+      <c r="N18" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4284,7 +4275,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="345"/>
+      <c r="Y18" s="239"/>
       <c r="Z18" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4303,23 +4294,23 @@
       </c>
       <c r="AD18" s="102"/>
       <c r="AE18" s="80"/>
-      <c r="AF18" s="224"/>
-      <c r="AG18" s="224"/>
-      <c r="AH18" s="218"/>
-      <c r="AI18" s="219"/>
-      <c r="AJ18" s="220"/>
-      <c r="AK18" s="222"/>
-      <c r="AL18" s="220"/>
-      <c r="AP18" s="220"/>
-      <c r="AQ18" s="220"/>
-      <c r="AR18" s="220"/>
-      <c r="AS18" s="220"/>
-      <c r="AT18" s="220"/>
-      <c r="AU18" s="220"/>
-      <c r="AV18" s="220"/>
+      <c r="AF18" s="220"/>
+      <c r="AG18" s="220"/>
+      <c r="AH18" s="214"/>
+      <c r="AI18" s="215"/>
+      <c r="AJ18" s="216"/>
+      <c r="AK18" s="218"/>
+      <c r="AL18" s="216"/>
+      <c r="AP18" s="216"/>
+      <c r="AQ18" s="216"/>
+      <c r="AR18" s="216"/>
+      <c r="AS18" s="216"/>
+      <c r="AT18" s="216"/>
+      <c r="AU18" s="216"/>
+      <c r="AV18" s="216"/>
     </row>
     <row r="19" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="291" t="s">
+      <c r="A19" s="301" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="103">
@@ -4339,15 +4330,15 @@
       <c r="I19" s="81"/>
       <c r="J19" s="82"/>
       <c r="K19" s="83"/>
-      <c r="L19" s="340">
+      <c r="L19" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="341">
+      <c r="M19" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="342">
+      <c r="N19" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4376,7 +4367,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="346"/>
+      <c r="Y19" s="240"/>
       <c r="Z19" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4395,16 +4386,16 @@
       </c>
       <c r="AD19" s="57"/>
       <c r="AE19" s="80"/>
-      <c r="AF19" s="224"/>
-      <c r="AG19" s="224"/>
-      <c r="AH19" s="218"/>
-      <c r="AI19" s="219"/>
-      <c r="AJ19" s="220"/>
-      <c r="AK19" s="222"/>
-      <c r="AL19" s="220"/>
+      <c r="AF19" s="220"/>
+      <c r="AG19" s="220"/>
+      <c r="AH19" s="214"/>
+      <c r="AI19" s="215"/>
+      <c r="AJ19" s="216"/>
+      <c r="AK19" s="218"/>
+      <c r="AL19" s="216"/>
     </row>
     <row r="20" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="292"/>
+      <c r="A20" s="278"/>
       <c r="B20" s="59">
         <v>3022</v>
       </c>
@@ -4422,15 +4413,15 @@
       <c r="I20" s="66"/>
       <c r="J20" s="67"/>
       <c r="K20" s="72"/>
-      <c r="L20" s="340">
+      <c r="L20" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="341">
+      <c r="M20" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="342">
+      <c r="N20" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4459,7 +4450,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="344"/>
+      <c r="Y20" s="238"/>
       <c r="Z20" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4481,16 +4472,16 @@
         <v>0</v>
       </c>
       <c r="AE20" s="80"/>
-      <c r="AF20" s="224"/>
-      <c r="AG20" s="224"/>
-      <c r="AH20" s="218"/>
-      <c r="AI20" s="219"/>
-      <c r="AJ20" s="220"/>
-      <c r="AK20" s="222"/>
-      <c r="AL20" s="220"/>
+      <c r="AF20" s="220"/>
+      <c r="AG20" s="220"/>
+      <c r="AH20" s="214"/>
+      <c r="AI20" s="215"/>
+      <c r="AJ20" s="216"/>
+      <c r="AK20" s="218"/>
+      <c r="AL20" s="216"/>
     </row>
     <row r="21" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="292"/>
+      <c r="A21" s="278"/>
       <c r="B21" s="59">
         <v>3023</v>
       </c>
@@ -4508,15 +4499,15 @@
       <c r="I21" s="66"/>
       <c r="J21" s="67"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="340">
+      <c r="L21" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="341">
+      <c r="M21" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="342">
+      <c r="N21" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4545,7 +4536,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="344"/>
+      <c r="Y21" s="238"/>
       <c r="Z21" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4567,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="AE21" s="80"/>
-      <c r="AF21" s="224"/>
-      <c r="AG21" s="224"/>
-      <c r="AH21" s="218"/>
-      <c r="AI21" s="219"/>
-      <c r="AJ21" s="220"/>
-      <c r="AK21" s="222"/>
-      <c r="AL21" s="220"/>
+      <c r="AF21" s="220"/>
+      <c r="AG21" s="220"/>
+      <c r="AH21" s="214"/>
+      <c r="AI21" s="215"/>
+      <c r="AJ21" s="216"/>
+      <c r="AK21" s="218"/>
+      <c r="AL21" s="216"/>
     </row>
     <row r="22" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="293"/>
+      <c r="A22" s="302"/>
       <c r="B22" s="88">
         <v>3024</v>
       </c>
@@ -4594,15 +4585,15 @@
       <c r="I22" s="113"/>
       <c r="J22" s="114"/>
       <c r="K22" s="115"/>
-      <c r="L22" s="340">
+      <c r="L22" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="341">
+      <c r="M22" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="342">
+      <c r="N22" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4631,7 +4622,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="345"/>
+      <c r="Y22" s="239"/>
       <c r="Z22" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4650,16 +4641,16 @@
       </c>
       <c r="AD22" s="102"/>
       <c r="AE22" s="80"/>
-      <c r="AF22" s="224"/>
-      <c r="AG22" s="224"/>
-      <c r="AH22" s="218"/>
-      <c r="AI22" s="219"/>
-      <c r="AJ22" s="220"/>
-      <c r="AK22" s="220"/>
-      <c r="AL22" s="220"/>
+      <c r="AF22" s="220"/>
+      <c r="AG22" s="220"/>
+      <c r="AH22" s="214"/>
+      <c r="AI22" s="215"/>
+      <c r="AJ22" s="216"/>
+      <c r="AK22" s="216"/>
+      <c r="AL22" s="216"/>
     </row>
     <row r="23" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="281" t="s">
+      <c r="A23" s="291" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="33">
@@ -4679,15 +4670,15 @@
       <c r="I23" s="66"/>
       <c r="J23" s="67"/>
       <c r="K23" s="68"/>
-      <c r="L23" s="340">
+      <c r="L23" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="341">
+      <c r="M23" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="342">
+      <c r="N23" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4716,7 +4707,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="346"/>
+      <c r="Y23" s="240"/>
       <c r="Z23" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4739,7 +4730,7 @@
       <c r="AG23" s="80"/>
     </row>
     <row r="24" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="282"/>
+      <c r="A24" s="292"/>
       <c r="B24" s="59">
         <v>1042</v>
       </c>
@@ -4757,15 +4748,15 @@
       <c r="I24" s="66"/>
       <c r="J24" s="67"/>
       <c r="K24" s="125"/>
-      <c r="L24" s="340">
+      <c r="L24" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="341">
+      <c r="M24" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="342">
+      <c r="N24" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4794,7 +4785,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="344"/>
+      <c r="Y24" s="238"/>
       <c r="Z24" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4816,7 +4807,7 @@
       <c r="AF24" s="80"/>
     </row>
     <row r="25" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="282"/>
+      <c r="A25" s="292"/>
       <c r="B25" s="59">
         <v>1043</v>
       </c>
@@ -4834,15 +4825,15 @@
       <c r="I25" s="66"/>
       <c r="J25" s="67"/>
       <c r="K25" s="125"/>
-      <c r="L25" s="340">
+      <c r="L25" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="341">
+      <c r="M25" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="342">
+      <c r="N25" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4871,7 +4862,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="344"/>
+      <c r="Y25" s="238"/>
       <c r="Z25" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4898,7 +4889,7 @@
       <c r="AK25" s="128"/>
     </row>
     <row r="26" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="282"/>
+      <c r="A26" s="292"/>
       <c r="B26" s="59">
         <v>4044</v>
       </c>
@@ -4916,15 +4907,15 @@
       <c r="I26" s="66"/>
       <c r="J26" s="67"/>
       <c r="K26" s="125"/>
-      <c r="L26" s="340">
+      <c r="L26" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="341">
+      <c r="M26" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="342">
+      <c r="N26" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4953,7 +4944,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="344"/>
+      <c r="Y26" s="238"/>
       <c r="Z26" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4982,7 +4973,7 @@
       <c r="AK26" s="128"/>
     </row>
     <row r="27" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="282"/>
+      <c r="A27" s="292"/>
       <c r="B27" s="88">
         <v>4045</v>
       </c>
@@ -5000,15 +4991,15 @@
       <c r="I27" s="81"/>
       <c r="J27" s="82"/>
       <c r="K27" s="83"/>
-      <c r="L27" s="340">
+      <c r="L27" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="341">
+      <c r="M27" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="342">
+      <c r="N27" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5037,7 +5028,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="345"/>
+      <c r="Y27" s="239"/>
       <c r="Z27" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5063,7 +5054,7 @@
       <c r="AK27" s="128"/>
     </row>
     <row r="28" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="281" t="s">
+      <c r="A28" s="291" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="103">
@@ -5083,15 +5074,15 @@
       <c r="I28" s="49"/>
       <c r="J28" s="133"/>
       <c r="K28" s="134"/>
-      <c r="L28" s="340">
+      <c r="L28" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="341">
+      <c r="M28" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="342">
+      <c r="N28" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5120,7 +5111,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="343"/>
+      <c r="Y28" s="237"/>
       <c r="Z28" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5145,7 +5136,7 @@
       <c r="AI28"/>
     </row>
     <row r="29" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="282"/>
+      <c r="A29" s="292"/>
       <c r="B29" s="59">
         <v>1032</v>
       </c>
@@ -5153,9 +5144,9 @@
       <c r="D29" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="124">
         <f>SUM(E29:G29)</f>
         <v>0</v>
@@ -5163,15 +5154,15 @@
       <c r="I29" s="66"/>
       <c r="J29" s="67"/>
       <c r="K29" s="68"/>
-      <c r="L29" s="340">
+      <c r="L29" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="341">
+      <c r="M29" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="342">
+      <c r="N29" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5200,7 +5191,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="344"/>
+      <c r="Y29" s="238"/>
       <c r="Z29" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5225,7 +5216,7 @@
       <c r="AF29" s="80"/>
     </row>
     <row r="30" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="282"/>
+      <c r="A30" s="292"/>
       <c r="B30" s="59">
         <v>4033</v>
       </c>
@@ -5233,9 +5224,9 @@
       <c r="D30" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="124">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5243,15 +5234,15 @@
       <c r="I30" s="81"/>
       <c r="J30" s="82"/>
       <c r="K30" s="83"/>
-      <c r="L30" s="340">
+      <c r="L30" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="341">
+      <c r="M30" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="342">
+      <c r="N30" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5280,7 +5271,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="344"/>
+      <c r="Y30" s="238"/>
       <c r="Z30" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5305,7 +5296,7 @@
       <c r="AF30" s="80"/>
     </row>
     <row r="31" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="282"/>
+      <c r="A31" s="292"/>
       <c r="B31" s="88">
         <v>4034</v>
       </c>
@@ -5313,9 +5304,9 @@
       <c r="D31" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="135"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="137"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="124">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5323,15 +5314,15 @@
       <c r="I31" s="66"/>
       <c r="J31" s="67"/>
       <c r="K31" s="68"/>
-      <c r="L31" s="340">
+      <c r="L31" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="341">
+      <c r="M31" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="342">
+      <c r="N31" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5360,7 +5351,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="347"/>
+      <c r="Y31" s="241"/>
       <c r="Z31" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5383,7 +5374,7 @@
       <c r="AH31" s="127"/>
     </row>
     <row r="32" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="281" t="s">
+      <c r="A32" s="291" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="33">
@@ -5395,23 +5386,23 @@
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="131"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="140">
+      <c r="G32" s="135"/>
+      <c r="H32" s="136">
         <f>SUM(E32:G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="49"/>
       <c r="J32" s="133"/>
       <c r="K32" s="134"/>
-      <c r="L32" s="340">
+      <c r="L32" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="341">
+      <c r="M32" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="342">
+      <c r="N32" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5440,7 +5431,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="348"/>
+      <c r="Y32" s="242"/>
       <c r="Z32" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5467,7 +5458,7 @@
       <c r="AH32" s="127"/>
     </row>
     <row r="33" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="282"/>
+      <c r="A33" s="292"/>
       <c r="B33" s="88">
         <v>6052</v>
       </c>
@@ -5478,22 +5469,22 @@
       <c r="E33" s="62"/>
       <c r="F33" s="75"/>
       <c r="G33" s="64"/>
-      <c r="H33" s="141">
+      <c r="H33" s="137">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I33" s="66"/>
       <c r="J33" s="67"/>
       <c r="K33" s="68"/>
-      <c r="L33" s="340">
+      <c r="L33" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="341">
+      <c r="M33" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="342">
+      <c r="N33" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5522,7 +5513,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="347"/>
+      <c r="Y33" s="241"/>
       <c r="Z33" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5549,7 +5540,7 @@
       <c r="AH33" s="127"/>
     </row>
     <row r="34" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="281" t="s">
+      <c r="A34" s="291" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="33">
@@ -5561,23 +5552,23 @@
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="131"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="140">
+      <c r="G34" s="135"/>
+      <c r="H34" s="136">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I34" s="49"/>
       <c r="J34" s="133"/>
       <c r="K34" s="134"/>
-      <c r="L34" s="340">
+      <c r="L34" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="341">
+      <c r="M34" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="342">
+      <c r="N34" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5606,7 +5597,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="348"/>
+      <c r="Y34" s="242"/>
       <c r="Z34" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5629,7 +5620,7 @@
       <c r="AG34"/>
     </row>
     <row r="35" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="282"/>
+      <c r="A35" s="292"/>
       <c r="B35" s="59">
         <v>6062</v>
       </c>
@@ -5640,22 +5631,22 @@
       <c r="E35" s="62"/>
       <c r="F35" s="75"/>
       <c r="G35" s="64"/>
-      <c r="H35" s="232">
+      <c r="H35" s="228">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I35" s="66"/>
       <c r="J35" s="67"/>
       <c r="K35" s="68"/>
-      <c r="L35" s="340">
+      <c r="L35" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="341">
+      <c r="M35" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="342">
+      <c r="N35" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5684,7 +5675,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="349"/>
+      <c r="Y35" s="243"/>
       <c r="Z35" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5709,7 +5700,7 @@
       <c r="AF35" s="80"/>
     </row>
     <row r="36" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="283"/>
+      <c r="A36" s="293"/>
       <c r="B36" s="88">
         <v>6063</v>
       </c>
@@ -5717,25 +5708,25 @@
       <c r="D36" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="142"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="63"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="144">
+      <c r="G36" s="139"/>
+      <c r="H36" s="140">
         <f t="shared" ref="H36:H41" si="14">SUM(E36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="81"/>
       <c r="J36" s="82"/>
       <c r="K36" s="83"/>
-      <c r="L36" s="340">
+      <c r="L36" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="341">
+      <c r="M36" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="342">
+      <c r="N36" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5764,7 +5755,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="347"/>
+      <c r="Y36" s="241"/>
       <c r="Z36" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5785,11 +5776,11 @@
         <f>SUM(AC34:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AE36" s="145"/>
-      <c r="AF36" s="145"/>
+      <c r="AE36" s="141"/>
+      <c r="AF36" s="141"/>
     </row>
     <row r="37" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="292" t="s">
+      <c r="A37" s="278" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="103">
@@ -5799,25 +5790,25 @@
       <c r="D37" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="146"/>
+      <c r="E37" s="142"/>
       <c r="F37" s="37"/>
       <c r="G37" s="119"/>
-      <c r="H37" s="147">
+      <c r="H37" s="143">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I37" s="40"/>
       <c r="J37" s="41"/>
       <c r="K37" s="42"/>
-      <c r="L37" s="340">
+      <c r="L37" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="341">
+      <c r="M37" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="342">
+      <c r="N37" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5846,7 +5837,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="348"/>
+      <c r="Y37" s="242"/>
       <c r="Z37" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5866,20 +5857,20 @@
       <c r="AD37" s="57"/>
       <c r="AE37" s="80"/>
       <c r="AF37" s="80"/>
-      <c r="AJ37" s="220"/>
-      <c r="AK37" s="220"/>
-      <c r="AL37" s="220"/>
-      <c r="AM37" s="220"/>
-      <c r="AN37" s="220"/>
-      <c r="AO37" s="220"/>
-      <c r="AP37" s="220"/>
-      <c r="AQ37" s="220"/>
-      <c r="AR37" s="220"/>
-      <c r="AS37" s="220"/>
-      <c r="AT37" s="220"/>
+      <c r="AJ37" s="216"/>
+      <c r="AK37" s="216"/>
+      <c r="AL37" s="216"/>
+      <c r="AM37" s="216"/>
+      <c r="AN37" s="216"/>
+      <c r="AO37" s="216"/>
+      <c r="AP37" s="216"/>
+      <c r="AQ37" s="216"/>
+      <c r="AR37" s="216"/>
+      <c r="AS37" s="216"/>
+      <c r="AT37" s="216"/>
     </row>
     <row r="38" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="292"/>
+      <c r="A38" s="278"/>
       <c r="B38" s="59">
         <v>1072</v>
       </c>
@@ -5890,22 +5881,22 @@
       <c r="E38" s="118"/>
       <c r="F38" s="75"/>
       <c r="G38" s="64"/>
-      <c r="H38" s="148">
+      <c r="H38" s="144">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I38" s="66"/>
       <c r="J38" s="67"/>
       <c r="K38" s="125"/>
-      <c r="L38" s="340">
+      <c r="L38" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M38" s="341">
+      <c r="M38" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="342">
+      <c r="N38" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5934,7 +5925,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="349"/>
+      <c r="Y38" s="243"/>
       <c r="Z38" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5954,20 +5945,20 @@
       <c r="AD38" s="73"/>
       <c r="AE38" s="80"/>
       <c r="AF38" s="80"/>
-      <c r="AJ38" s="220"/>
-      <c r="AK38" s="220"/>
-      <c r="AL38" s="220"/>
-      <c r="AM38" s="220"/>
-      <c r="AN38" s="220"/>
-      <c r="AO38" s="220"/>
-      <c r="AP38" s="220"/>
-      <c r="AQ38" s="220"/>
-      <c r="AR38" s="220"/>
-      <c r="AS38" s="220"/>
-      <c r="AT38" s="220"/>
+      <c r="AJ38" s="216"/>
+      <c r="AK38" s="216"/>
+      <c r="AL38" s="216"/>
+      <c r="AM38" s="216"/>
+      <c r="AN38" s="216"/>
+      <c r="AO38" s="216"/>
+      <c r="AP38" s="216"/>
+      <c r="AQ38" s="216"/>
+      <c r="AR38" s="216"/>
+      <c r="AS38" s="216"/>
+      <c r="AT38" s="216"/>
     </row>
     <row r="39" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="292"/>
+      <c r="A39" s="278"/>
       <c r="B39" s="59">
         <v>1073</v>
       </c>
@@ -5978,22 +5969,22 @@
       <c r="E39" s="62"/>
       <c r="F39" s="75"/>
       <c r="G39" s="64"/>
-      <c r="H39" s="149">
+      <c r="H39" s="145">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I39" s="66"/>
       <c r="J39" s="67"/>
       <c r="K39" s="125"/>
-      <c r="L39" s="340">
+      <c r="L39" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="341">
+      <c r="M39" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="342">
+      <c r="N39" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6022,7 +6013,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="349"/>
+      <c r="Y39" s="243"/>
       <c r="Z39" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6046,20 +6037,20 @@
       <c r="AE39" s="80"/>
       <c r="AF39" s="80"/>
       <c r="AG39" s="80"/>
-      <c r="AJ39" s="220"/>
-      <c r="AK39" s="220"/>
-      <c r="AL39" s="220"/>
-      <c r="AM39" s="220"/>
-      <c r="AN39" s="220"/>
-      <c r="AO39" s="220"/>
-      <c r="AP39" s="220"/>
-      <c r="AQ39" s="220"/>
-      <c r="AR39" s="220"/>
-      <c r="AS39" s="220"/>
-      <c r="AT39" s="220"/>
+      <c r="AJ39" s="216"/>
+      <c r="AK39" s="216"/>
+      <c r="AL39" s="216"/>
+      <c r="AM39" s="216"/>
+      <c r="AN39" s="216"/>
+      <c r="AO39" s="216"/>
+      <c r="AP39" s="216"/>
+      <c r="AQ39" s="216"/>
+      <c r="AR39" s="216"/>
+      <c r="AS39" s="216"/>
+      <c r="AT39" s="216"/>
     </row>
     <row r="40" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="292"/>
+      <c r="A40" s="278"/>
       <c r="B40" s="59">
         <v>7074</v>
       </c>
@@ -6070,22 +6061,22 @@
       <c r="E40" s="118"/>
       <c r="F40" s="75"/>
       <c r="G40" s="64"/>
-      <c r="H40" s="150">
+      <c r="H40" s="146">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I40" s="66"/>
       <c r="J40" s="67"/>
       <c r="K40" s="125"/>
-      <c r="L40" s="340">
+      <c r="L40" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="341">
+      <c r="M40" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="342">
+      <c r="N40" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6114,7 +6105,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="349"/>
+      <c r="Y40" s="243"/>
       <c r="Z40" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6138,20 +6129,20 @@
       <c r="AE40" s="80"/>
       <c r="AF40" s="80"/>
       <c r="AG40" s="80"/>
-      <c r="AJ40" s="220"/>
-      <c r="AK40" s="220"/>
-      <c r="AL40" s="220"/>
-      <c r="AM40" s="220"/>
-      <c r="AN40" s="220"/>
-      <c r="AO40" s="220"/>
-      <c r="AP40" s="220"/>
-      <c r="AQ40" s="220"/>
-      <c r="AR40" s="220"/>
-      <c r="AS40" s="220"/>
-      <c r="AT40" s="220"/>
+      <c r="AJ40" s="216"/>
+      <c r="AK40" s="216"/>
+      <c r="AL40" s="216"/>
+      <c r="AM40" s="216"/>
+      <c r="AN40" s="216"/>
+      <c r="AO40" s="216"/>
+      <c r="AP40" s="216"/>
+      <c r="AQ40" s="216"/>
+      <c r="AR40" s="216"/>
+      <c r="AS40" s="216"/>
+      <c r="AT40" s="216"/>
     </row>
     <row r="41" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="292"/>
+      <c r="A41" s="278"/>
       <c r="B41" s="88">
         <v>7075</v>
       </c>
@@ -6162,22 +6153,22 @@
       <c r="E41" s="118"/>
       <c r="F41" s="75"/>
       <c r="G41" s="64"/>
-      <c r="H41" s="151">
+      <c r="H41" s="147">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I41" s="101"/>
       <c r="J41" s="96"/>
-      <c r="K41" s="152"/>
-      <c r="L41" s="340">
+      <c r="K41" s="148"/>
+      <c r="L41" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="341">
+      <c r="M41" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N41" s="342">
+      <c r="N41" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6206,7 +6197,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="347"/>
+      <c r="Y41" s="241"/>
       <c r="Z41" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6227,20 +6218,20 @@
       <c r="AE41" s="80"/>
       <c r="AF41" s="80"/>
       <c r="AG41" s="80"/>
-      <c r="AJ41" s="220"/>
-      <c r="AK41" s="220"/>
-      <c r="AL41" s="220"/>
-      <c r="AM41" s="220"/>
-      <c r="AN41" s="220"/>
-      <c r="AO41" s="220"/>
-      <c r="AP41" s="220"/>
-      <c r="AQ41" s="220"/>
-      <c r="AR41" s="220"/>
-      <c r="AS41" s="220"/>
-      <c r="AT41" s="220"/>
+      <c r="AJ41" s="216"/>
+      <c r="AK41" s="216"/>
+      <c r="AL41" s="216"/>
+      <c r="AM41" s="216"/>
+      <c r="AN41" s="216"/>
+      <c r="AO41" s="216"/>
+      <c r="AP41" s="216"/>
+      <c r="AQ41" s="216"/>
+      <c r="AR41" s="216"/>
+      <c r="AS41" s="216"/>
+      <c r="AT41" s="216"/>
     </row>
     <row r="42" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="294" t="s">
+      <c r="A42" s="279" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="33">
@@ -6250,25 +6241,25 @@
       <c r="D42" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="153"/>
+      <c r="E42" s="149"/>
       <c r="F42" s="37"/>
       <c r="G42" s="119"/>
-      <c r="H42" s="154">
+      <c r="H42" s="150">
         <f>SUM(E42:G42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="81"/>
       <c r="J42" s="82"/>
       <c r="K42" s="83"/>
-      <c r="L42" s="340">
+      <c r="L42" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="341">
+      <c r="M42" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N42" s="342">
+      <c r="N42" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6297,7 +6288,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="348"/>
+      <c r="Y42" s="242"/>
       <c r="Z42" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6315,21 +6306,21 @@
         <v>0</v>
       </c>
       <c r="AD42" s="57"/>
-      <c r="AE42" s="145"/>
-      <c r="AJ42" s="220"/>
-      <c r="AK42" s="225"/>
-      <c r="AL42" s="225"/>
-      <c r="AM42" s="218"/>
-      <c r="AN42" s="225"/>
-      <c r="AO42" s="225"/>
-      <c r="AP42" s="220"/>
-      <c r="AQ42" s="225"/>
-      <c r="AR42" s="225"/>
-      <c r="AS42" s="220"/>
-      <c r="AT42" s="220"/>
+      <c r="AE42" s="141"/>
+      <c r="AJ42" s="216"/>
+      <c r="AK42" s="221"/>
+      <c r="AL42" s="221"/>
+      <c r="AM42" s="214"/>
+      <c r="AN42" s="221"/>
+      <c r="AO42" s="221"/>
+      <c r="AP42" s="216"/>
+      <c r="AQ42" s="221"/>
+      <c r="AR42" s="221"/>
+      <c r="AS42" s="216"/>
+      <c r="AT42" s="216"/>
     </row>
     <row r="43" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="295"/>
+      <c r="A43" s="280"/>
       <c r="B43" s="59">
         <v>9092</v>
       </c>
@@ -6340,22 +6331,22 @@
       <c r="E43" s="62"/>
       <c r="F43" s="75"/>
       <c r="G43" s="64"/>
-      <c r="H43" s="150">
+      <c r="H43" s="146">
         <f>SUM(E43:G43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="66"/>
       <c r="J43" s="67"/>
       <c r="K43" s="125"/>
-      <c r="L43" s="340">
+      <c r="L43" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M43" s="341">
+      <c r="M43" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N43" s="342">
+      <c r="N43" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6384,7 +6375,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="349"/>
+      <c r="Y43" s="243"/>
       <c r="Z43" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6403,20 +6394,20 @@
       </c>
       <c r="AD43" s="73"/>
       <c r="AE43" s="80"/>
-      <c r="AJ43" s="220"/>
-      <c r="AK43" s="224"/>
-      <c r="AL43" s="226"/>
-      <c r="AM43" s="227"/>
-      <c r="AN43" s="224"/>
-      <c r="AO43" s="226"/>
-      <c r="AP43" s="220"/>
-      <c r="AQ43" s="224"/>
-      <c r="AR43" s="226"/>
-      <c r="AS43" s="220"/>
-      <c r="AT43" s="220"/>
+      <c r="AJ43" s="216"/>
+      <c r="AK43" s="220"/>
+      <c r="AL43" s="222"/>
+      <c r="AM43" s="223"/>
+      <c r="AN43" s="220"/>
+      <c r="AO43" s="222"/>
+      <c r="AP43" s="216"/>
+      <c r="AQ43" s="220"/>
+      <c r="AR43" s="222"/>
+      <c r="AS43" s="216"/>
+      <c r="AT43" s="216"/>
     </row>
     <row r="44" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="295"/>
+      <c r="A44" s="280"/>
       <c r="B44" s="59">
         <v>9093</v>
       </c>
@@ -6427,22 +6418,22 @@
       <c r="E44" s="62"/>
       <c r="F44" s="75"/>
       <c r="G44" s="64"/>
-      <c r="H44" s="150">
+      <c r="H44" s="146">
         <f>SUM(E44:G44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="66"/>
       <c r="J44" s="67"/>
       <c r="K44" s="125"/>
-      <c r="L44" s="340">
+      <c r="L44" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M44" s="341">
+      <c r="M44" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N44" s="342">
+      <c r="N44" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6471,7 +6462,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="349"/>
+      <c r="Y44" s="243"/>
       <c r="Z44" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6492,21 +6483,21 @@
         <f>SUM(AB42:AB47)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="145"/>
-      <c r="AJ44" s="220"/>
-      <c r="AK44" s="225"/>
-      <c r="AL44" s="228"/>
-      <c r="AM44" s="218"/>
-      <c r="AN44" s="225"/>
-      <c r="AO44" s="229"/>
-      <c r="AP44" s="220"/>
-      <c r="AQ44" s="225"/>
-      <c r="AR44" s="229"/>
-      <c r="AS44" s="220"/>
-      <c r="AT44" s="220"/>
+      <c r="AE44" s="141"/>
+      <c r="AJ44" s="216"/>
+      <c r="AK44" s="221"/>
+      <c r="AL44" s="224"/>
+      <c r="AM44" s="214"/>
+      <c r="AN44" s="221"/>
+      <c r="AO44" s="225"/>
+      <c r="AP44" s="216"/>
+      <c r="AQ44" s="221"/>
+      <c r="AR44" s="225"/>
+      <c r="AS44" s="216"/>
+      <c r="AT44" s="216"/>
     </row>
     <row r="45" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="295"/>
+      <c r="A45" s="280"/>
       <c r="B45" s="59">
         <v>9194</v>
       </c>
@@ -6517,22 +6508,22 @@
       <c r="E45" s="62"/>
       <c r="F45" s="75"/>
       <c r="G45" s="64"/>
-      <c r="H45" s="150">
+      <c r="H45" s="146">
         <f>SUM(E45:G45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="66"/>
       <c r="J45" s="67"/>
       <c r="K45" s="125"/>
-      <c r="L45" s="340">
+      <c r="L45" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M45" s="341">
+      <c r="M45" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45" s="342">
+      <c r="N45" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6561,7 +6552,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y45" s="349"/>
+      <c r="Y45" s="243"/>
       <c r="Z45" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6583,20 +6574,20 @@
         <v>0</v>
       </c>
       <c r="AE45" s="80"/>
-      <c r="AJ45" s="220"/>
-      <c r="AK45" s="224"/>
-      <c r="AL45" s="230"/>
-      <c r="AM45" s="218"/>
-      <c r="AN45" s="224"/>
-      <c r="AO45" s="231"/>
-      <c r="AP45" s="220"/>
-      <c r="AQ45" s="224"/>
-      <c r="AR45" s="231"/>
-      <c r="AS45" s="220"/>
-      <c r="AT45" s="220"/>
+      <c r="AJ45" s="216"/>
+      <c r="AK45" s="220"/>
+      <c r="AL45" s="226"/>
+      <c r="AM45" s="214"/>
+      <c r="AN45" s="220"/>
+      <c r="AO45" s="227"/>
+      <c r="AP45" s="216"/>
+      <c r="AQ45" s="220"/>
+      <c r="AR45" s="227"/>
+      <c r="AS45" s="216"/>
+      <c r="AT45" s="216"/>
     </row>
     <row r="46" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="295"/>
+      <c r="A46" s="280"/>
       <c r="B46" s="59">
         <v>9195</v>
       </c>
@@ -6607,22 +6598,22 @@
       <c r="E46" s="62"/>
       <c r="F46" s="75"/>
       <c r="G46" s="64"/>
-      <c r="H46" s="150">
+      <c r="H46" s="146">
         <f t="shared" ref="H46:H47" si="15">SUM(E46:G46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="66"/>
       <c r="J46" s="67"/>
       <c r="K46" s="125"/>
-      <c r="L46" s="340">
+      <c r="L46" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M46" s="341">
+      <c r="M46" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N46" s="342">
+      <c r="N46" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6651,7 +6642,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="349"/>
+      <c r="Y46" s="243"/>
       <c r="Z46" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6668,22 +6659,22 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD46" s="155"/>
+      <c r="AD46" s="151"/>
       <c r="AE46" s="80"/>
-      <c r="AJ46" s="220"/>
-      <c r="AK46" s="224"/>
-      <c r="AL46" s="230"/>
-      <c r="AM46" s="218"/>
-      <c r="AN46" s="224"/>
-      <c r="AO46" s="231"/>
-      <c r="AP46" s="220"/>
-      <c r="AQ46" s="224"/>
-      <c r="AR46" s="231"/>
-      <c r="AS46" s="220"/>
-      <c r="AT46" s="220"/>
-    </row>
-    <row r="47" spans="1:46" s="217" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="296"/>
+      <c r="AJ46" s="216"/>
+      <c r="AK46" s="220"/>
+      <c r="AL46" s="226"/>
+      <c r="AM46" s="214"/>
+      <c r="AN46" s="220"/>
+      <c r="AO46" s="227"/>
+      <c r="AP46" s="216"/>
+      <c r="AQ46" s="220"/>
+      <c r="AR46" s="227"/>
+      <c r="AS46" s="216"/>
+      <c r="AT46" s="216"/>
+    </row>
+    <row r="47" spans="1:46" s="213" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="281"/>
       <c r="B47" s="88">
         <v>9500</v>
       </c>
@@ -6694,26 +6685,26 @@
       <c r="E47" s="112"/>
       <c r="F47" s="92"/>
       <c r="G47" s="93"/>
-      <c r="H47" s="150">
+      <c r="H47" s="146">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I47" s="101"/>
       <c r="J47" s="96"/>
-      <c r="K47" s="152"/>
-      <c r="L47" s="340">
+      <c r="K47" s="148"/>
+      <c r="L47" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="341">
+      <c r="M47" s="235">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47" s="342">
+      <c r="N47" s="236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O47" s="208">
+      <c r="O47" s="204">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6724,7 +6715,7 @@
       <c r="Q47" s="98"/>
       <c r="R47" s="99"/>
       <c r="S47" s="100"/>
-      <c r="T47" s="209">
+      <c r="T47" s="205">
         <f>SUM(Q47:S47)</f>
         <v>0</v>
       </c>
@@ -6734,12 +6725,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X47" s="210">
+      <c r="X47" s="206">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="347"/>
-      <c r="Z47" s="211">
+      <c r="Y47" s="241"/>
+      <c r="Z47" s="207">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6747,7 +6738,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="212">
+      <c r="AB47" s="208">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6756,662 +6747,662 @@
         <v>0</v>
       </c>
       <c r="AD47" s="102"/>
-      <c r="AE47" s="213"/>
-      <c r="AF47" s="214"/>
-      <c r="AG47" s="214"/>
-      <c r="AH47" s="215"/>
-      <c r="AI47" s="216"/>
-      <c r="AJ47" s="220"/>
-      <c r="AK47" s="224"/>
-      <c r="AL47" s="230"/>
-      <c r="AM47" s="218"/>
-      <c r="AN47" s="224"/>
-      <c r="AO47" s="230"/>
-      <c r="AP47" s="220"/>
-      <c r="AQ47" s="224"/>
-      <c r="AR47" s="230"/>
-      <c r="AS47" s="220"/>
-      <c r="AT47" s="220"/>
+      <c r="AE47" s="209"/>
+      <c r="AF47" s="210"/>
+      <c r="AG47" s="210"/>
+      <c r="AH47" s="211"/>
+      <c r="AI47" s="212"/>
+      <c r="AJ47" s="216"/>
+      <c r="AK47" s="220"/>
+      <c r="AL47" s="226"/>
+      <c r="AM47" s="214"/>
+      <c r="AN47" s="220"/>
+      <c r="AO47" s="226"/>
+      <c r="AP47" s="216"/>
+      <c r="AQ47" s="220"/>
+      <c r="AR47" s="226"/>
+      <c r="AS47" s="216"/>
+      <c r="AT47" s="216"/>
     </row>
     <row r="48" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="156"/>
-      <c r="B48" s="157"/>
-      <c r="C48" s="158"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="157"/>
-      <c r="L48" s="156"/>
-      <c r="M48" s="156"/>
-      <c r="N48" s="156"/>
-      <c r="O48" s="156"/>
-      <c r="P48" s="156"/>
-      <c r="T48" s="159"/>
-      <c r="U48" s="159"/>
-      <c r="V48" s="159"/>
-      <c r="W48" s="159"/>
-      <c r="X48" s="159"/>
-      <c r="Y48" s="159"/>
-      <c r="Z48" s="159"/>
-      <c r="AA48" s="159"/>
-      <c r="AB48" s="207" t="s">
+      <c r="A48" s="152"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="152"/>
+      <c r="M48" s="152"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="152"/>
+      <c r="P48" s="152"/>
+      <c r="T48" s="155"/>
+      <c r="U48" s="155"/>
+      <c r="V48" s="155"/>
+      <c r="W48" s="155"/>
+      <c r="X48" s="155"/>
+      <c r="Y48" s="155"/>
+      <c r="Z48" s="155"/>
+      <c r="AA48" s="155"/>
+      <c r="AB48" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="AC48" s="207" t="s">
+      <c r="AC48" s="203" t="s">
         <v>86</v>
       </c>
-      <c r="AE48" s="161"/>
-      <c r="AF48" s="161"/>
-      <c r="AJ48" s="220"/>
-      <c r="AK48" s="220"/>
-      <c r="AL48" s="220"/>
-      <c r="AM48" s="220"/>
-      <c r="AN48" s="220"/>
-      <c r="AO48" s="220"/>
-      <c r="AP48" s="220"/>
-      <c r="AQ48" s="220"/>
-      <c r="AR48" s="220"/>
-      <c r="AS48" s="220"/>
-      <c r="AT48" s="220"/>
+      <c r="AE48" s="157"/>
+      <c r="AF48" s="157"/>
+      <c r="AJ48" s="216"/>
+      <c r="AK48" s="216"/>
+      <c r="AL48" s="216"/>
+      <c r="AM48" s="216"/>
+      <c r="AN48" s="216"/>
+      <c r="AO48" s="216"/>
+      <c r="AP48" s="216"/>
+      <c r="AQ48" s="216"/>
+      <c r="AR48" s="216"/>
+      <c r="AS48" s="216"/>
+      <c r="AT48" s="216"/>
     </row>
     <row r="49" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="297" t="s">
+      <c r="A49" s="282" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="298"/>
-      <c r="C49" s="298"/>
-      <c r="D49" s="298"/>
-      <c r="E49" s="298"/>
-      <c r="F49" s="298"/>
-      <c r="G49" s="298"/>
-      <c r="H49" s="298"/>
-      <c r="I49" s="298"/>
-      <c r="J49" s="298"/>
-      <c r="K49" s="298"/>
-      <c r="L49" s="298"/>
-      <c r="M49" s="298"/>
-      <c r="N49" s="298"/>
-      <c r="O49" s="298"/>
-      <c r="P49" s="298"/>
-      <c r="Q49" s="298"/>
-      <c r="R49" s="298"/>
-      <c r="S49" s="298"/>
-      <c r="T49" s="298"/>
-      <c r="U49" s="298"/>
-      <c r="V49" s="298"/>
-      <c r="W49" s="298"/>
-      <c r="X49" s="298"/>
-      <c r="Y49" s="298"/>
-      <c r="Z49" s="298"/>
-      <c r="AA49" s="298"/>
-      <c r="AB49" s="162">
+      <c r="B49" s="283"/>
+      <c r="C49" s="283"/>
+      <c r="D49" s="283"/>
+      <c r="E49" s="283"/>
+      <c r="F49" s="283"/>
+      <c r="G49" s="283"/>
+      <c r="H49" s="283"/>
+      <c r="I49" s="283"/>
+      <c r="J49" s="283"/>
+      <c r="K49" s="283"/>
+      <c r="L49" s="283"/>
+      <c r="M49" s="283"/>
+      <c r="N49" s="283"/>
+      <c r="O49" s="283"/>
+      <c r="P49" s="283"/>
+      <c r="Q49" s="283"/>
+      <c r="R49" s="283"/>
+      <c r="S49" s="283"/>
+      <c r="T49" s="283"/>
+      <c r="U49" s="283"/>
+      <c r="V49" s="283"/>
+      <c r="W49" s="283"/>
+      <c r="X49" s="283"/>
+      <c r="Y49" s="283"/>
+      <c r="Z49" s="283"/>
+      <c r="AA49" s="283"/>
+      <c r="AB49" s="158">
         <f>SUM(AB10:AB47)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="163">
+      <c r="AC49" s="159">
         <f>SUM(AC10:AC47)</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="164"/>
-      <c r="AE49" s="161"/>
-      <c r="AF49" s="161"/>
+      <c r="AD49" s="160"/>
+      <c r="AE49" s="157"/>
+      <c r="AF49" s="157"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="2"/>
       <c r="AI49"/>
     </row>
     <row r="50" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="165"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="165"/>
-      <c r="K50" s="165"/>
-      <c r="L50" s="165"/>
-      <c r="M50" s="165"/>
-      <c r="N50" s="165"/>
-      <c r="O50" s="165"/>
-      <c r="P50" s="166"/>
-      <c r="Q50" s="166"/>
-      <c r="R50" s="166"/>
-      <c r="S50" s="166"/>
-      <c r="T50" s="166"/>
-      <c r="U50" s="166"/>
-      <c r="V50" s="166"/>
-      <c r="W50" s="166"/>
-      <c r="X50" s="166"/>
-      <c r="Y50" s="166"/>
-      <c r="Z50" s="166"/>
-      <c r="AA50" s="166"/>
-      <c r="AB50" s="166"/>
-      <c r="AD50" s="167"/>
-      <c r="AE50" s="161"/>
-      <c r="AF50" s="161"/>
+      <c r="A50" s="161"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="161"/>
+      <c r="M50" s="161"/>
+      <c r="N50" s="161"/>
+      <c r="O50" s="161"/>
+      <c r="P50" s="162"/>
+      <c r="Q50" s="162"/>
+      <c r="R50" s="162"/>
+      <c r="S50" s="162"/>
+      <c r="T50" s="162"/>
+      <c r="U50" s="162"/>
+      <c r="V50" s="162"/>
+      <c r="W50" s="162"/>
+      <c r="X50" s="162"/>
+      <c r="Y50" s="162"/>
+      <c r="Z50" s="162"/>
+      <c r="AA50" s="162"/>
+      <c r="AB50" s="162"/>
+      <c r="AD50" s="163"/>
+      <c r="AE50" s="157"/>
+      <c r="AF50" s="157"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="2"/>
       <c r="AI50"/>
     </row>
     <row r="51" spans="1:40" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="165"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="165"/>
-      <c r="L51" s="165"/>
-      <c r="M51" s="165"/>
-      <c r="N51" s="165"/>
-      <c r="O51" s="165"/>
-      <c r="P51" s="168"/>
-      <c r="Q51" s="168"/>
-      <c r="R51" s="169"/>
-      <c r="S51" s="168"/>
-      <c r="T51" s="168"/>
-      <c r="U51" s="168"/>
-      <c r="V51" s="169"/>
-      <c r="W51" s="168"/>
-      <c r="X51" s="169"/>
-      <c r="Y51" s="168"/>
-      <c r="Z51" s="168"/>
-      <c r="AA51" s="168"/>
-      <c r="AB51" s="168"/>
-      <c r="AE51" s="161"/>
-      <c r="AF51" s="161"/>
-      <c r="AG51" s="170"/>
-      <c r="AH51" s="171"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="161"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="161"/>
+      <c r="L51" s="161"/>
+      <c r="M51" s="161"/>
+      <c r="N51" s="161"/>
+      <c r="O51" s="161"/>
+      <c r="P51" s="164"/>
+      <c r="Q51" s="164"/>
+      <c r="R51" s="165"/>
+      <c r="S51" s="164"/>
+      <c r="T51" s="164"/>
+      <c r="U51" s="164"/>
+      <c r="V51" s="165"/>
+      <c r="W51" s="164"/>
+      <c r="X51" s="165"/>
+      <c r="Y51" s="164"/>
+      <c r="Z51" s="164"/>
+      <c r="AA51" s="164"/>
+      <c r="AB51" s="164"/>
+      <c r="AE51" s="157"/>
+      <c r="AF51" s="157"/>
+      <c r="AG51" s="166"/>
+      <c r="AH51" s="167"/>
       <c r="AI51"/>
     </row>
     <row r="52" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="299" t="s">
+      <c r="A52" s="284" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="301" t="s">
+      <c r="B52" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="301"/>
-      <c r="D52" s="301"/>
-      <c r="E52" s="301"/>
-      <c r="F52" s="303" t="s">
+      <c r="C52" s="286"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="286"/>
+      <c r="F52" s="288" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="305" t="s">
+      <c r="H52" s="290" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="305"/>
-      <c r="J52" s="305"/>
-      <c r="K52" s="305"/>
-      <c r="L52" s="305"/>
-      <c r="M52" s="305"/>
-      <c r="O52" s="172" t="s">
+      <c r="I52" s="290"/>
+      <c r="J52" s="290"/>
+      <c r="K52" s="290"/>
+      <c r="L52" s="290"/>
+      <c r="M52" s="290"/>
+      <c r="O52" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="P52" s="173"/>
-      <c r="Q52" s="173"/>
-      <c r="R52" s="173"/>
-      <c r="S52" s="172" t="s">
+      <c r="P52" s="169"/>
+      <c r="Q52" s="169"/>
+      <c r="R52" s="169"/>
+      <c r="S52" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="T52" s="173"/>
-      <c r="U52" s="173"/>
-      <c r="V52" s="173"/>
-      <c r="W52" s="174"/>
-      <c r="X52" s="172" t="s">
+      <c r="T52" s="169"/>
+      <c r="U52" s="169"/>
+      <c r="V52" s="169"/>
+      <c r="W52" s="170"/>
+      <c r="X52" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="Y52" s="173"/>
-      <c r="Z52" s="173"/>
-      <c r="AA52" s="174"/>
-      <c r="AB52" s="172" t="s">
+      <c r="Y52" s="169"/>
+      <c r="Z52" s="169"/>
+      <c r="AA52" s="170"/>
+      <c r="AB52" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="AC52" s="173"/>
-      <c r="AD52" s="174"/>
-      <c r="AE52" s="161"/>
-      <c r="AF52" s="161"/>
+      <c r="AC52" s="169"/>
+      <c r="AD52" s="170"/>
+      <c r="AE52" s="157"/>
+      <c r="AF52" s="157"/>
       <c r="AK52" s="126"/>
-      <c r="AL52" s="170"/>
-      <c r="AM52" s="171"/>
+      <c r="AL52" s="166"/>
+      <c r="AM52" s="167"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="300"/>
-      <c r="B53" s="302"/>
-      <c r="C53" s="302"/>
-      <c r="D53" s="302"/>
-      <c r="E53" s="302"/>
-      <c r="F53" s="304"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="305"/>
-      <c r="I53" s="305"/>
-      <c r="J53" s="305"/>
-      <c r="K53" s="305"/>
-      <c r="L53" s="305"/>
-      <c r="M53" s="305"/>
-      <c r="O53" s="306" t="s">
+      <c r="A53" s="285"/>
+      <c r="B53" s="287"/>
+      <c r="C53" s="287"/>
+      <c r="D53" s="287"/>
+      <c r="E53" s="287"/>
+      <c r="F53" s="289"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="290"/>
+      <c r="I53" s="290"/>
+      <c r="J53" s="290"/>
+      <c r="K53" s="290"/>
+      <c r="L53" s="290"/>
+      <c r="M53" s="290"/>
+      <c r="O53" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="P53" s="307"/>
-      <c r="Q53" s="307"/>
-      <c r="R53" s="308"/>
-      <c r="S53" s="306" t="s">
+      <c r="P53" s="270"/>
+      <c r="Q53" s="270"/>
+      <c r="R53" s="271"/>
+      <c r="S53" s="269" t="s">
         <v>96</v>
       </c>
-      <c r="T53" s="307"/>
-      <c r="U53" s="307"/>
-      <c r="V53" s="307"/>
-      <c r="W53" s="308"/>
-      <c r="X53" s="306" t="s">
+      <c r="T53" s="270"/>
+      <c r="U53" s="270"/>
+      <c r="V53" s="270"/>
+      <c r="W53" s="271"/>
+      <c r="X53" s="269" t="s">
         <v>97</v>
       </c>
-      <c r="Y53" s="307"/>
-      <c r="Z53" s="307"/>
-      <c r="AA53" s="308"/>
-      <c r="AB53" s="306" t="s">
+      <c r="Y53" s="270"/>
+      <c r="Z53" s="270"/>
+      <c r="AA53" s="271"/>
+      <c r="AB53" s="269" t="s">
         <v>98</v>
       </c>
-      <c r="AC53" s="307"/>
-      <c r="AD53" s="308"/>
+      <c r="AC53" s="270"/>
+      <c r="AD53" s="271"/>
       <c r="AK53" s="126"/>
-      <c r="AL53" s="170"/>
-      <c r="AM53" s="171"/>
+      <c r="AL53" s="166"/>
+      <c r="AM53" s="167"/>
     </row>
     <row r="54" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="176" t="s">
+      <c r="A54" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="309" t="s">
+      <c r="B54" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="309"/>
-      <c r="D54" s="309"/>
-      <c r="E54" s="309"/>
-      <c r="F54" s="177" t="s">
+      <c r="C54" s="249"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="249"/>
+      <c r="F54" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="178" t="s">
+      <c r="G54" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="H54" s="310" t="s">
+      <c r="H54" s="272" t="s">
         <v>103</v>
       </c>
-      <c r="I54" s="311"/>
-      <c r="J54" s="311"/>
-      <c r="K54" s="311"/>
-      <c r="L54" s="312">
+      <c r="I54" s="273"/>
+      <c r="J54" s="273"/>
+      <c r="K54" s="273"/>
+      <c r="L54" s="274">
         <f>AB10+AB11</f>
         <v>0</v>
       </c>
-      <c r="M54" s="313"/>
-      <c r="O54" s="179" t="s">
+      <c r="M54" s="275"/>
+      <c r="O54" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="P54" s="180"/>
-      <c r="Q54" s="180"/>
-      <c r="R54" s="181"/>
-      <c r="S54" s="182" t="s">
+      <c r="P54" s="176"/>
+      <c r="Q54" s="176"/>
+      <c r="R54" s="177"/>
+      <c r="S54" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="T54" s="180"/>
-      <c r="U54" s="180"/>
-      <c r="V54" s="180"/>
-      <c r="W54" s="181"/>
-      <c r="X54" s="179" t="s">
+      <c r="T54" s="176"/>
+      <c r="U54" s="176"/>
+      <c r="V54" s="176"/>
+      <c r="W54" s="177"/>
+      <c r="X54" s="175" t="s">
         <v>104</v>
       </c>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
-      <c r="AA54" s="181"/>
-      <c r="AB54" s="179" t="s">
+      <c r="AA54" s="177"/>
+      <c r="AB54" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="AC54" s="183"/>
-      <c r="AD54" s="184"/>
+      <c r="AC54" s="179"/>
+      <c r="AD54" s="180"/>
       <c r="AK54" s="126"/>
-      <c r="AL54" s="170"/>
-      <c r="AM54" s="171"/>
+      <c r="AL54" s="166"/>
+      <c r="AM54" s="167"/>
     </row>
     <row r="55" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="185"/>
-      <c r="B55" s="314"/>
-      <c r="C55" s="314"/>
-      <c r="D55" s="314"/>
-      <c r="E55" s="315"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="186" t="s">
+      <c r="A55" s="181"/>
+      <c r="B55" s="276"/>
+      <c r="C55" s="276"/>
+      <c r="D55" s="276"/>
+      <c r="E55" s="277"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="316" t="s">
+      <c r="H55" s="252" t="s">
         <v>106</v>
       </c>
-      <c r="I55" s="317"/>
-      <c r="J55" s="317"/>
-      <c r="K55" s="317"/>
-      <c r="L55" s="318">
+      <c r="I55" s="253"/>
+      <c r="J55" s="253"/>
+      <c r="K55" s="253"/>
+      <c r="L55" s="254">
         <f>AB19+AB23+AB24+AB25+AB28+AB29+AB32+AB34+AB37+AB38+AB39</f>
         <v>0</v>
       </c>
-      <c r="M55" s="319"/>
-      <c r="O55" s="187"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="181"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="181"/>
-      <c r="X55" s="187"/>
+      <c r="M55" s="255"/>
+      <c r="O55" s="183"/>
+      <c r="P55" s="176"/>
+      <c r="Q55" s="176"/>
+      <c r="R55" s="177"/>
+      <c r="S55" s="176"/>
+      <c r="T55" s="176"/>
+      <c r="U55" s="176"/>
+      <c r="V55" s="176"/>
+      <c r="W55" s="177"/>
+      <c r="X55" s="183"/>
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
-      <c r="AA55" s="181"/>
-      <c r="AB55" s="188"/>
-      <c r="AC55" s="183"/>
-      <c r="AD55" s="184"/>
+      <c r="AA55" s="177"/>
+      <c r="AB55" s="184"/>
+      <c r="AC55" s="179"/>
+      <c r="AD55" s="180"/>
       <c r="AK55" s="126"/>
-      <c r="AL55" s="170"/>
-      <c r="AM55" s="171"/>
+      <c r="AL55" s="166"/>
+      <c r="AM55" s="167"/>
     </row>
     <row r="56" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="189"/>
-      <c r="B56" s="309"/>
-      <c r="C56" s="309"/>
-      <c r="D56" s="309"/>
-      <c r="E56" s="309"/>
-      <c r="F56" s="333" t="s">
+      <c r="A56" s="185"/>
+      <c r="B56" s="249"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="249"/>
+      <c r="E56" s="249"/>
+      <c r="F56" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="190" t="s">
+      <c r="G56" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="H56" s="316" t="s">
+      <c r="H56" s="252" t="s">
         <v>108</v>
       </c>
-      <c r="I56" s="317"/>
-      <c r="J56" s="317"/>
-      <c r="K56" s="317"/>
-      <c r="L56" s="318">
+      <c r="I56" s="253"/>
+      <c r="J56" s="253"/>
+      <c r="K56" s="253"/>
+      <c r="L56" s="254">
         <f>AB12+AB13+AB14+AB15+AB16+AB17+AB18+AB20+AB21+AB22+AB26+AB27+AB30+AB31+AB33+AB35+AB36+AB40+AB41</f>
         <v>0</v>
       </c>
-      <c r="M56" s="319"/>
-      <c r="N56" s="191"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="193"/>
-      <c r="Q56" s="193"/>
-      <c r="R56" s="194"/>
-      <c r="S56" s="320"/>
-      <c r="T56" s="321"/>
-      <c r="U56" s="321"/>
-      <c r="V56" s="321"/>
-      <c r="W56" s="322"/>
-      <c r="X56" s="187"/>
+      <c r="M56" s="255"/>
+      <c r="N56" s="187"/>
+      <c r="O56" s="188"/>
+      <c r="P56" s="189"/>
+      <c r="Q56" s="189"/>
+      <c r="R56" s="190"/>
+      <c r="S56" s="258"/>
+      <c r="T56" s="259"/>
+      <c r="U56" s="259"/>
+      <c r="V56" s="259"/>
+      <c r="W56" s="260"/>
+      <c r="X56" s="183"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
-      <c r="AA56" s="181"/>
-      <c r="AB56" s="188"/>
-      <c r="AC56" s="183"/>
-      <c r="AD56" s="184"/>
+      <c r="AA56" s="177"/>
+      <c r="AB56" s="184"/>
+      <c r="AC56" s="179"/>
+      <c r="AD56" s="180"/>
       <c r="AK56" s="126"/>
-      <c r="AL56" s="170"/>
-      <c r="AM56" s="171"/>
+      <c r="AL56" s="166"/>
+      <c r="AM56" s="167"/>
     </row>
     <row r="57" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="195"/>
-      <c r="B57" s="323"/>
-      <c r="C57" s="323"/>
-      <c r="D57" s="323"/>
-      <c r="E57" s="323"/>
-      <c r="F57" s="334"/>
-      <c r="G57" s="190" t="s">
+      <c r="A57" s="191"/>
+      <c r="B57" s="261"/>
+      <c r="C57" s="261"/>
+      <c r="D57" s="261"/>
+      <c r="E57" s="261"/>
+      <c r="F57" s="251"/>
+      <c r="G57" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="H57" s="324" t="s">
+      <c r="H57" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="I57" s="325"/>
-      <c r="J57" s="325"/>
-      <c r="K57" s="325"/>
-      <c r="L57" s="326">
+      <c r="I57" s="263"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="263"/>
+      <c r="L57" s="264">
         <f>AB42+AB43+AB44+AB45+AB46+AB47</f>
         <v>0</v>
       </c>
-      <c r="M57" s="327"/>
-      <c r="N57" s="191"/>
-      <c r="O57" s="196" t="s">
+      <c r="M57" s="265"/>
+      <c r="N57" s="187"/>
+      <c r="O57" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="P57" s="197"/>
-      <c r="Q57" s="197"/>
-      <c r="R57" s="197"/>
-      <c r="S57" s="328" t="s">
+      <c r="P57" s="193"/>
+      <c r="Q57" s="193"/>
+      <c r="R57" s="193"/>
+      <c r="S57" s="266" t="s">
         <v>111</v>
       </c>
-      <c r="T57" s="329"/>
-      <c r="U57" s="329"/>
-      <c r="V57" s="329"/>
-      <c r="W57" s="330"/>
-      <c r="X57" s="196" t="s">
+      <c r="T57" s="267"/>
+      <c r="U57" s="267"/>
+      <c r="V57" s="267"/>
+      <c r="W57" s="268"/>
+      <c r="X57" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="Y57" s="198"/>
-      <c r="Z57" s="198"/>
-      <c r="AA57" s="199"/>
-      <c r="AB57" s="196" t="s">
+      <c r="Y57" s="194"/>
+      <c r="Z57" s="194"/>
+      <c r="AA57" s="195"/>
+      <c r="AB57" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="AC57" s="200"/>
-      <c r="AD57" s="201"/>
+      <c r="AC57" s="196"/>
+      <c r="AD57" s="197"/>
       <c r="AK57" s="126"/>
       <c r="AL57" s="1"/>
       <c r="AM57" s="2"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="202"/>
-      <c r="B58" s="203"/>
-      <c r="C58" s="203"/>
-      <c r="D58" s="203"/>
-      <c r="E58" s="203"/>
-      <c r="F58" s="203"/>
-      <c r="G58" s="203"/>
-      <c r="H58" s="203"/>
-      <c r="I58" s="203"/>
-      <c r="J58" s="203"/>
-      <c r="K58" s="203"/>
-      <c r="W58" s="203"/>
-      <c r="X58" s="203"/>
-      <c r="Y58" s="203"/>
-      <c r="Z58" s="203"/>
-      <c r="AA58" s="203"/>
-      <c r="AB58" s="203"/>
-      <c r="AC58" s="203"/>
-      <c r="AD58" s="203"/>
+      <c r="A58" s="198"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="199"/>
+      <c r="H58" s="199"/>
+      <c r="I58" s="199"/>
+      <c r="J58" s="199"/>
+      <c r="K58" s="199"/>
+      <c r="W58" s="199"/>
+      <c r="X58" s="199"/>
+      <c r="Y58" s="199"/>
+      <c r="Z58" s="199"/>
+      <c r="AA58" s="199"/>
+      <c r="AB58" s="199"/>
+      <c r="AC58" s="199"/>
+      <c r="AD58" s="199"/>
       <c r="AK58" s="126"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="2"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="202"/>
-      <c r="B59" s="203"/>
-      <c r="C59" s="203"/>
-      <c r="D59" s="203"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="203"/>
-      <c r="G59" s="203"/>
-      <c r="H59" s="203"/>
-      <c r="I59" s="203"/>
-      <c r="J59" s="203"/>
-      <c r="K59" s="203"/>
-      <c r="V59" s="203"/>
-      <c r="W59" s="203"/>
-      <c r="X59" s="203"/>
-      <c r="Y59" s="203"/>
-      <c r="Z59" s="203"/>
-      <c r="AA59" s="203"/>
-      <c r="AB59" s="203"/>
-      <c r="AC59" s="203"/>
-      <c r="AD59" s="203"/>
+      <c r="A59" s="198"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="199"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="199"/>
+      <c r="F59" s="199"/>
+      <c r="G59" s="199"/>
+      <c r="H59" s="199"/>
+      <c r="I59" s="199"/>
+      <c r="J59" s="199"/>
+      <c r="K59" s="199"/>
+      <c r="V59" s="199"/>
+      <c r="W59" s="199"/>
+      <c r="X59" s="199"/>
+      <c r="Y59" s="199"/>
+      <c r="Z59" s="199"/>
+      <c r="AA59" s="199"/>
+      <c r="AB59" s="199"/>
+      <c r="AC59" s="199"/>
+      <c r="AD59" s="199"/>
       <c r="AK59" s="126"/>
       <c r="AL59" s="126"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="2"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="220"/>
-      <c r="C60" s="220"/>
-      <c r="D60" s="220"/>
-      <c r="E60" s="220"/>
-      <c r="F60" s="220"/>
-      <c r="G60" s="220"/>
-      <c r="H60" s="335"/>
-      <c r="I60" s="335"/>
-      <c r="J60" s="335"/>
-      <c r="K60" s="335"/>
-      <c r="L60" s="335"/>
-      <c r="M60" s="335"/>
-      <c r="N60" s="220"/>
-      <c r="O60" s="220"/>
+      <c r="B60" s="216"/>
+      <c r="C60" s="216"/>
+      <c r="D60" s="216"/>
+      <c r="E60" s="216"/>
+      <c r="F60" s="216"/>
+      <c r="G60" s="216"/>
+      <c r="H60" s="256"/>
+      <c r="I60" s="256"/>
+      <c r="J60" s="256"/>
+      <c r="K60" s="256"/>
+      <c r="L60" s="256"/>
+      <c r="M60" s="256"/>
+      <c r="N60" s="216"/>
+      <c r="O60" s="216"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="220"/>
-      <c r="C61" s="220"/>
-      <c r="D61" s="220"/>
-      <c r="E61" s="220"/>
-      <c r="F61" s="220"/>
-      <c r="G61" s="233"/>
-      <c r="H61" s="335"/>
-      <c r="I61" s="335"/>
-      <c r="J61" s="335"/>
-      <c r="K61" s="335"/>
-      <c r="L61" s="335"/>
-      <c r="M61" s="335"/>
-      <c r="N61" s="220"/>
-      <c r="O61" s="220"/>
+      <c r="B61" s="216"/>
+      <c r="C61" s="216"/>
+      <c r="D61" s="216"/>
+      <c r="E61" s="216"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="229"/>
+      <c r="H61" s="256"/>
+      <c r="I61" s="256"/>
+      <c r="J61" s="256"/>
+      <c r="K61" s="256"/>
+      <c r="L61" s="256"/>
+      <c r="M61" s="256"/>
+      <c r="N61" s="216"/>
+      <c r="O61" s="216"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="220"/>
-      <c r="C62" s="220"/>
-      <c r="D62" s="220"/>
-      <c r="E62" s="220"/>
-      <c r="F62" s="220"/>
-      <c r="G62" s="234"/>
-      <c r="H62" s="336"/>
-      <c r="I62" s="331"/>
-      <c r="J62" s="331"/>
-      <c r="K62" s="331"/>
-      <c r="L62" s="332"/>
-      <c r="M62" s="332"/>
-      <c r="N62" s="235"/>
-      <c r="O62" s="220"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="216"/>
+      <c r="E62" s="216"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="230"/>
+      <c r="H62" s="257"/>
+      <c r="I62" s="244"/>
+      <c r="J62" s="244"/>
+      <c r="K62" s="244"/>
+      <c r="L62" s="245"/>
+      <c r="M62" s="245"/>
+      <c r="N62" s="231"/>
+      <c r="O62" s="216"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="220"/>
-      <c r="C63" s="220"/>
-      <c r="D63" s="220"/>
-      <c r="E63" s="220"/>
-      <c r="F63" s="220"/>
-      <c r="G63" s="234"/>
-      <c r="H63" s="331"/>
-      <c r="I63" s="331"/>
-      <c r="J63" s="331"/>
-      <c r="K63" s="331"/>
-      <c r="L63" s="332"/>
-      <c r="M63" s="332"/>
-      <c r="N63" s="235"/>
-      <c r="O63" s="220"/>
-      <c r="AH63" s="205"/>
+      <c r="B63" s="216"/>
+      <c r="C63" s="216"/>
+      <c r="D63" s="216"/>
+      <c r="E63" s="216"/>
+      <c r="F63" s="216"/>
+      <c r="G63" s="230"/>
+      <c r="H63" s="244"/>
+      <c r="I63" s="244"/>
+      <c r="J63" s="244"/>
+      <c r="K63" s="244"/>
+      <c r="L63" s="245"/>
+      <c r="M63" s="245"/>
+      <c r="N63" s="231"/>
+      <c r="O63" s="216"/>
+      <c r="AH63" s="201"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="220"/>
-      <c r="C64" s="220"/>
-      <c r="D64" s="220"/>
-      <c r="E64" s="220"/>
-      <c r="F64" s="220"/>
-      <c r="G64" s="234"/>
-      <c r="H64" s="331"/>
-      <c r="I64" s="331"/>
-      <c r="J64" s="331"/>
-      <c r="K64" s="331"/>
-      <c r="L64" s="332"/>
-      <c r="M64" s="332"/>
-      <c r="N64" s="235"/>
-      <c r="O64" s="220"/>
-      <c r="AH64" s="206"/>
+      <c r="B64" s="216"/>
+      <c r="C64" s="216"/>
+      <c r="D64" s="216"/>
+      <c r="E64" s="216"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="230"/>
+      <c r="H64" s="244"/>
+      <c r="I64" s="244"/>
+      <c r="J64" s="244"/>
+      <c r="K64" s="244"/>
+      <c r="L64" s="245"/>
+      <c r="M64" s="245"/>
+      <c r="N64" s="231"/>
+      <c r="O64" s="216"/>
+      <c r="AH64" s="202"/>
     </row>
     <row r="65" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B65" s="220"/>
-      <c r="C65" s="220"/>
-      <c r="D65" s="220"/>
-      <c r="E65" s="220"/>
-      <c r="F65" s="220"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="331"/>
-      <c r="I65" s="331"/>
-      <c r="J65" s="331"/>
-      <c r="K65" s="331"/>
-      <c r="L65" s="332"/>
-      <c r="M65" s="332"/>
-      <c r="N65" s="235"/>
-      <c r="O65" s="220"/>
+      <c r="B65" s="216"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="216"/>
+      <c r="E65" s="216"/>
+      <c r="F65" s="216"/>
+      <c r="G65" s="230"/>
+      <c r="H65" s="244"/>
+      <c r="I65" s="244"/>
+      <c r="J65" s="244"/>
+      <c r="K65" s="244"/>
+      <c r="L65" s="245"/>
+      <c r="M65" s="245"/>
+      <c r="N65" s="231"/>
+      <c r="O65" s="216"/>
     </row>
     <row r="66" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B66" s="220"/>
-      <c r="C66" s="220"/>
-      <c r="D66" s="220"/>
-      <c r="E66" s="220"/>
-      <c r="F66" s="220"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="220"/>
-      <c r="I66" s="236"/>
-      <c r="J66" s="236"/>
-      <c r="K66" s="236"/>
-      <c r="L66" s="337"/>
-      <c r="M66" s="337"/>
-      <c r="N66" s="220"/>
-      <c r="O66" s="220"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="216"/>
+      <c r="G66" s="230"/>
+      <c r="H66" s="216"/>
+      <c r="I66" s="232"/>
+      <c r="J66" s="232"/>
+      <c r="K66" s="232"/>
+      <c r="L66" s="246"/>
+      <c r="M66" s="246"/>
+      <c r="N66" s="216"/>
+      <c r="O66" s="216"/>
     </row>
     <row r="67" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B67" s="220"/>
-      <c r="C67" s="220"/>
-      <c r="D67" s="220"/>
-      <c r="E67" s="220"/>
-      <c r="F67" s="220"/>
-      <c r="G67" s="234"/>
-      <c r="H67" s="220"/>
-      <c r="I67" s="236"/>
-      <c r="J67" s="236"/>
-      <c r="K67" s="236"/>
-      <c r="L67" s="338"/>
-      <c r="M67" s="338"/>
-      <c r="N67" s="220"/>
-      <c r="O67" s="220"/>
+      <c r="B67" s="216"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="216"/>
+      <c r="E67" s="216"/>
+      <c r="F67" s="216"/>
+      <c r="G67" s="230"/>
+      <c r="H67" s="216"/>
+      <c r="I67" s="232"/>
+      <c r="J67" s="232"/>
+      <c r="K67" s="232"/>
+      <c r="L67" s="247"/>
+      <c r="M67" s="247"/>
+      <c r="N67" s="216"/>
+      <c r="O67" s="216"/>
     </row>
     <row r="68" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="220"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220"/>
-      <c r="E68" s="220"/>
-      <c r="F68" s="220"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="220"/>
-      <c r="I68" s="236"/>
-      <c r="J68" s="236"/>
-      <c r="K68" s="236"/>
-      <c r="L68" s="339"/>
-      <c r="M68" s="339"/>
-      <c r="N68" s="237"/>
-      <c r="O68" s="220"/>
+      <c r="B68" s="216"/>
+      <c r="C68" s="216"/>
+      <c r="D68" s="216"/>
+      <c r="E68" s="216"/>
+      <c r="F68" s="216"/>
+      <c r="G68" s="230"/>
+      <c r="H68" s="216"/>
+      <c r="I68" s="232"/>
+      <c r="J68" s="232"/>
+      <c r="K68" s="232"/>
+      <c r="L68" s="248"/>
+      <c r="M68" s="248"/>
+      <c r="N68" s="233"/>
+      <c r="O68" s="216"/>
       <c r="AF68" s="80"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="2"/>
@@ -7421,7 +7412,7 @@
       <c r="AM68" s="2"/>
     </row>
     <row r="69" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G69" s="204"/>
+      <c r="G69" s="200"/>
       <c r="AF69" s="80"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="2"/>
@@ -7431,7 +7422,7 @@
       <c r="AM69" s="2"/>
     </row>
     <row r="70" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G70" s="204"/>
+      <c r="G70" s="200"/>
       <c r="AF70" s="80"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="2"/>
@@ -7441,7 +7432,7 @@
       <c r="AM70" s="2"/>
     </row>
     <row r="71" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G71" s="204"/>
+      <c r="G71" s="200"/>
       <c r="AF71" s="80"/>
       <c r="AG71" s="1"/>
       <c r="AI71" s="1"/>
@@ -7451,7 +7442,7 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G72" s="204"/>
+      <c r="G72" s="200"/>
       <c r="AF72" s="80"/>
       <c r="AG72" s="1"/>
       <c r="AH72" s="2"/>
@@ -7459,7 +7450,7 @@
       <c r="AK72" s="80"/>
     </row>
     <row r="73" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G73" s="204"/>
+      <c r="G73" s="200"/>
       <c r="AF73" s="80"/>
       <c r="AG73" s="1"/>
       <c r="AH73" s="2"/>
@@ -7467,49 +7458,49 @@
       <c r="AK73" s="80"/>
     </row>
     <row r="74" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G74" s="204"/>
+      <c r="G74" s="200"/>
       <c r="AF74" s="80"/>
       <c r="AG74" s="1"/>
       <c r="AI74" s="1"/>
       <c r="AK74" s="80"/>
     </row>
     <row r="75" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G75" s="204"/>
+      <c r="G75" s="200"/>
       <c r="AF75" s="80"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="2"/>
       <c r="AI75"/>
     </row>
     <row r="76" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G76" s="204"/>
+      <c r="G76" s="200"/>
       <c r="AF76" s="80"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="2"/>
       <c r="AI76"/>
     </row>
     <row r="77" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G77" s="204"/>
+      <c r="G77" s="200"/>
       <c r="AF77" s="58"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="2"/>
       <c r="AI77" s="58"/>
     </row>
     <row r="78" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G78" s="204"/>
+      <c r="G78" s="200"/>
       <c r="AF78" s="80"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="2"/>
       <c r="AI78"/>
     </row>
     <row r="79" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G79" s="204"/>
+      <c r="G79" s="200"/>
       <c r="AF79" s="80"/>
       <c r="AG79" s="1"/>
       <c r="AH79" s="2"/>
       <c r="AI79"/>
     </row>
     <row r="80" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="AF80" s="145"/>
+      <c r="AF80" s="141"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="2"/>
       <c r="AI80"/>
@@ -7527,55 +7518,17 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="H60:M61"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="S56:W56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="S57:W57"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A49:AA49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="H52:M53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:W53"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="W7:AA7"/>
@@ -7592,30 +7545,68 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:T7"/>
     <mergeCell ref="U7:V8"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A2:AD2"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A49:AA49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="H52:M53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:W53"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="S56:W56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="S57:W57"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="H60:M61"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
   </mergeCells>
   <conditionalFormatting sqref="E47:G47 E10:G45">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:G46">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N47">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB13.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB13.xlsx
@@ -2346,22 +2346,291 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="33" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2372,289 +2641,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2664,14 +2664,7 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2975,10 +2968,10 @@
   </sheetPr>
   <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="120" zoomScaleNormal="70" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="120" zoomScaleNormal="70" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="E28" sqref="E28:G31"/>
+      <selection pane="topRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3022,112 +3015,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
-      <c r="P1" s="338"/>
-      <c r="Q1" s="338"/>
-      <c r="R1" s="338"/>
-      <c r="S1" s="338"/>
-      <c r="T1" s="338"/>
-      <c r="U1" s="338"/>
-      <c r="V1" s="338"/>
-      <c r="W1" s="338"/>
-      <c r="X1" s="338"/>
-      <c r="Y1" s="338"/>
-      <c r="Z1" s="338"/>
-      <c r="AA1" s="338"/>
-      <c r="AB1" s="338"/>
-      <c r="AC1" s="338"/>
-      <c r="AD1" s="338"/>
+      <c r="A1" s="244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="244"/>
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="244"/>
+      <c r="AD1" s="244"/>
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
     </row>
     <row r="2" spans="1:48" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="245" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="339"/>
-      <c r="N2" s="339"/>
-      <c r="O2" s="339"/>
-      <c r="P2" s="339"/>
-      <c r="Q2" s="339"/>
-      <c r="R2" s="339"/>
-      <c r="S2" s="339"/>
-      <c r="T2" s="339"/>
-      <c r="U2" s="339"/>
-      <c r="V2" s="339"/>
-      <c r="W2" s="339"/>
-      <c r="X2" s="339"/>
-      <c r="Y2" s="339"/>
-      <c r="Z2" s="339"/>
-      <c r="AA2" s="339"/>
-      <c r="AB2" s="339"/>
-      <c r="AC2" s="339"/>
-      <c r="AD2" s="339"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="245"/>
+      <c r="L2" s="245"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="245"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="245"/>
+      <c r="AA2" s="245"/>
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="245"/>
+      <c r="AD2" s="245"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:48" ht="19" x14ac:dyDescent="0.35">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
-      <c r="M3" s="341"/>
-      <c r="N3" s="341"/>
-      <c r="O3" s="341"/>
-      <c r="P3" s="341"/>
-      <c r="Q3" s="341"/>
-      <c r="R3" s="341"/>
-      <c r="S3" s="341"/>
-      <c r="T3" s="341"/>
-      <c r="U3" s="341"/>
-      <c r="V3" s="341"/>
-      <c r="W3" s="341"/>
-      <c r="X3" s="341"/>
-      <c r="Y3" s="341"/>
-      <c r="Z3" s="341"/>
-      <c r="AA3" s="341"/>
-      <c r="AB3" s="341"/>
-      <c r="AC3" s="341"/>
-      <c r="AD3" s="341"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="247"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="247"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -3149,23 +3142,23 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="342"/>
-      <c r="R4" s="342"/>
-      <c r="S4" s="342"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="343" t="s">
+      <c r="Z4" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="343"/>
-      <c r="AB4" s="344" t="s">
+      <c r="AA4" s="249"/>
+      <c r="AB4" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="345"/>
+      <c r="AC4" s="251"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
@@ -3195,9 +3188,9 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="336"/>
-      <c r="R5" s="336"/>
-      <c r="S5" s="336"/>
+      <c r="Q5" s="252"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="252"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -3231,24 +3224,24 @@
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="253"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="253"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="253"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="336"/>
-      <c r="V6" s="336"/>
+      <c r="U6" s="252"/>
+      <c r="V6" s="252"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="15"/>
@@ -3269,48 +3262,48 @@
       <c r="AV6" s="216"/>
     </row>
     <row r="7" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="300"/>
-      <c r="B7" s="317" t="s">
+      <c r="A7" s="296"/>
+      <c r="B7" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="317"/>
-      <c r="D7" s="317"/>
-      <c r="E7" s="317" t="s">
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="317"/>
-      <c r="G7" s="317"/>
-      <c r="H7" s="317"/>
-      <c r="I7" s="307" t="s">
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
+      <c r="I7" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="308"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="308"/>
-      <c r="N7" s="308"/>
-      <c r="O7" s="308"/>
-      <c r="P7" s="308"/>
-      <c r="Q7" s="308"/>
-      <c r="R7" s="308"/>
-      <c r="S7" s="308"/>
-      <c r="T7" s="309"/>
-      <c r="U7" s="334" t="s">
+      <c r="J7" s="259"/>
+      <c r="K7" s="259"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="259"/>
+      <c r="N7" s="259"/>
+      <c r="O7" s="259"/>
+      <c r="P7" s="259"/>
+      <c r="Q7" s="259"/>
+      <c r="R7" s="259"/>
+      <c r="S7" s="259"/>
+      <c r="T7" s="260"/>
+      <c r="U7" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="335"/>
-      <c r="W7" s="307" t="s">
+      <c r="V7" s="286"/>
+      <c r="W7" s="258" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="308"/>
-      <c r="Y7" s="308"/>
-      <c r="Z7" s="308"/>
-      <c r="AA7" s="309"/>
-      <c r="AB7" s="310" t="s">
+      <c r="X7" s="259"/>
+      <c r="Y7" s="259"/>
+      <c r="Z7" s="259"/>
+      <c r="AA7" s="260"/>
+      <c r="AB7" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="311"/>
-      <c r="AD7" s="312"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="263"/>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
@@ -3328,63 +3321,63 @@
       <c r="AV7" s="216"/>
     </row>
     <row r="8" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="300"/>
-      <c r="B8" s="313" t="s">
+      <c r="A8" s="296"/>
+      <c r="B8" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="314"/>
-      <c r="D8" s="317" t="s">
+      <c r="C8" s="265"/>
+      <c r="D8" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="318" t="s">
+      <c r="E8" s="269" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="319"/>
-      <c r="G8" s="320"/>
-      <c r="H8" s="321" t="s">
+      <c r="F8" s="270"/>
+      <c r="G8" s="271"/>
+      <c r="H8" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="323" t="s">
+      <c r="I8" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="324"/>
-      <c r="K8" s="325"/>
-      <c r="L8" s="326" t="s">
+      <c r="J8" s="275"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="327"/>
-      <c r="N8" s="327"/>
-      <c r="O8" s="328"/>
-      <c r="P8" s="329" t="s">
+      <c r="M8" s="278"/>
+      <c r="N8" s="278"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="331" t="s">
+      <c r="Q8" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="332"/>
-      <c r="S8" s="333"/>
-      <c r="T8" s="294" t="s">
+      <c r="R8" s="283"/>
+      <c r="S8" s="284"/>
+      <c r="T8" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="334"/>
-      <c r="V8" s="335"/>
-      <c r="W8" s="296" t="s">
+      <c r="U8" s="285"/>
+      <c r="V8" s="286"/>
+      <c r="W8" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="297"/>
-      <c r="Y8" s="298" t="s">
+      <c r="X8" s="293"/>
+      <c r="Y8" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="298" t="s">
+      <c r="Z8" s="294" t="s">
         <v>19</v>
       </c>
-      <c r="AA8" s="303" t="s">
+      <c r="AA8" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="AB8" s="305" t="s">
+      <c r="AB8" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AC8" s="306"/>
+      <c r="AC8" s="257"/>
       <c r="AD8" s="19" t="s">
         <v>26</v>
       </c>
@@ -3405,10 +3398,10 @@
       <c r="AV8" s="216"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="300"/>
-      <c r="B9" s="315"/>
-      <c r="C9" s="316"/>
-      <c r="D9" s="317"/>
+      <c r="A9" s="296"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="268"/>
       <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
@@ -3418,7 +3411,7 @@
       <c r="G9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="322"/>
+      <c r="H9" s="273"/>
       <c r="I9" s="20" t="s">
         <v>28</v>
       </c>
@@ -3440,7 +3433,7 @@
       <c r="O9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="330"/>
+      <c r="P9" s="281"/>
       <c r="Q9" s="25" t="s">
         <v>31</v>
       </c>
@@ -3450,7 +3443,7 @@
       <c r="S9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="295"/>
+      <c r="T9" s="291"/>
       <c r="U9" s="20" t="s">
         <v>34</v>
       </c>
@@ -3463,9 +3456,9 @@
       <c r="X9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="299"/>
-      <c r="Z9" s="299"/>
-      <c r="AA9" s="304"/>
+      <c r="Y9" s="295"/>
+      <c r="Z9" s="295"/>
+      <c r="AA9" s="255"/>
       <c r="AB9" s="30" t="s">
         <v>38</v>
       </c>
@@ -3492,7 +3485,7 @@
       <c r="AV9" s="216"/>
     </row>
     <row r="10" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="301" t="s">
+      <c r="A10" s="297" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="33">
@@ -3584,7 +3577,7 @@
       <c r="AV10" s="216"/>
     </row>
     <row r="11" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="278"/>
+      <c r="A11" s="298"/>
       <c r="B11" s="59">
         <v>1012</v>
       </c>
@@ -3674,7 +3667,7 @@
       <c r="AV11" s="216"/>
     </row>
     <row r="12" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="278"/>
+      <c r="A12" s="298"/>
       <c r="B12" s="59">
         <v>3013</v>
       </c>
@@ -3764,7 +3757,7 @@
       <c r="AV12" s="216"/>
     </row>
     <row r="13" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="278"/>
+      <c r="A13" s="298"/>
       <c r="B13" s="59">
         <v>3014</v>
       </c>
@@ -3857,7 +3850,7 @@
       <c r="AV13" s="216"/>
     </row>
     <row r="14" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="278"/>
+      <c r="A14" s="298"/>
       <c r="B14" s="59">
         <v>3015</v>
       </c>
@@ -3950,7 +3943,7 @@
       <c r="AV14" s="216"/>
     </row>
     <row r="15" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="278"/>
+      <c r="A15" s="298"/>
       <c r="B15" s="59">
         <v>3016</v>
       </c>
@@ -3961,8 +3954,8 @@
       <c r="E15" s="74"/>
       <c r="F15" s="75"/>
       <c r="G15" s="64"/>
-      <c r="H15" s="65">
-        <f t="shared" si="0"/>
+      <c r="H15" s="76">
+        <f>SUM(E15:G15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="85"/>
@@ -4040,7 +4033,7 @@
       <c r="AV15" s="216"/>
     </row>
     <row r="16" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="278"/>
+      <c r="A16" s="298"/>
       <c r="B16" s="59">
         <v>3017</v>
       </c>
@@ -4051,7 +4044,7 @@
       <c r="E16" s="74"/>
       <c r="F16" s="75"/>
       <c r="G16" s="64"/>
-      <c r="H16" s="65">
+      <c r="H16" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4130,7 +4123,7 @@
       <c r="AV16" s="216"/>
     </row>
     <row r="17" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="278"/>
+      <c r="A17" s="298"/>
       <c r="B17" s="59">
         <v>3018</v>
       </c>
@@ -4220,7 +4213,7 @@
       <c r="AV17" s="216"/>
     </row>
     <row r="18" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="278"/>
+      <c r="A18" s="298"/>
       <c r="B18" s="88">
         <v>3019</v>
       </c>
@@ -4310,7 +4303,7 @@
       <c r="AV18" s="216"/>
     </row>
     <row r="19" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="301" t="s">
+      <c r="A19" s="297" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="103">
@@ -4395,7 +4388,7 @@
       <c r="AL19" s="216"/>
     </row>
     <row r="20" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="278"/>
+      <c r="A20" s="298"/>
       <c r="B20" s="59">
         <v>3022</v>
       </c>
@@ -4481,7 +4474,7 @@
       <c r="AL20" s="216"/>
     </row>
     <row r="21" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="278"/>
+      <c r="A21" s="298"/>
       <c r="B21" s="59">
         <v>3023</v>
       </c>
@@ -4567,7 +4560,7 @@
       <c r="AL21" s="216"/>
     </row>
     <row r="22" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="302"/>
+      <c r="A22" s="299"/>
       <c r="B22" s="88">
         <v>3024</v>
       </c>
@@ -4650,7 +4643,7 @@
       <c r="AL22" s="216"/>
     </row>
     <row r="23" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="291" t="s">
+      <c r="A23" s="287" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="33">
@@ -4730,7 +4723,7 @@
       <c r="AG23" s="80"/>
     </row>
     <row r="24" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="292"/>
+      <c r="A24" s="288"/>
       <c r="B24" s="59">
         <v>1042</v>
       </c>
@@ -4807,7 +4800,7 @@
       <c r="AF24" s="80"/>
     </row>
     <row r="25" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="292"/>
+      <c r="A25" s="288"/>
       <c r="B25" s="59">
         <v>1043</v>
       </c>
@@ -4889,7 +4882,7 @@
       <c r="AK25" s="128"/>
     </row>
     <row r="26" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="292"/>
+      <c r="A26" s="288"/>
       <c r="B26" s="59">
         <v>4044</v>
       </c>
@@ -4973,7 +4966,7 @@
       <c r="AK26" s="128"/>
     </row>
     <row r="27" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="292"/>
+      <c r="A27" s="288"/>
       <c r="B27" s="88">
         <v>4045</v>
       </c>
@@ -5054,7 +5047,7 @@
       <c r="AK27" s="128"/>
     </row>
     <row r="28" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="291" t="s">
+      <c r="A28" s="287" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="103">
@@ -5136,7 +5129,7 @@
       <c r="AI28"/>
     </row>
     <row r="29" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="292"/>
+      <c r="A29" s="288"/>
       <c r="B29" s="59">
         <v>1032</v>
       </c>
@@ -5216,7 +5209,7 @@
       <c r="AF29" s="80"/>
     </row>
     <row r="30" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="292"/>
+      <c r="A30" s="288"/>
       <c r="B30" s="59">
         <v>4033</v>
       </c>
@@ -5296,7 +5289,7 @@
       <c r="AF30" s="80"/>
     </row>
     <row r="31" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="292"/>
+      <c r="A31" s="288"/>
       <c r="B31" s="88">
         <v>4034</v>
       </c>
@@ -5374,7 +5367,7 @@
       <c r="AH31" s="127"/>
     </row>
     <row r="32" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="291" t="s">
+      <c r="A32" s="287" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="33">
@@ -5458,7 +5451,7 @@
       <c r="AH32" s="127"/>
     </row>
     <row r="33" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="292"/>
+      <c r="A33" s="288"/>
       <c r="B33" s="88">
         <v>6052</v>
       </c>
@@ -5540,7 +5533,7 @@
       <c r="AH33" s="127"/>
     </row>
     <row r="34" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="291" t="s">
+      <c r="A34" s="287" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="33">
@@ -5620,7 +5613,7 @@
       <c r="AG34"/>
     </row>
     <row r="35" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="292"/>
+      <c r="A35" s="288"/>
       <c r="B35" s="59">
         <v>6062</v>
       </c>
@@ -5700,7 +5693,7 @@
       <c r="AF35" s="80"/>
     </row>
     <row r="36" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="293"/>
+      <c r="A36" s="289"/>
       <c r="B36" s="88">
         <v>6063</v>
       </c>
@@ -5780,7 +5773,7 @@
       <c r="AF36" s="141"/>
     </row>
     <row r="37" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="278" t="s">
+      <c r="A37" s="298" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="103">
@@ -5870,7 +5863,7 @@
       <c r="AT37" s="216"/>
     </row>
     <row r="38" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="278"/>
+      <c r="A38" s="298"/>
       <c r="B38" s="59">
         <v>1072</v>
       </c>
@@ -5958,7 +5951,7 @@
       <c r="AT38" s="216"/>
     </row>
     <row r="39" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="278"/>
+      <c r="A39" s="298"/>
       <c r="B39" s="59">
         <v>1073</v>
       </c>
@@ -6050,7 +6043,7 @@
       <c r="AT39" s="216"/>
     </row>
     <row r="40" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="278"/>
+      <c r="A40" s="298"/>
       <c r="B40" s="59">
         <v>7074</v>
       </c>
@@ -6142,7 +6135,7 @@
       <c r="AT40" s="216"/>
     </row>
     <row r="41" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="278"/>
+      <c r="A41" s="298"/>
       <c r="B41" s="88">
         <v>7075</v>
       </c>
@@ -6231,7 +6224,7 @@
       <c r="AT41" s="216"/>
     </row>
     <row r="42" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="279" t="s">
+      <c r="A42" s="300" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="33">
@@ -6320,7 +6313,7 @@
       <c r="AT42" s="216"/>
     </row>
     <row r="43" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="280"/>
+      <c r="A43" s="301"/>
       <c r="B43" s="59">
         <v>9092</v>
       </c>
@@ -6407,7 +6400,7 @@
       <c r="AT43" s="216"/>
     </row>
     <row r="44" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="280"/>
+      <c r="A44" s="301"/>
       <c r="B44" s="59">
         <v>9093</v>
       </c>
@@ -6497,7 +6490,7 @@
       <c r="AT44" s="216"/>
     </row>
     <row r="45" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="280"/>
+      <c r="A45" s="301"/>
       <c r="B45" s="59">
         <v>9194</v>
       </c>
@@ -6587,7 +6580,7 @@
       <c r="AT45" s="216"/>
     </row>
     <row r="46" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="280"/>
+      <c r="A46" s="301"/>
       <c r="B46" s="59">
         <v>9195</v>
       </c>
@@ -6674,7 +6667,7 @@
       <c r="AT46" s="216"/>
     </row>
     <row r="47" spans="1:46" s="213" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="281"/>
+      <c r="A47" s="302"/>
       <c r="B47" s="88">
         <v>9500</v>
       </c>
@@ -6810,35 +6803,35 @@
       <c r="AT48" s="216"/>
     </row>
     <row r="49" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="282" t="s">
+      <c r="A49" s="303" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="283"/>
-      <c r="C49" s="283"/>
-      <c r="D49" s="283"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="283"/>
-      <c r="G49" s="283"/>
-      <c r="H49" s="283"/>
-      <c r="I49" s="283"/>
-      <c r="J49" s="283"/>
-      <c r="K49" s="283"/>
-      <c r="L49" s="283"/>
-      <c r="M49" s="283"/>
-      <c r="N49" s="283"/>
-      <c r="O49" s="283"/>
-      <c r="P49" s="283"/>
-      <c r="Q49" s="283"/>
-      <c r="R49" s="283"/>
-      <c r="S49" s="283"/>
-      <c r="T49" s="283"/>
-      <c r="U49" s="283"/>
-      <c r="V49" s="283"/>
-      <c r="W49" s="283"/>
-      <c r="X49" s="283"/>
-      <c r="Y49" s="283"/>
-      <c r="Z49" s="283"/>
-      <c r="AA49" s="283"/>
+      <c r="B49" s="304"/>
+      <c r="C49" s="304"/>
+      <c r="D49" s="304"/>
+      <c r="E49" s="304"/>
+      <c r="F49" s="304"/>
+      <c r="G49" s="304"/>
+      <c r="H49" s="304"/>
+      <c r="I49" s="304"/>
+      <c r="J49" s="304"/>
+      <c r="K49" s="304"/>
+      <c r="L49" s="304"/>
+      <c r="M49" s="304"/>
+      <c r="N49" s="304"/>
+      <c r="O49" s="304"/>
+      <c r="P49" s="304"/>
+      <c r="Q49" s="304"/>
+      <c r="R49" s="304"/>
+      <c r="S49" s="304"/>
+      <c r="T49" s="304"/>
+      <c r="U49" s="304"/>
+      <c r="V49" s="304"/>
+      <c r="W49" s="304"/>
+      <c r="X49" s="304"/>
+      <c r="Y49" s="304"/>
+      <c r="Z49" s="304"/>
+      <c r="AA49" s="304"/>
       <c r="AB49" s="158">
         <f>SUM(AB10:AB47)</f>
         <v>0</v>
@@ -6926,26 +6919,26 @@
       <c r="AI51"/>
     </row>
     <row r="52" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="284" t="s">
+      <c r="A52" s="305" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="286" t="s">
+      <c r="B52" s="307" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="286"/>
-      <c r="D52" s="286"/>
-      <c r="E52" s="286"/>
-      <c r="F52" s="288" t="s">
+      <c r="C52" s="307"/>
+      <c r="D52" s="307"/>
+      <c r="E52" s="307"/>
+      <c r="F52" s="309" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="290" t="s">
+      <c r="H52" s="311" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="290"/>
-      <c r="J52" s="290"/>
-      <c r="K52" s="290"/>
-      <c r="L52" s="290"/>
-      <c r="M52" s="290"/>
+      <c r="I52" s="311"/>
+      <c r="J52" s="311"/>
+      <c r="K52" s="311"/>
+      <c r="L52" s="311"/>
+      <c r="M52" s="311"/>
       <c r="O52" s="168" t="s">
         <v>91</v>
       </c>
@@ -6977,43 +6970,43 @@
       <c r="AM52" s="167"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="285"/>
-      <c r="B53" s="287"/>
-      <c r="C53" s="287"/>
-      <c r="D53" s="287"/>
-      <c r="E53" s="287"/>
-      <c r="F53" s="289"/>
+      <c r="A53" s="306"/>
+      <c r="B53" s="308"/>
+      <c r="C53" s="308"/>
+      <c r="D53" s="308"/>
+      <c r="E53" s="308"/>
+      <c r="F53" s="310"/>
       <c r="G53" s="171"/>
-      <c r="H53" s="290"/>
-      <c r="I53" s="290"/>
-      <c r="J53" s="290"/>
-      <c r="K53" s="290"/>
-      <c r="L53" s="290"/>
-      <c r="M53" s="290"/>
-      <c r="O53" s="269" t="s">
+      <c r="H53" s="311"/>
+      <c r="I53" s="311"/>
+      <c r="J53" s="311"/>
+      <c r="K53" s="311"/>
+      <c r="L53" s="311"/>
+      <c r="M53" s="311"/>
+      <c r="O53" s="312" t="s">
         <v>95</v>
       </c>
-      <c r="P53" s="270"/>
-      <c r="Q53" s="270"/>
-      <c r="R53" s="271"/>
-      <c r="S53" s="269" t="s">
+      <c r="P53" s="313"/>
+      <c r="Q53" s="313"/>
+      <c r="R53" s="314"/>
+      <c r="S53" s="312" t="s">
         <v>96</v>
       </c>
-      <c r="T53" s="270"/>
-      <c r="U53" s="270"/>
-      <c r="V53" s="270"/>
-      <c r="W53" s="271"/>
-      <c r="X53" s="269" t="s">
+      <c r="T53" s="313"/>
+      <c r="U53" s="313"/>
+      <c r="V53" s="313"/>
+      <c r="W53" s="314"/>
+      <c r="X53" s="312" t="s">
         <v>97</v>
       </c>
-      <c r="Y53" s="270"/>
-      <c r="Z53" s="270"/>
-      <c r="AA53" s="271"/>
-      <c r="AB53" s="269" t="s">
+      <c r="Y53" s="313"/>
+      <c r="Z53" s="313"/>
+      <c r="AA53" s="314"/>
+      <c r="AB53" s="312" t="s">
         <v>98</v>
       </c>
-      <c r="AC53" s="270"/>
-      <c r="AD53" s="271"/>
+      <c r="AC53" s="313"/>
+      <c r="AD53" s="314"/>
       <c r="AK53" s="126"/>
       <c r="AL53" s="166"/>
       <c r="AM53" s="167"/>
@@ -7022,29 +7015,29 @@
       <c r="A54" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="249" t="s">
+      <c r="B54" s="315" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
+      <c r="C54" s="315"/>
+      <c r="D54" s="315"/>
+      <c r="E54" s="315"/>
       <c r="F54" s="173" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="H54" s="272" t="s">
+      <c r="H54" s="316" t="s">
         <v>103</v>
       </c>
-      <c r="I54" s="273"/>
-      <c r="J54" s="273"/>
-      <c r="K54" s="273"/>
-      <c r="L54" s="274">
+      <c r="I54" s="317"/>
+      <c r="J54" s="317"/>
+      <c r="K54" s="317"/>
+      <c r="L54" s="318">
         <f>AB10+AB11</f>
         <v>0</v>
       </c>
-      <c r="M54" s="275"/>
+      <c r="M54" s="319"/>
       <c r="O54" s="175" t="s">
         <v>104</v>
       </c>
@@ -7075,25 +7068,25 @@
     </row>
     <row r="55" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="181"/>
-      <c r="B55" s="276"/>
-      <c r="C55" s="276"/>
-      <c r="D55" s="276"/>
-      <c r="E55" s="277"/>
+      <c r="B55" s="320"/>
+      <c r="C55" s="320"/>
+      <c r="D55" s="320"/>
+      <c r="E55" s="321"/>
       <c r="F55" s="181"/>
       <c r="G55" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="H55" s="252" t="s">
+      <c r="H55" s="322" t="s">
         <v>106</v>
       </c>
-      <c r="I55" s="253"/>
-      <c r="J55" s="253"/>
-      <c r="K55" s="253"/>
-      <c r="L55" s="254">
+      <c r="I55" s="323"/>
+      <c r="J55" s="323"/>
+      <c r="K55" s="323"/>
+      <c r="L55" s="324">
         <f>AB19+AB23+AB24+AB25+AB28+AB29+AB32+AB34+AB37+AB38+AB39</f>
         <v>0</v>
       </c>
-      <c r="M55" s="255"/>
+      <c r="M55" s="325"/>
       <c r="O55" s="183"/>
       <c r="P55" s="176"/>
       <c r="Q55" s="176"/>
@@ -7116,37 +7109,37 @@
     </row>
     <row r="56" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="185"/>
-      <c r="B56" s="249"/>
-      <c r="C56" s="249"/>
-      <c r="D56" s="249"/>
-      <c r="E56" s="249"/>
-      <c r="F56" s="250" t="s">
+      <c r="B56" s="315"/>
+      <c r="C56" s="315"/>
+      <c r="D56" s="315"/>
+      <c r="E56" s="315"/>
+      <c r="F56" s="339" t="s">
         <v>3</v>
       </c>
       <c r="G56" s="186" t="s">
         <v>107</v>
       </c>
-      <c r="H56" s="252" t="s">
+      <c r="H56" s="322" t="s">
         <v>108</v>
       </c>
-      <c r="I56" s="253"/>
-      <c r="J56" s="253"/>
-      <c r="K56" s="253"/>
-      <c r="L56" s="254">
+      <c r="I56" s="323"/>
+      <c r="J56" s="323"/>
+      <c r="K56" s="323"/>
+      <c r="L56" s="324">
         <f>AB12+AB13+AB14+AB15+AB16+AB17+AB18+AB20+AB21+AB22+AB26+AB27+AB30+AB31+AB33+AB35+AB36+AB40+AB41</f>
         <v>0</v>
       </c>
-      <c r="M56" s="255"/>
+      <c r="M56" s="325"/>
       <c r="N56" s="187"/>
       <c r="O56" s="188"/>
       <c r="P56" s="189"/>
       <c r="Q56" s="189"/>
       <c r="R56" s="190"/>
-      <c r="S56" s="258"/>
-      <c r="T56" s="259"/>
-      <c r="U56" s="259"/>
-      <c r="V56" s="259"/>
-      <c r="W56" s="260"/>
+      <c r="S56" s="326"/>
+      <c r="T56" s="327"/>
+      <c r="U56" s="327"/>
+      <c r="V56" s="327"/>
+      <c r="W56" s="328"/>
       <c r="X56" s="183"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
@@ -7160,25 +7153,25 @@
     </row>
     <row r="57" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="191"/>
-      <c r="B57" s="261"/>
-      <c r="C57" s="261"/>
-      <c r="D57" s="261"/>
-      <c r="E57" s="261"/>
-      <c r="F57" s="251"/>
+      <c r="B57" s="329"/>
+      <c r="C57" s="329"/>
+      <c r="D57" s="329"/>
+      <c r="E57" s="329"/>
+      <c r="F57" s="340"/>
       <c r="G57" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="H57" s="262" t="s">
+      <c r="H57" s="330" t="s">
         <v>110</v>
       </c>
-      <c r="I57" s="263"/>
-      <c r="J57" s="263"/>
-      <c r="K57" s="263"/>
-      <c r="L57" s="264">
+      <c r="I57" s="331"/>
+      <c r="J57" s="331"/>
+      <c r="K57" s="331"/>
+      <c r="L57" s="332">
         <f>AB42+AB43+AB44+AB45+AB46+AB47</f>
         <v>0</v>
       </c>
-      <c r="M57" s="265"/>
+      <c r="M57" s="333"/>
       <c r="N57" s="187"/>
       <c r="O57" s="192" t="s">
         <v>111</v>
@@ -7186,13 +7179,13 @@
       <c r="P57" s="193"/>
       <c r="Q57" s="193"/>
       <c r="R57" s="193"/>
-      <c r="S57" s="266" t="s">
+      <c r="S57" s="334" t="s">
         <v>111</v>
       </c>
-      <c r="T57" s="267"/>
-      <c r="U57" s="267"/>
-      <c r="V57" s="267"/>
-      <c r="W57" s="268"/>
+      <c r="T57" s="335"/>
+      <c r="U57" s="335"/>
+      <c r="V57" s="335"/>
+      <c r="W57" s="336"/>
       <c r="X57" s="192" t="s">
         <v>111</v>
       </c>
@@ -7265,12 +7258,12 @@
       <c r="E60" s="216"/>
       <c r="F60" s="216"/>
       <c r="G60" s="216"/>
-      <c r="H60" s="256"/>
-      <c r="I60" s="256"/>
-      <c r="J60" s="256"/>
-      <c r="K60" s="256"/>
-      <c r="L60" s="256"/>
-      <c r="M60" s="256"/>
+      <c r="H60" s="341"/>
+      <c r="I60" s="341"/>
+      <c r="J60" s="341"/>
+      <c r="K60" s="341"/>
+      <c r="L60" s="341"/>
+      <c r="M60" s="341"/>
       <c r="N60" s="216"/>
       <c r="O60" s="216"/>
     </row>
@@ -7281,12 +7274,12 @@
       <c r="E61" s="216"/>
       <c r="F61" s="216"/>
       <c r="G61" s="229"/>
-      <c r="H61" s="256"/>
-      <c r="I61" s="256"/>
-      <c r="J61" s="256"/>
-      <c r="K61" s="256"/>
-      <c r="L61" s="256"/>
-      <c r="M61" s="256"/>
+      <c r="H61" s="341"/>
+      <c r="I61" s="341"/>
+      <c r="J61" s="341"/>
+      <c r="K61" s="341"/>
+      <c r="L61" s="341"/>
+      <c r="M61" s="341"/>
       <c r="N61" s="216"/>
       <c r="O61" s="216"/>
     </row>
@@ -7297,12 +7290,12 @@
       <c r="E62" s="216"/>
       <c r="F62" s="216"/>
       <c r="G62" s="230"/>
-      <c r="H62" s="257"/>
-      <c r="I62" s="244"/>
-      <c r="J62" s="244"/>
-      <c r="K62" s="244"/>
-      <c r="L62" s="245"/>
-      <c r="M62" s="245"/>
+      <c r="H62" s="342"/>
+      <c r="I62" s="337"/>
+      <c r="J62" s="337"/>
+      <c r="K62" s="337"/>
+      <c r="L62" s="338"/>
+      <c r="M62" s="338"/>
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
     </row>
@@ -7313,12 +7306,12 @@
       <c r="E63" s="216"/>
       <c r="F63" s="216"/>
       <c r="G63" s="230"/>
-      <c r="H63" s="244"/>
-      <c r="I63" s="244"/>
-      <c r="J63" s="244"/>
-      <c r="K63" s="244"/>
-      <c r="L63" s="245"/>
-      <c r="M63" s="245"/>
+      <c r="H63" s="337"/>
+      <c r="I63" s="337"/>
+      <c r="J63" s="337"/>
+      <c r="K63" s="337"/>
+      <c r="L63" s="338"/>
+      <c r="M63" s="338"/>
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="AH63" s="201"/>
@@ -7330,12 +7323,12 @@
       <c r="E64" s="216"/>
       <c r="F64" s="216"/>
       <c r="G64" s="230"/>
-      <c r="H64" s="244"/>
-      <c r="I64" s="244"/>
-      <c r="J64" s="244"/>
-      <c r="K64" s="244"/>
-      <c r="L64" s="245"/>
-      <c r="M64" s="245"/>
+      <c r="H64" s="337"/>
+      <c r="I64" s="337"/>
+      <c r="J64" s="337"/>
+      <c r="K64" s="337"/>
+      <c r="L64" s="338"/>
+      <c r="M64" s="338"/>
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="AH64" s="202"/>
@@ -7347,12 +7340,12 @@
       <c r="E65" s="216"/>
       <c r="F65" s="216"/>
       <c r="G65" s="230"/>
-      <c r="H65" s="244"/>
-      <c r="I65" s="244"/>
-      <c r="J65" s="244"/>
-      <c r="K65" s="244"/>
-      <c r="L65" s="245"/>
-      <c r="M65" s="245"/>
+      <c r="H65" s="337"/>
+      <c r="I65" s="337"/>
+      <c r="J65" s="337"/>
+      <c r="K65" s="337"/>
+      <c r="L65" s="338"/>
+      <c r="M65" s="338"/>
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
     </row>
@@ -7367,8 +7360,8 @@
       <c r="I66" s="232"/>
       <c r="J66" s="232"/>
       <c r="K66" s="232"/>
-      <c r="L66" s="246"/>
-      <c r="M66" s="246"/>
+      <c r="L66" s="343"/>
+      <c r="M66" s="343"/>
       <c r="N66" s="216"/>
       <c r="O66" s="216"/>
     </row>
@@ -7383,8 +7376,8 @@
       <c r="I67" s="232"/>
       <c r="J67" s="232"/>
       <c r="K67" s="232"/>
-      <c r="L67" s="247"/>
-      <c r="M67" s="247"/>
+      <c r="L67" s="344"/>
+      <c r="M67" s="344"/>
       <c r="N67" s="216"/>
       <c r="O67" s="216"/>
     </row>
@@ -7399,8 +7392,8 @@
       <c r="I68" s="232"/>
       <c r="J68" s="232"/>
       <c r="K68" s="232"/>
-      <c r="L68" s="248"/>
-      <c r="M68" s="248"/>
+      <c r="L68" s="345"/>
+      <c r="M68" s="345"/>
       <c r="N68" s="233"/>
       <c r="O68" s="216"/>
       <c r="AF68" s="80"/>
@@ -7518,17 +7511,55 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A2:AD2"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="H60:M61"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="S56:W56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="S57:W57"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A49:AA49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="H52:M53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:W53"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="W7:AA7"/>
@@ -7545,68 +7576,30 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:T7"/>
     <mergeCell ref="U7:V8"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A49:AA49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="H52:M53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:W53"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="S56:W56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="S57:W57"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="H60:M61"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <conditionalFormatting sqref="E47:G47 E10:G45">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:G46">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N47">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB13.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB13.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
   <si>
     <t>PERFORMANCE-BASED CONTRACT FOR THE LONG-TERM MANAGEMENT AND MAINTENANCE OF STATE ROADS IN SARAWAK</t>
   </si>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>Refer to Col Z-AA</t>
-  </si>
-  <si>
-    <t>Summation 1011 &amp; 1012</t>
   </si>
   <si>
     <r>
@@ -387,9 +384,6 @@
   </si>
   <si>
     <t>Authorised Name, Signature &amp; Chop:</t>
-  </si>
-  <si>
-    <t>Summation activity starts with 10XX except for 1011&amp; 1012</t>
   </si>
   <si>
     <r>
@@ -413,9 +407,6 @@
     </r>
   </si>
   <si>
-    <t>Summation activity starts with 30,40,60 etc</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -435,9 +426,6 @@
       </rPr>
       <t xml:space="preserve"> RM</t>
     </r>
-  </si>
-  <si>
-    <t>Summation (Ancillary Features)</t>
   </si>
   <si>
     <r>
@@ -1649,7 +1637,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2157,20 +2145,12 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="179" fontId="33" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2187,18 +2167,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2346,291 +2318,22 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="33" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2641,20 +2344,309 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2968,10 +2960,10 @@
   </sheetPr>
   <dimension ref="A1:AV82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="120" zoomScaleNormal="70" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="120" zoomScaleNormal="70" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="H47" sqref="H47"/>
+      <selection pane="topRight" activeCell="B56" sqref="B56:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3015,112 +3007,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="244"/>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244"/>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
-      <c r="Y1" s="244"/>
-      <c r="Z1" s="244"/>
-      <c r="AA1" s="244"/>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="244"/>
-      <c r="AD1" s="244"/>
+      <c r="A1" s="334" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
+      <c r="R1" s="334"/>
+      <c r="S1" s="334"/>
+      <c r="T1" s="334"/>
+      <c r="U1" s="334"/>
+      <c r="V1" s="334"/>
+      <c r="W1" s="334"/>
+      <c r="X1" s="334"/>
+      <c r="Y1" s="334"/>
+      <c r="Z1" s="334"/>
+      <c r="AA1" s="334"/>
+      <c r="AB1" s="334"/>
+      <c r="AC1" s="334"/>
+      <c r="AD1" s="334"/>
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
     </row>
     <row r="2" spans="1:48" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="245"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
+      <c r="R2" s="335"/>
+      <c r="S2" s="335"/>
+      <c r="T2" s="335"/>
+      <c r="U2" s="335"/>
+      <c r="V2" s="335"/>
+      <c r="W2" s="335"/>
+      <c r="X2" s="335"/>
+      <c r="Y2" s="335"/>
+      <c r="Z2" s="335"/>
+      <c r="AA2" s="335"/>
+      <c r="AB2" s="335"/>
+      <c r="AC2" s="335"/>
+      <c r="AD2" s="335"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:48" ht="19" x14ac:dyDescent="0.35">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="336" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="247"/>
-      <c r="R3" s="247"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="247"/>
-      <c r="AD3" s="247"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
+      <c r="O3" s="337"/>
+      <c r="P3" s="337"/>
+      <c r="Q3" s="337"/>
+      <c r="R3" s="337"/>
+      <c r="S3" s="337"/>
+      <c r="T3" s="337"/>
+      <c r="U3" s="337"/>
+      <c r="V3" s="337"/>
+      <c r="W3" s="337"/>
+      <c r="X3" s="337"/>
+      <c r="Y3" s="337"/>
+      <c r="Z3" s="337"/>
+      <c r="AA3" s="337"/>
+      <c r="AB3" s="337"/>
+      <c r="AC3" s="337"/>
+      <c r="AD3" s="337"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -3142,34 +3134,34 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="249" t="s">
+      <c r="Z4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="249"/>
-      <c r="AB4" s="250" t="s">
+      <c r="AA4" s="339"/>
+      <c r="AB4" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="251"/>
+      <c r="AC4" s="341"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AP4" s="216"/>
-      <c r="AQ4" s="216"/>
-      <c r="AR4" s="216"/>
-      <c r="AS4" s="216"/>
-      <c r="AT4" s="216"/>
-      <c r="AU4" s="216"/>
-      <c r="AV4" s="216"/>
+      <c r="AP4" s="212"/>
+      <c r="AQ4" s="212"/>
+      <c r="AR4" s="212"/>
+      <c r="AS4" s="212"/>
+      <c r="AT4" s="212"/>
+      <c r="AU4" s="212"/>
+      <c r="AV4" s="212"/>
     </row>
     <row r="5" spans="1:48" ht="19" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -3188,9 +3180,9 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="252"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="252"/>
+      <c r="Q5" s="332"/>
+      <c r="R5" s="332"/>
+      <c r="S5" s="332"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -3211,37 +3203,37 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-      <c r="AP5" s="216"/>
-      <c r="AQ5" s="216"/>
-      <c r="AR5" s="216"/>
-      <c r="AS5" s="216"/>
-      <c r="AT5" s="216"/>
-      <c r="AU5" s="216"/>
-      <c r="AV5" s="216"/>
+      <c r="AP5" s="212"/>
+      <c r="AQ5" s="212"/>
+      <c r="AR5" s="212"/>
+      <c r="AS5" s="212"/>
+      <c r="AT5" s="212"/>
+      <c r="AU5" s="212"/>
+      <c r="AV5" s="212"/>
     </row>
     <row r="6" spans="1:48" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
+      <c r="E6" s="333"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="333"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="253"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="253"/>
+      <c r="I6" s="333"/>
+      <c r="J6" s="333"/>
+      <c r="K6" s="333"/>
+      <c r="L6" s="333"/>
+      <c r="M6" s="333"/>
+      <c r="N6" s="333"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
+      <c r="U6" s="332"/>
+      <c r="V6" s="332"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="15"/>
@@ -3253,114 +3245,114 @@
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6"/>
-      <c r="AP6" s="216"/>
-      <c r="AQ6" s="216"/>
-      <c r="AR6" s="217"/>
-      <c r="AS6" s="218"/>
-      <c r="AT6" s="218"/>
-      <c r="AU6" s="218"/>
-      <c r="AV6" s="216"/>
+      <c r="AP6" s="212"/>
+      <c r="AQ6" s="212"/>
+      <c r="AR6" s="213"/>
+      <c r="AS6" s="214"/>
+      <c r="AT6" s="214"/>
+      <c r="AU6" s="214"/>
+      <c r="AV6" s="212"/>
     </row>
     <row r="7" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="296"/>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="313" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268" t="s">
+      <c r="C7" s="313"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="268"/>
-      <c r="I7" s="258" t="s">
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="303" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="259"/>
-      <c r="L7" s="259"/>
-      <c r="M7" s="259"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="259"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="259"/>
-      <c r="S7" s="259"/>
-      <c r="T7" s="260"/>
-      <c r="U7" s="285" t="s">
+      <c r="J7" s="304"/>
+      <c r="K7" s="304"/>
+      <c r="L7" s="304"/>
+      <c r="M7" s="304"/>
+      <c r="N7" s="304"/>
+      <c r="O7" s="304"/>
+      <c r="P7" s="304"/>
+      <c r="Q7" s="304"/>
+      <c r="R7" s="304"/>
+      <c r="S7" s="304"/>
+      <c r="T7" s="305"/>
+      <c r="U7" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="286"/>
-      <c r="W7" s="258" t="s">
+      <c r="V7" s="331"/>
+      <c r="W7" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="259"/>
-      <c r="Y7" s="259"/>
-      <c r="Z7" s="259"/>
-      <c r="AA7" s="260"/>
-      <c r="AB7" s="261" t="s">
+      <c r="X7" s="304"/>
+      <c r="Y7" s="304"/>
+      <c r="Z7" s="304"/>
+      <c r="AA7" s="305"/>
+      <c r="AB7" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="262"/>
-      <c r="AD7" s="263"/>
+      <c r="AC7" s="307"/>
+      <c r="AD7" s="308"/>
       <c r="AE7" s="18"/>
       <c r="AF7" s="18"/>
       <c r="AG7" s="18"/>
-      <c r="AH7" s="214"/>
-      <c r="AI7" s="215"/>
-      <c r="AJ7" s="216"/>
-      <c r="AK7" s="216"/>
-      <c r="AL7" s="216"/>
-      <c r="AP7" s="216"/>
-      <c r="AQ7" s="220"/>
-      <c r="AR7" s="214"/>
-      <c r="AS7" s="215"/>
-      <c r="AT7" s="216"/>
-      <c r="AU7" s="218"/>
-      <c r="AV7" s="216"/>
+      <c r="AH7" s="210"/>
+      <c r="AI7" s="211"/>
+      <c r="AJ7" s="212"/>
+      <c r="AK7" s="212"/>
+      <c r="AL7" s="212"/>
+      <c r="AP7" s="212"/>
+      <c r="AQ7" s="216"/>
+      <c r="AR7" s="210"/>
+      <c r="AS7" s="211"/>
+      <c r="AT7" s="212"/>
+      <c r="AU7" s="214"/>
+      <c r="AV7" s="212"/>
     </row>
     <row r="8" spans="1:48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="296"/>
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="265"/>
-      <c r="D8" s="268" t="s">
+      <c r="C8" s="310"/>
+      <c r="D8" s="313" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="269" t="s">
+      <c r="E8" s="314" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="270"/>
-      <c r="G8" s="271"/>
-      <c r="H8" s="272" t="s">
+      <c r="F8" s="315"/>
+      <c r="G8" s="316"/>
+      <c r="H8" s="317" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="274" t="s">
+      <c r="I8" s="319" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="275"/>
-      <c r="K8" s="276"/>
-      <c r="L8" s="277" t="s">
+      <c r="J8" s="320"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="322" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="278"/>
-      <c r="N8" s="278"/>
-      <c r="O8" s="279"/>
-      <c r="P8" s="280" t="s">
+      <c r="M8" s="323"/>
+      <c r="N8" s="323"/>
+      <c r="O8" s="324"/>
+      <c r="P8" s="325" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="282" t="s">
+      <c r="Q8" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="283"/>
-      <c r="S8" s="284"/>
+      <c r="R8" s="328"/>
+      <c r="S8" s="329"/>
       <c r="T8" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="285"/>
-      <c r="V8" s="286"/>
+      <c r="U8" s="330"/>
+      <c r="V8" s="331"/>
       <c r="W8" s="292" t="s">
         <v>18</v>
       </c>
@@ -3371,37 +3363,37 @@
       <c r="Z8" s="294" t="s">
         <v>19</v>
       </c>
-      <c r="AA8" s="254" t="s">
+      <c r="AA8" s="299" t="s">
         <v>24</v>
       </c>
-      <c r="AB8" s="256" t="s">
+      <c r="AB8" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="AC8" s="257"/>
+      <c r="AC8" s="302"/>
       <c r="AD8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
-      <c r="AG8" s="217"/>
-      <c r="AH8" s="217"/>
-      <c r="AI8" s="218"/>
-      <c r="AJ8" s="218"/>
-      <c r="AK8" s="218"/>
-      <c r="AL8" s="216"/>
-      <c r="AP8" s="216"/>
-      <c r="AQ8" s="216"/>
-      <c r="AR8" s="216"/>
-      <c r="AS8" s="216"/>
-      <c r="AT8" s="216"/>
-      <c r="AU8" s="218"/>
-      <c r="AV8" s="216"/>
+      <c r="AG8" s="213"/>
+      <c r="AH8" s="213"/>
+      <c r="AI8" s="214"/>
+      <c r="AJ8" s="214"/>
+      <c r="AK8" s="214"/>
+      <c r="AL8" s="212"/>
+      <c r="AP8" s="212"/>
+      <c r="AQ8" s="212"/>
+      <c r="AR8" s="212"/>
+      <c r="AS8" s="212"/>
+      <c r="AT8" s="212"/>
+      <c r="AU8" s="214"/>
+      <c r="AV8" s="212"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="296"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="268"/>
+      <c r="B9" s="311"/>
+      <c r="C9" s="312"/>
+      <c r="D9" s="313"/>
       <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
@@ -3411,7 +3403,7 @@
       <c r="G9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="273"/>
+      <c r="H9" s="318"/>
       <c r="I9" s="20" t="s">
         <v>28</v>
       </c>
@@ -3433,7 +3425,7 @@
       <c r="O9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="281"/>
+      <c r="P9" s="326"/>
       <c r="Q9" s="25" t="s">
         <v>31</v>
       </c>
@@ -3458,7 +3450,7 @@
       </c>
       <c r="Y9" s="295"/>
       <c r="Z9" s="295"/>
-      <c r="AA9" s="255"/>
+      <c r="AA9" s="300"/>
       <c r="AB9" s="30" t="s">
         <v>38</v>
       </c>
@@ -3470,19 +3462,19 @@
       </c>
       <c r="AE9" s="18"/>
       <c r="AF9" s="18"/>
-      <c r="AG9" s="217"/>
-      <c r="AH9" s="217"/>
-      <c r="AI9" s="218"/>
-      <c r="AJ9" s="218"/>
-      <c r="AK9" s="218"/>
-      <c r="AL9" s="216"/>
-      <c r="AP9" s="216"/>
-      <c r="AQ9" s="216"/>
-      <c r="AR9" s="216"/>
-      <c r="AS9" s="216"/>
-      <c r="AT9" s="216"/>
-      <c r="AU9" s="218"/>
-      <c r="AV9" s="216"/>
+      <c r="AG9" s="213"/>
+      <c r="AH9" s="213"/>
+      <c r="AI9" s="214"/>
+      <c r="AJ9" s="214"/>
+      <c r="AK9" s="214"/>
+      <c r="AL9" s="212"/>
+      <c r="AP9" s="212"/>
+      <c r="AQ9" s="212"/>
+      <c r="AR9" s="212"/>
+      <c r="AS9" s="212"/>
+      <c r="AT9" s="212"/>
+      <c r="AU9" s="214"/>
+      <c r="AV9" s="212"/>
     </row>
     <row r="10" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="297" t="s">
@@ -3505,15 +3497,15 @@
       <c r="I10" s="40"/>
       <c r="J10" s="41"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="234">
+      <c r="L10" s="230">
         <f>E10*I10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="235">
+      <c r="M10" s="231">
         <f>F10*J10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="236">
+      <c r="N10" s="232">
         <f>G10*K10</f>
         <v>0</v>
       </c>
@@ -3542,7 +3534,7 @@
         <f>SUM(Y10*W10)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="237"/>
+      <c r="Y10" s="233"/>
       <c r="Z10" s="53">
         <f>Y10*O10</f>
         <v>0</v>
@@ -3561,23 +3553,23 @@
       </c>
       <c r="AD10" s="57"/>
       <c r="AE10" s="58"/>
-      <c r="AF10" s="219"/>
-      <c r="AG10" s="219"/>
-      <c r="AH10" s="214"/>
-      <c r="AI10" s="215"/>
-      <c r="AJ10" s="216"/>
-      <c r="AK10" s="218"/>
-      <c r="AL10" s="216"/>
-      <c r="AP10" s="216"/>
-      <c r="AQ10" s="216"/>
-      <c r="AR10" s="216"/>
-      <c r="AS10" s="216"/>
-      <c r="AT10" s="216"/>
-      <c r="AU10" s="218"/>
-      <c r="AV10" s="216"/>
+      <c r="AF10" s="215"/>
+      <c r="AG10" s="215"/>
+      <c r="AH10" s="210"/>
+      <c r="AI10" s="211"/>
+      <c r="AJ10" s="212"/>
+      <c r="AK10" s="214"/>
+      <c r="AL10" s="212"/>
+      <c r="AP10" s="212"/>
+      <c r="AQ10" s="212"/>
+      <c r="AR10" s="212"/>
+      <c r="AS10" s="212"/>
+      <c r="AT10" s="212"/>
+      <c r="AU10" s="214"/>
+      <c r="AV10" s="212"/>
     </row>
     <row r="11" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="298"/>
+      <c r="A11" s="274"/>
       <c r="B11" s="59">
         <v>1012</v>
       </c>
@@ -3595,15 +3587,15 @@
       <c r="I11" s="66"/>
       <c r="J11" s="67"/>
       <c r="K11" s="68"/>
-      <c r="L11" s="234">
+      <c r="L11" s="230">
         <f t="shared" ref="L11:L47" si="1">E11*I11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="235">
+      <c r="M11" s="231">
         <f t="shared" ref="M11:M47" si="2">F11*J11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="236">
+      <c r="N11" s="232">
         <f t="shared" ref="N11:N47" si="3">G11*K11</f>
         <v>0</v>
       </c>
@@ -3632,7 +3624,7 @@
         <f t="shared" ref="X11:X47" si="7">SUM(Y11*W11)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="238"/>
+      <c r="Y11" s="234"/>
       <c r="Z11" s="53">
         <f t="shared" ref="Z11:Z47" si="8">Y11*O11</f>
         <v>0</v>
@@ -3651,23 +3643,23 @@
       </c>
       <c r="AD11" s="73"/>
       <c r="AE11" s="58"/>
-      <c r="AF11" s="219"/>
-      <c r="AG11" s="219"/>
-      <c r="AH11" s="214"/>
-      <c r="AI11" s="215"/>
-      <c r="AJ11" s="216"/>
-      <c r="AK11" s="218"/>
-      <c r="AL11" s="216"/>
-      <c r="AP11" s="216"/>
-      <c r="AQ11" s="216"/>
-      <c r="AR11" s="216"/>
-      <c r="AS11" s="216"/>
-      <c r="AT11" s="216"/>
-      <c r="AU11" s="218"/>
-      <c r="AV11" s="216"/>
+      <c r="AF11" s="215"/>
+      <c r="AG11" s="215"/>
+      <c r="AH11" s="210"/>
+      <c r="AI11" s="211"/>
+      <c r="AJ11" s="212"/>
+      <c r="AK11" s="214"/>
+      <c r="AL11" s="212"/>
+      <c r="AP11" s="212"/>
+      <c r="AQ11" s="212"/>
+      <c r="AR11" s="212"/>
+      <c r="AS11" s="212"/>
+      <c r="AT11" s="212"/>
+      <c r="AU11" s="214"/>
+      <c r="AV11" s="212"/>
     </row>
     <row r="12" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="298"/>
+      <c r="A12" s="274"/>
       <c r="B12" s="59">
         <v>3013</v>
       </c>
@@ -3685,15 +3677,15 @@
       <c r="I12" s="66"/>
       <c r="J12" s="67"/>
       <c r="K12" s="68"/>
-      <c r="L12" s="234">
+      <c r="L12" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="235">
+      <c r="M12" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="236">
+      <c r="N12" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3722,7 +3714,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="238"/>
+      <c r="Y12" s="234"/>
       <c r="Z12" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3741,23 +3733,23 @@
       </c>
       <c r="AD12" s="73"/>
       <c r="AE12" s="80"/>
-      <c r="AF12" s="220"/>
-      <c r="AG12" s="220"/>
-      <c r="AH12" s="214"/>
-      <c r="AI12" s="215"/>
-      <c r="AJ12" s="216"/>
-      <c r="AK12" s="218"/>
-      <c r="AL12" s="216"/>
-      <c r="AP12" s="216"/>
-      <c r="AQ12" s="216"/>
-      <c r="AR12" s="216"/>
-      <c r="AS12" s="216"/>
-      <c r="AT12" s="216"/>
-      <c r="AU12" s="218"/>
-      <c r="AV12" s="216"/>
+      <c r="AF12" s="216"/>
+      <c r="AG12" s="216"/>
+      <c r="AH12" s="210"/>
+      <c r="AI12" s="211"/>
+      <c r="AJ12" s="212"/>
+      <c r="AK12" s="214"/>
+      <c r="AL12" s="212"/>
+      <c r="AP12" s="212"/>
+      <c r="AQ12" s="212"/>
+      <c r="AR12" s="212"/>
+      <c r="AS12" s="212"/>
+      <c r="AT12" s="212"/>
+      <c r="AU12" s="214"/>
+      <c r="AV12" s="212"/>
     </row>
     <row r="13" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="298"/>
+      <c r="A13" s="274"/>
       <c r="B13" s="59">
         <v>3014</v>
       </c>
@@ -3775,15 +3767,15 @@
       <c r="I13" s="81"/>
       <c r="J13" s="82"/>
       <c r="K13" s="83"/>
-      <c r="L13" s="234">
+      <c r="L13" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="235">
+      <c r="M13" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="236">
+      <c r="N13" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3812,7 +3804,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="238"/>
+      <c r="Y13" s="234"/>
       <c r="Z13" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3834,23 +3826,23 @@
         <v>0</v>
       </c>
       <c r="AE13" s="80"/>
-      <c r="AF13" s="220"/>
-      <c r="AG13" s="220"/>
-      <c r="AH13" s="214"/>
-      <c r="AI13" s="215"/>
-      <c r="AJ13" s="216"/>
-      <c r="AK13" s="218"/>
-      <c r="AL13" s="216"/>
-      <c r="AP13" s="216"/>
-      <c r="AQ13" s="216"/>
-      <c r="AR13" s="216"/>
-      <c r="AS13" s="216"/>
-      <c r="AT13" s="216"/>
-      <c r="AU13" s="218"/>
-      <c r="AV13" s="216"/>
+      <c r="AF13" s="216"/>
+      <c r="AG13" s="216"/>
+      <c r="AH13" s="210"/>
+      <c r="AI13" s="211"/>
+      <c r="AJ13" s="212"/>
+      <c r="AK13" s="214"/>
+      <c r="AL13" s="212"/>
+      <c r="AP13" s="212"/>
+      <c r="AQ13" s="212"/>
+      <c r="AR13" s="212"/>
+      <c r="AS13" s="212"/>
+      <c r="AT13" s="212"/>
+      <c r="AU13" s="214"/>
+      <c r="AV13" s="212"/>
     </row>
     <row r="14" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="298"/>
+      <c r="A14" s="274"/>
       <c r="B14" s="59">
         <v>3015</v>
       </c>
@@ -3868,15 +3860,15 @@
       <c r="I14" s="85"/>
       <c r="J14" s="67"/>
       <c r="K14" s="72"/>
-      <c r="L14" s="234">
+      <c r="L14" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="235">
+      <c r="M14" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="236">
+      <c r="N14" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3905,7 +3897,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="238"/>
+      <c r="Y14" s="234"/>
       <c r="Z14" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3927,23 +3919,23 @@
         <v>0</v>
       </c>
       <c r="AE14" s="80"/>
-      <c r="AF14" s="220"/>
-      <c r="AG14" s="220"/>
-      <c r="AH14" s="214"/>
-      <c r="AI14" s="215"/>
-      <c r="AJ14" s="216"/>
-      <c r="AK14" s="218"/>
-      <c r="AL14" s="216"/>
-      <c r="AP14" s="216"/>
-      <c r="AQ14" s="216"/>
-      <c r="AR14" s="216"/>
-      <c r="AS14" s="216"/>
-      <c r="AT14" s="216"/>
-      <c r="AU14" s="218"/>
-      <c r="AV14" s="216"/>
+      <c r="AF14" s="216"/>
+      <c r="AG14" s="216"/>
+      <c r="AH14" s="210"/>
+      <c r="AI14" s="211"/>
+      <c r="AJ14" s="212"/>
+      <c r="AK14" s="214"/>
+      <c r="AL14" s="212"/>
+      <c r="AP14" s="212"/>
+      <c r="AQ14" s="212"/>
+      <c r="AR14" s="212"/>
+      <c r="AS14" s="212"/>
+      <c r="AT14" s="212"/>
+      <c r="AU14" s="214"/>
+      <c r="AV14" s="212"/>
     </row>
     <row r="15" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="298"/>
+      <c r="A15" s="274"/>
       <c r="B15" s="59">
         <v>3016</v>
       </c>
@@ -3961,15 +3953,15 @@
       <c r="I15" s="85"/>
       <c r="J15" s="67"/>
       <c r="K15" s="72"/>
-      <c r="L15" s="234">
+      <c r="L15" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="235">
+      <c r="M15" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="236">
+      <c r="N15" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3998,7 +3990,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="238"/>
+      <c r="Y15" s="234"/>
       <c r="Z15" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4017,23 +4009,23 @@
       </c>
       <c r="AD15" s="73"/>
       <c r="AE15" s="80"/>
-      <c r="AF15" s="220"/>
-      <c r="AG15" s="220"/>
-      <c r="AH15" s="214"/>
-      <c r="AI15" s="215"/>
-      <c r="AJ15" s="216"/>
-      <c r="AK15" s="218"/>
-      <c r="AL15" s="216"/>
-      <c r="AP15" s="216"/>
-      <c r="AQ15" s="216"/>
-      <c r="AR15" s="216"/>
-      <c r="AS15" s="216"/>
-      <c r="AT15" s="216"/>
-      <c r="AU15" s="218"/>
-      <c r="AV15" s="216"/>
+      <c r="AF15" s="216"/>
+      <c r="AG15" s="216"/>
+      <c r="AH15" s="210"/>
+      <c r="AI15" s="211"/>
+      <c r="AJ15" s="212"/>
+      <c r="AK15" s="214"/>
+      <c r="AL15" s="212"/>
+      <c r="AP15" s="212"/>
+      <c r="AQ15" s="212"/>
+      <c r="AR15" s="212"/>
+      <c r="AS15" s="212"/>
+      <c r="AT15" s="212"/>
+      <c r="AU15" s="214"/>
+      <c r="AV15" s="212"/>
     </row>
     <row r="16" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="298"/>
+      <c r="A16" s="274"/>
       <c r="B16" s="59">
         <v>3017</v>
       </c>
@@ -4051,15 +4043,15 @@
       <c r="I16" s="85"/>
       <c r="J16" s="67"/>
       <c r="K16" s="72"/>
-      <c r="L16" s="234">
+      <c r="L16" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="235">
+      <c r="M16" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="236">
+      <c r="N16" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4088,7 +4080,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="238"/>
+      <c r="Y16" s="234"/>
       <c r="Z16" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4107,23 +4099,23 @@
       </c>
       <c r="AD16" s="73"/>
       <c r="AE16" s="80"/>
-      <c r="AF16" s="220"/>
-      <c r="AG16" s="220"/>
-      <c r="AH16" s="214"/>
-      <c r="AI16" s="215"/>
-      <c r="AJ16" s="216"/>
-      <c r="AK16" s="218"/>
-      <c r="AL16" s="216"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="216"/>
-      <c r="AR16" s="216"/>
-      <c r="AS16" s="216"/>
-      <c r="AT16" s="216"/>
-      <c r="AU16" s="218"/>
-      <c r="AV16" s="216"/>
+      <c r="AF16" s="216"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="210"/>
+      <c r="AI16" s="211"/>
+      <c r="AJ16" s="212"/>
+      <c r="AK16" s="214"/>
+      <c r="AL16" s="212"/>
+      <c r="AP16" s="212"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
+      <c r="AS16" s="212"/>
+      <c r="AT16" s="212"/>
+      <c r="AU16" s="214"/>
+      <c r="AV16" s="212"/>
     </row>
     <row r="17" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="298"/>
+      <c r="A17" s="274"/>
       <c r="B17" s="59">
         <v>3018</v>
       </c>
@@ -4141,15 +4133,15 @@
       <c r="I17" s="85"/>
       <c r="J17" s="67"/>
       <c r="K17" s="72"/>
-      <c r="L17" s="234">
+      <c r="L17" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="235">
+      <c r="M17" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="236">
+      <c r="N17" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4178,7 +4170,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="238"/>
+      <c r="Y17" s="234"/>
       <c r="Z17" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4197,23 +4189,23 @@
       </c>
       <c r="AD17" s="73"/>
       <c r="AE17" s="80"/>
-      <c r="AF17" s="220"/>
-      <c r="AG17" s="220"/>
-      <c r="AH17" s="214"/>
-      <c r="AI17" s="215"/>
-      <c r="AJ17" s="216"/>
-      <c r="AK17" s="218"/>
-      <c r="AL17" s="216"/>
-      <c r="AP17" s="216"/>
-      <c r="AQ17" s="216"/>
-      <c r="AR17" s="216"/>
-      <c r="AS17" s="216"/>
-      <c r="AT17" s="216"/>
-      <c r="AU17" s="218"/>
-      <c r="AV17" s="216"/>
+      <c r="AF17" s="216"/>
+      <c r="AG17" s="216"/>
+      <c r="AH17" s="210"/>
+      <c r="AI17" s="211"/>
+      <c r="AJ17" s="212"/>
+      <c r="AK17" s="214"/>
+      <c r="AL17" s="212"/>
+      <c r="AP17" s="212"/>
+      <c r="AQ17" s="212"/>
+      <c r="AR17" s="212"/>
+      <c r="AS17" s="212"/>
+      <c r="AT17" s="212"/>
+      <c r="AU17" s="214"/>
+      <c r="AV17" s="212"/>
     </row>
     <row r="18" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="298"/>
+      <c r="A18" s="274"/>
       <c r="B18" s="88">
         <v>3019</v>
       </c>
@@ -4231,15 +4223,15 @@
       <c r="I18" s="95"/>
       <c r="J18" s="96"/>
       <c r="K18" s="97"/>
-      <c r="L18" s="234">
+      <c r="L18" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="235">
+      <c r="M18" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="236">
+      <c r="N18" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4268,7 +4260,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="239"/>
+      <c r="Y18" s="235"/>
       <c r="Z18" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4287,20 +4279,20 @@
       </c>
       <c r="AD18" s="102"/>
       <c r="AE18" s="80"/>
-      <c r="AF18" s="220"/>
-      <c r="AG18" s="220"/>
-      <c r="AH18" s="214"/>
-      <c r="AI18" s="215"/>
-      <c r="AJ18" s="216"/>
-      <c r="AK18" s="218"/>
-      <c r="AL18" s="216"/>
-      <c r="AP18" s="216"/>
-      <c r="AQ18" s="216"/>
-      <c r="AR18" s="216"/>
-      <c r="AS18" s="216"/>
-      <c r="AT18" s="216"/>
-      <c r="AU18" s="216"/>
-      <c r="AV18" s="216"/>
+      <c r="AF18" s="216"/>
+      <c r="AG18" s="216"/>
+      <c r="AH18" s="210"/>
+      <c r="AI18" s="211"/>
+      <c r="AJ18" s="212"/>
+      <c r="AK18" s="214"/>
+      <c r="AL18" s="212"/>
+      <c r="AP18" s="212"/>
+      <c r="AQ18" s="212"/>
+      <c r="AR18" s="212"/>
+      <c r="AS18" s="212"/>
+      <c r="AT18" s="212"/>
+      <c r="AU18" s="212"/>
+      <c r="AV18" s="212"/>
     </row>
     <row r="19" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="297" t="s">
@@ -4323,15 +4315,15 @@
       <c r="I19" s="81"/>
       <c r="J19" s="82"/>
       <c r="K19" s="83"/>
-      <c r="L19" s="234">
+      <c r="L19" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="235">
+      <c r="M19" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="236">
+      <c r="N19" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4360,7 +4352,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="240"/>
+      <c r="Y19" s="236"/>
       <c r="Z19" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4379,16 +4371,16 @@
       </c>
       <c r="AD19" s="57"/>
       <c r="AE19" s="80"/>
-      <c r="AF19" s="220"/>
-      <c r="AG19" s="220"/>
-      <c r="AH19" s="214"/>
-      <c r="AI19" s="215"/>
-      <c r="AJ19" s="216"/>
-      <c r="AK19" s="218"/>
-      <c r="AL19" s="216"/>
+      <c r="AF19" s="216"/>
+      <c r="AG19" s="216"/>
+      <c r="AH19" s="210"/>
+      <c r="AI19" s="211"/>
+      <c r="AJ19" s="212"/>
+      <c r="AK19" s="214"/>
+      <c r="AL19" s="212"/>
     </row>
     <row r="20" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="298"/>
+      <c r="A20" s="274"/>
       <c r="B20" s="59">
         <v>3022</v>
       </c>
@@ -4406,15 +4398,15 @@
       <c r="I20" s="66"/>
       <c r="J20" s="67"/>
       <c r="K20" s="72"/>
-      <c r="L20" s="234">
+      <c r="L20" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="235">
+      <c r="M20" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="236">
+      <c r="N20" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4443,7 +4435,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="238"/>
+      <c r="Y20" s="234"/>
       <c r="Z20" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4465,16 +4457,16 @@
         <v>0</v>
       </c>
       <c r="AE20" s="80"/>
-      <c r="AF20" s="220"/>
-      <c r="AG20" s="220"/>
-      <c r="AH20" s="214"/>
-      <c r="AI20" s="215"/>
-      <c r="AJ20" s="216"/>
-      <c r="AK20" s="218"/>
-      <c r="AL20" s="216"/>
+      <c r="AF20" s="216"/>
+      <c r="AG20" s="216"/>
+      <c r="AH20" s="210"/>
+      <c r="AI20" s="211"/>
+      <c r="AJ20" s="212"/>
+      <c r="AK20" s="214"/>
+      <c r="AL20" s="212"/>
     </row>
     <row r="21" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="298"/>
+      <c r="A21" s="274"/>
       <c r="B21" s="59">
         <v>3023</v>
       </c>
@@ -4492,15 +4484,15 @@
       <c r="I21" s="66"/>
       <c r="J21" s="67"/>
       <c r="K21" s="68"/>
-      <c r="L21" s="234">
+      <c r="L21" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="235">
+      <c r="M21" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="236">
+      <c r="N21" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4529,7 +4521,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="238"/>
+      <c r="Y21" s="234"/>
       <c r="Z21" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4551,16 +4543,16 @@
         <v>0</v>
       </c>
       <c r="AE21" s="80"/>
-      <c r="AF21" s="220"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="214"/>
-      <c r="AI21" s="215"/>
-      <c r="AJ21" s="216"/>
-      <c r="AK21" s="218"/>
-      <c r="AL21" s="216"/>
+      <c r="AF21" s="216"/>
+      <c r="AG21" s="216"/>
+      <c r="AH21" s="210"/>
+      <c r="AI21" s="211"/>
+      <c r="AJ21" s="212"/>
+      <c r="AK21" s="214"/>
+      <c r="AL21" s="212"/>
     </row>
     <row r="22" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="299"/>
+      <c r="A22" s="298"/>
       <c r="B22" s="88">
         <v>3024</v>
       </c>
@@ -4578,15 +4570,15 @@
       <c r="I22" s="113"/>
       <c r="J22" s="114"/>
       <c r="K22" s="115"/>
-      <c r="L22" s="234">
+      <c r="L22" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="235">
+      <c r="M22" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="236">
+      <c r="N22" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4615,7 +4607,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="239"/>
+      <c r="Y22" s="235"/>
       <c r="Z22" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4634,13 +4626,13 @@
       </c>
       <c r="AD22" s="102"/>
       <c r="AE22" s="80"/>
-      <c r="AF22" s="220"/>
-      <c r="AG22" s="220"/>
-      <c r="AH22" s="214"/>
-      <c r="AI22" s="215"/>
-      <c r="AJ22" s="216"/>
-      <c r="AK22" s="216"/>
-      <c r="AL22" s="216"/>
+      <c r="AF22" s="216"/>
+      <c r="AG22" s="216"/>
+      <c r="AH22" s="210"/>
+      <c r="AI22" s="211"/>
+      <c r="AJ22" s="212"/>
+      <c r="AK22" s="212"/>
+      <c r="AL22" s="212"/>
     </row>
     <row r="23" spans="1:48" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="287" t="s">
@@ -4663,15 +4655,15 @@
       <c r="I23" s="66"/>
       <c r="J23" s="67"/>
       <c r="K23" s="68"/>
-      <c r="L23" s="234">
+      <c r="L23" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="235">
+      <c r="M23" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="236">
+      <c r="N23" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4700,7 +4692,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="240"/>
+      <c r="Y23" s="236"/>
       <c r="Z23" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4741,15 +4733,15 @@
       <c r="I24" s="66"/>
       <c r="J24" s="67"/>
       <c r="K24" s="125"/>
-      <c r="L24" s="234">
+      <c r="L24" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="235">
+      <c r="M24" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="236">
+      <c r="N24" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4778,7 +4770,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="238"/>
+      <c r="Y24" s="234"/>
       <c r="Z24" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4818,15 +4810,15 @@
       <c r="I25" s="66"/>
       <c r="J25" s="67"/>
       <c r="K25" s="125"/>
-      <c r="L25" s="234">
+      <c r="L25" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="235">
+      <c r="M25" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="236">
+      <c r="N25" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4855,7 +4847,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="238"/>
+      <c r="Y25" s="234"/>
       <c r="Z25" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4900,15 +4892,15 @@
       <c r="I26" s="66"/>
       <c r="J26" s="67"/>
       <c r="K26" s="125"/>
-      <c r="L26" s="234">
+      <c r="L26" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="235">
+      <c r="M26" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="236">
+      <c r="N26" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4937,7 +4929,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="238"/>
+      <c r="Y26" s="234"/>
       <c r="Z26" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4984,15 +4976,15 @@
       <c r="I27" s="81"/>
       <c r="J27" s="82"/>
       <c r="K27" s="83"/>
-      <c r="L27" s="234">
+      <c r="L27" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="235">
+      <c r="M27" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="236">
+      <c r="N27" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5021,7 +5013,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="239"/>
+      <c r="Y27" s="235"/>
       <c r="Z27" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5067,15 +5059,15 @@
       <c r="I28" s="49"/>
       <c r="J28" s="133"/>
       <c r="K28" s="134"/>
-      <c r="L28" s="234">
+      <c r="L28" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="235">
+      <c r="M28" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="236">
+      <c r="N28" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5104,7 +5096,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="237"/>
+      <c r="Y28" s="233"/>
       <c r="Z28" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5147,15 +5139,15 @@
       <c r="I29" s="66"/>
       <c r="J29" s="67"/>
       <c r="K29" s="68"/>
-      <c r="L29" s="234">
+      <c r="L29" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="235">
+      <c r="M29" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="236">
+      <c r="N29" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5184,7 +5176,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="238"/>
+      <c r="Y29" s="234"/>
       <c r="Z29" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5227,15 +5219,15 @@
       <c r="I30" s="81"/>
       <c r="J30" s="82"/>
       <c r="K30" s="83"/>
-      <c r="L30" s="234">
+      <c r="L30" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="235">
+      <c r="M30" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="236">
+      <c r="N30" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5264,7 +5256,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="238"/>
+      <c r="Y30" s="234"/>
       <c r="Z30" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5307,15 +5299,15 @@
       <c r="I31" s="66"/>
       <c r="J31" s="67"/>
       <c r="K31" s="68"/>
-      <c r="L31" s="234">
+      <c r="L31" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="235">
+      <c r="M31" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="236">
+      <c r="N31" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5344,7 +5336,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="241"/>
+      <c r="Y31" s="237"/>
       <c r="Z31" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5387,15 +5379,15 @@
       <c r="I32" s="49"/>
       <c r="J32" s="133"/>
       <c r="K32" s="134"/>
-      <c r="L32" s="234">
+      <c r="L32" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="235">
+      <c r="M32" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="236">
+      <c r="N32" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5424,7 +5416,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="242"/>
+      <c r="Y32" s="238"/>
       <c r="Z32" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5469,15 +5461,15 @@
       <c r="I33" s="66"/>
       <c r="J33" s="67"/>
       <c r="K33" s="68"/>
-      <c r="L33" s="234">
+      <c r="L33" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="235">
+      <c r="M33" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="236">
+      <c r="N33" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5506,7 +5498,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="241"/>
+      <c r="Y33" s="237"/>
       <c r="Z33" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5553,15 +5545,15 @@
       <c r="I34" s="49"/>
       <c r="J34" s="133"/>
       <c r="K34" s="134"/>
-      <c r="L34" s="234">
+      <c r="L34" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="235">
+      <c r="M34" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="236">
+      <c r="N34" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5590,7 +5582,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="242"/>
+      <c r="Y34" s="238"/>
       <c r="Z34" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5624,22 +5616,22 @@
       <c r="E35" s="62"/>
       <c r="F35" s="75"/>
       <c r="G35" s="64"/>
-      <c r="H35" s="228">
+      <c r="H35" s="224">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I35" s="66"/>
       <c r="J35" s="67"/>
       <c r="K35" s="68"/>
-      <c r="L35" s="234">
+      <c r="L35" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="235">
+      <c r="M35" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="236">
+      <c r="N35" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5668,7 +5660,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="243"/>
+      <c r="Y35" s="239"/>
       <c r="Z35" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5711,15 +5703,15 @@
       <c r="I36" s="81"/>
       <c r="J36" s="82"/>
       <c r="K36" s="83"/>
-      <c r="L36" s="234">
+      <c r="L36" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="235">
+      <c r="M36" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="236">
+      <c r="N36" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5748,7 +5740,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="241"/>
+      <c r="Y36" s="237"/>
       <c r="Z36" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5773,7 +5765,7 @@
       <c r="AF36" s="141"/>
     </row>
     <row r="37" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="298" t="s">
+      <c r="A37" s="274" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="103">
@@ -5793,15 +5785,15 @@
       <c r="I37" s="40"/>
       <c r="J37" s="41"/>
       <c r="K37" s="42"/>
-      <c r="L37" s="234">
+      <c r="L37" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="235">
+      <c r="M37" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="236">
+      <c r="N37" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5830,7 +5822,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="242"/>
+      <c r="Y37" s="238"/>
       <c r="Z37" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5850,20 +5842,20 @@
       <c r="AD37" s="57"/>
       <c r="AE37" s="80"/>
       <c r="AF37" s="80"/>
-      <c r="AJ37" s="216"/>
-      <c r="AK37" s="216"/>
-      <c r="AL37" s="216"/>
-      <c r="AM37" s="216"/>
-      <c r="AN37" s="216"/>
-      <c r="AO37" s="216"/>
-      <c r="AP37" s="216"/>
-      <c r="AQ37" s="216"/>
-      <c r="AR37" s="216"/>
-      <c r="AS37" s="216"/>
-      <c r="AT37" s="216"/>
+      <c r="AJ37" s="212"/>
+      <c r="AK37" s="212"/>
+      <c r="AL37" s="212"/>
+      <c r="AM37" s="212"/>
+      <c r="AN37" s="212"/>
+      <c r="AO37" s="212"/>
+      <c r="AP37" s="212"/>
+      <c r="AQ37" s="212"/>
+      <c r="AR37" s="212"/>
+      <c r="AS37" s="212"/>
+      <c r="AT37" s="212"/>
     </row>
     <row r="38" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="298"/>
+      <c r="A38" s="274"/>
       <c r="B38" s="59">
         <v>1072</v>
       </c>
@@ -5881,15 +5873,15 @@
       <c r="I38" s="66"/>
       <c r="J38" s="67"/>
       <c r="K38" s="125"/>
-      <c r="L38" s="234">
+      <c r="L38" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M38" s="235">
+      <c r="M38" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="236">
+      <c r="N38" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5918,7 +5910,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="243"/>
+      <c r="Y38" s="239"/>
       <c r="Z38" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5938,20 +5930,20 @@
       <c r="AD38" s="73"/>
       <c r="AE38" s="80"/>
       <c r="AF38" s="80"/>
-      <c r="AJ38" s="216"/>
-      <c r="AK38" s="216"/>
-      <c r="AL38" s="216"/>
-      <c r="AM38" s="216"/>
-      <c r="AN38" s="216"/>
-      <c r="AO38" s="216"/>
-      <c r="AP38" s="216"/>
-      <c r="AQ38" s="216"/>
-      <c r="AR38" s="216"/>
-      <c r="AS38" s="216"/>
-      <c r="AT38" s="216"/>
+      <c r="AJ38" s="212"/>
+      <c r="AK38" s="212"/>
+      <c r="AL38" s="212"/>
+      <c r="AM38" s="212"/>
+      <c r="AN38" s="212"/>
+      <c r="AO38" s="212"/>
+      <c r="AP38" s="212"/>
+      <c r="AQ38" s="212"/>
+      <c r="AR38" s="212"/>
+      <c r="AS38" s="212"/>
+      <c r="AT38" s="212"/>
     </row>
     <row r="39" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="298"/>
+      <c r="A39" s="274"/>
       <c r="B39" s="59">
         <v>1073</v>
       </c>
@@ -5969,15 +5961,15 @@
       <c r="I39" s="66"/>
       <c r="J39" s="67"/>
       <c r="K39" s="125"/>
-      <c r="L39" s="234">
+      <c r="L39" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="235">
+      <c r="M39" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="236">
+      <c r="N39" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6006,7 +5998,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="243"/>
+      <c r="Y39" s="239"/>
       <c r="Z39" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6030,20 +6022,20 @@
       <c r="AE39" s="80"/>
       <c r="AF39" s="80"/>
       <c r="AG39" s="80"/>
-      <c r="AJ39" s="216"/>
-      <c r="AK39" s="216"/>
-      <c r="AL39" s="216"/>
-      <c r="AM39" s="216"/>
-      <c r="AN39" s="216"/>
-      <c r="AO39" s="216"/>
-      <c r="AP39" s="216"/>
-      <c r="AQ39" s="216"/>
-      <c r="AR39" s="216"/>
-      <c r="AS39" s="216"/>
-      <c r="AT39" s="216"/>
+      <c r="AJ39" s="212"/>
+      <c r="AK39" s="212"/>
+      <c r="AL39" s="212"/>
+      <c r="AM39" s="212"/>
+      <c r="AN39" s="212"/>
+      <c r="AO39" s="212"/>
+      <c r="AP39" s="212"/>
+      <c r="AQ39" s="212"/>
+      <c r="AR39" s="212"/>
+      <c r="AS39" s="212"/>
+      <c r="AT39" s="212"/>
     </row>
     <row r="40" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="298"/>
+      <c r="A40" s="274"/>
       <c r="B40" s="59">
         <v>7074</v>
       </c>
@@ -6061,15 +6053,15 @@
       <c r="I40" s="66"/>
       <c r="J40" s="67"/>
       <c r="K40" s="125"/>
-      <c r="L40" s="234">
+      <c r="L40" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="235">
+      <c r="M40" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="236">
+      <c r="N40" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6098,7 +6090,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="243"/>
+      <c r="Y40" s="239"/>
       <c r="Z40" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6122,20 +6114,20 @@
       <c r="AE40" s="80"/>
       <c r="AF40" s="80"/>
       <c r="AG40" s="80"/>
-      <c r="AJ40" s="216"/>
-      <c r="AK40" s="216"/>
-      <c r="AL40" s="216"/>
-      <c r="AM40" s="216"/>
-      <c r="AN40" s="216"/>
-      <c r="AO40" s="216"/>
-      <c r="AP40" s="216"/>
-      <c r="AQ40" s="216"/>
-      <c r="AR40" s="216"/>
-      <c r="AS40" s="216"/>
-      <c r="AT40" s="216"/>
+      <c r="AJ40" s="212"/>
+      <c r="AK40" s="212"/>
+      <c r="AL40" s="212"/>
+      <c r="AM40" s="212"/>
+      <c r="AN40" s="212"/>
+      <c r="AO40" s="212"/>
+      <c r="AP40" s="212"/>
+      <c r="AQ40" s="212"/>
+      <c r="AR40" s="212"/>
+      <c r="AS40" s="212"/>
+      <c r="AT40" s="212"/>
     </row>
     <row r="41" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="298"/>
+      <c r="A41" s="274"/>
       <c r="B41" s="88">
         <v>7075</v>
       </c>
@@ -6153,15 +6145,15 @@
       <c r="I41" s="101"/>
       <c r="J41" s="96"/>
       <c r="K41" s="148"/>
-      <c r="L41" s="234">
+      <c r="L41" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="235">
+      <c r="M41" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N41" s="236">
+      <c r="N41" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6190,7 +6182,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="241"/>
+      <c r="Y41" s="237"/>
       <c r="Z41" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6211,20 +6203,20 @@
       <c r="AE41" s="80"/>
       <c r="AF41" s="80"/>
       <c r="AG41" s="80"/>
-      <c r="AJ41" s="216"/>
-      <c r="AK41" s="216"/>
-      <c r="AL41" s="216"/>
-      <c r="AM41" s="216"/>
-      <c r="AN41" s="216"/>
-      <c r="AO41" s="216"/>
-      <c r="AP41" s="216"/>
-      <c r="AQ41" s="216"/>
-      <c r="AR41" s="216"/>
-      <c r="AS41" s="216"/>
-      <c r="AT41" s="216"/>
+      <c r="AJ41" s="212"/>
+      <c r="AK41" s="212"/>
+      <c r="AL41" s="212"/>
+      <c r="AM41" s="212"/>
+      <c r="AN41" s="212"/>
+      <c r="AO41" s="212"/>
+      <c r="AP41" s="212"/>
+      <c r="AQ41" s="212"/>
+      <c r="AR41" s="212"/>
+      <c r="AS41" s="212"/>
+      <c r="AT41" s="212"/>
     </row>
     <row r="42" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="300" t="s">
+      <c r="A42" s="275" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="33">
@@ -6244,15 +6236,15 @@
       <c r="I42" s="81"/>
       <c r="J42" s="82"/>
       <c r="K42" s="83"/>
-      <c r="L42" s="234">
+      <c r="L42" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M42" s="235">
+      <c r="M42" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N42" s="236">
+      <c r="N42" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6281,7 +6273,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="242"/>
+      <c r="Y42" s="238"/>
       <c r="Z42" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6300,20 +6292,20 @@
       </c>
       <c r="AD42" s="57"/>
       <c r="AE42" s="141"/>
-      <c r="AJ42" s="216"/>
-      <c r="AK42" s="221"/>
-      <c r="AL42" s="221"/>
-      <c r="AM42" s="214"/>
-      <c r="AN42" s="221"/>
-      <c r="AO42" s="221"/>
-      <c r="AP42" s="216"/>
-      <c r="AQ42" s="221"/>
-      <c r="AR42" s="221"/>
-      <c r="AS42" s="216"/>
-      <c r="AT42" s="216"/>
+      <c r="AJ42" s="212"/>
+      <c r="AK42" s="217"/>
+      <c r="AL42" s="217"/>
+      <c r="AM42" s="210"/>
+      <c r="AN42" s="217"/>
+      <c r="AO42" s="217"/>
+      <c r="AP42" s="212"/>
+      <c r="AQ42" s="217"/>
+      <c r="AR42" s="217"/>
+      <c r="AS42" s="212"/>
+      <c r="AT42" s="212"/>
     </row>
     <row r="43" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="301"/>
+      <c r="A43" s="276"/>
       <c r="B43" s="59">
         <v>9092</v>
       </c>
@@ -6331,15 +6323,15 @@
       <c r="I43" s="66"/>
       <c r="J43" s="67"/>
       <c r="K43" s="125"/>
-      <c r="L43" s="234">
+      <c r="L43" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M43" s="235">
+      <c r="M43" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N43" s="236">
+      <c r="N43" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6368,7 +6360,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="243"/>
+      <c r="Y43" s="239"/>
       <c r="Z43" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6387,20 +6379,20 @@
       </c>
       <c r="AD43" s="73"/>
       <c r="AE43" s="80"/>
-      <c r="AJ43" s="216"/>
-      <c r="AK43" s="220"/>
-      <c r="AL43" s="222"/>
-      <c r="AM43" s="223"/>
-      <c r="AN43" s="220"/>
-      <c r="AO43" s="222"/>
-      <c r="AP43" s="216"/>
-      <c r="AQ43" s="220"/>
-      <c r="AR43" s="222"/>
-      <c r="AS43" s="216"/>
-      <c r="AT43" s="216"/>
+      <c r="AJ43" s="212"/>
+      <c r="AK43" s="216"/>
+      <c r="AL43" s="218"/>
+      <c r="AM43" s="219"/>
+      <c r="AN43" s="216"/>
+      <c r="AO43" s="218"/>
+      <c r="AP43" s="212"/>
+      <c r="AQ43" s="216"/>
+      <c r="AR43" s="218"/>
+      <c r="AS43" s="212"/>
+      <c r="AT43" s="212"/>
     </row>
     <row r="44" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="301"/>
+      <c r="A44" s="276"/>
       <c r="B44" s="59">
         <v>9093</v>
       </c>
@@ -6418,15 +6410,15 @@
       <c r="I44" s="66"/>
       <c r="J44" s="67"/>
       <c r="K44" s="125"/>
-      <c r="L44" s="234">
+      <c r="L44" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M44" s="235">
+      <c r="M44" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N44" s="236">
+      <c r="N44" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6455,7 +6447,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="243"/>
+      <c r="Y44" s="239"/>
       <c r="Z44" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6477,20 +6469,20 @@
         <v>0</v>
       </c>
       <c r="AE44" s="141"/>
-      <c r="AJ44" s="216"/>
-      <c r="AK44" s="221"/>
-      <c r="AL44" s="224"/>
-      <c r="AM44" s="214"/>
-      <c r="AN44" s="221"/>
-      <c r="AO44" s="225"/>
-      <c r="AP44" s="216"/>
-      <c r="AQ44" s="221"/>
-      <c r="AR44" s="225"/>
-      <c r="AS44" s="216"/>
-      <c r="AT44" s="216"/>
+      <c r="AJ44" s="212"/>
+      <c r="AK44" s="217"/>
+      <c r="AL44" s="220"/>
+      <c r="AM44" s="210"/>
+      <c r="AN44" s="217"/>
+      <c r="AO44" s="221"/>
+      <c r="AP44" s="212"/>
+      <c r="AQ44" s="217"/>
+      <c r="AR44" s="221"/>
+      <c r="AS44" s="212"/>
+      <c r="AT44" s="212"/>
     </row>
     <row r="45" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="301"/>
+      <c r="A45" s="276"/>
       <c r="B45" s="59">
         <v>9194</v>
       </c>
@@ -6508,15 +6500,15 @@
       <c r="I45" s="66"/>
       <c r="J45" s="67"/>
       <c r="K45" s="125"/>
-      <c r="L45" s="234">
+      <c r="L45" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M45" s="235">
+      <c r="M45" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45" s="236">
+      <c r="N45" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6545,7 +6537,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y45" s="243"/>
+      <c r="Y45" s="239"/>
       <c r="Z45" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6567,20 +6559,20 @@
         <v>0</v>
       </c>
       <c r="AE45" s="80"/>
-      <c r="AJ45" s="216"/>
-      <c r="AK45" s="220"/>
-      <c r="AL45" s="226"/>
-      <c r="AM45" s="214"/>
-      <c r="AN45" s="220"/>
-      <c r="AO45" s="227"/>
-      <c r="AP45" s="216"/>
-      <c r="AQ45" s="220"/>
-      <c r="AR45" s="227"/>
-      <c r="AS45" s="216"/>
-      <c r="AT45" s="216"/>
+      <c r="AJ45" s="212"/>
+      <c r="AK45" s="216"/>
+      <c r="AL45" s="222"/>
+      <c r="AM45" s="210"/>
+      <c r="AN45" s="216"/>
+      <c r="AO45" s="223"/>
+      <c r="AP45" s="212"/>
+      <c r="AQ45" s="216"/>
+      <c r="AR45" s="223"/>
+      <c r="AS45" s="212"/>
+      <c r="AT45" s="212"/>
     </row>
     <row r="46" spans="1:46" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="301"/>
+      <c r="A46" s="276"/>
       <c r="B46" s="59">
         <v>9195</v>
       </c>
@@ -6598,15 +6590,15 @@
       <c r="I46" s="66"/>
       <c r="J46" s="67"/>
       <c r="K46" s="125"/>
-      <c r="L46" s="234">
+      <c r="L46" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M46" s="235">
+      <c r="M46" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N46" s="236">
+      <c r="N46" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6635,7 +6627,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="243"/>
+      <c r="Y46" s="239"/>
       <c r="Z46" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6654,20 +6646,20 @@
       </c>
       <c r="AD46" s="151"/>
       <c r="AE46" s="80"/>
-      <c r="AJ46" s="216"/>
-      <c r="AK46" s="220"/>
-      <c r="AL46" s="226"/>
-      <c r="AM46" s="214"/>
-      <c r="AN46" s="220"/>
-      <c r="AO46" s="227"/>
-      <c r="AP46" s="216"/>
-      <c r="AQ46" s="220"/>
-      <c r="AR46" s="227"/>
-      <c r="AS46" s="216"/>
-      <c r="AT46" s="216"/>
-    </row>
-    <row r="47" spans="1:46" s="213" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="302"/>
+      <c r="AJ46" s="212"/>
+      <c r="AK46" s="216"/>
+      <c r="AL46" s="222"/>
+      <c r="AM46" s="210"/>
+      <c r="AN46" s="216"/>
+      <c r="AO46" s="223"/>
+      <c r="AP46" s="212"/>
+      <c r="AQ46" s="216"/>
+      <c r="AR46" s="223"/>
+      <c r="AS46" s="212"/>
+      <c r="AT46" s="212"/>
+    </row>
+    <row r="47" spans="1:46" s="209" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="277"/>
       <c r="B47" s="88">
         <v>9500</v>
       </c>
@@ -6685,19 +6677,19 @@
       <c r="I47" s="101"/>
       <c r="J47" s="96"/>
       <c r="K47" s="148"/>
-      <c r="L47" s="234">
+      <c r="L47" s="230">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="235">
+      <c r="M47" s="231">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47" s="236">
+      <c r="N47" s="232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O47" s="204">
+      <c r="O47" s="200">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6708,7 +6700,7 @@
       <c r="Q47" s="98"/>
       <c r="R47" s="99"/>
       <c r="S47" s="100"/>
-      <c r="T47" s="205">
+      <c r="T47" s="201">
         <f>SUM(Q47:S47)</f>
         <v>0</v>
       </c>
@@ -6718,12 +6710,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X47" s="206">
+      <c r="X47" s="202">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="241"/>
-      <c r="Z47" s="207">
+      <c r="Y47" s="237"/>
+      <c r="Z47" s="203">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6731,7 +6723,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="208">
+      <c r="AB47" s="204">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6740,22 +6732,22 @@
         <v>0</v>
       </c>
       <c r="AD47" s="102"/>
-      <c r="AE47" s="209"/>
-      <c r="AF47" s="210"/>
-      <c r="AG47" s="210"/>
-      <c r="AH47" s="211"/>
-      <c r="AI47" s="212"/>
-      <c r="AJ47" s="216"/>
-      <c r="AK47" s="220"/>
-      <c r="AL47" s="226"/>
-      <c r="AM47" s="214"/>
-      <c r="AN47" s="220"/>
-      <c r="AO47" s="226"/>
-      <c r="AP47" s="216"/>
-      <c r="AQ47" s="220"/>
-      <c r="AR47" s="226"/>
-      <c r="AS47" s="216"/>
-      <c r="AT47" s="216"/>
+      <c r="AE47" s="205"/>
+      <c r="AF47" s="206"/>
+      <c r="AG47" s="206"/>
+      <c r="AH47" s="207"/>
+      <c r="AI47" s="208"/>
+      <c r="AJ47" s="212"/>
+      <c r="AK47" s="216"/>
+      <c r="AL47" s="222"/>
+      <c r="AM47" s="210"/>
+      <c r="AN47" s="216"/>
+      <c r="AO47" s="222"/>
+      <c r="AP47" s="212"/>
+      <c r="AQ47" s="216"/>
+      <c r="AR47" s="222"/>
+      <c r="AS47" s="212"/>
+      <c r="AT47" s="212"/>
     </row>
     <row r="48" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="152"/>
@@ -6782,56 +6774,56 @@
       <c r="Y48" s="155"/>
       <c r="Z48" s="155"/>
       <c r="AA48" s="155"/>
-      <c r="AB48" s="203" t="s">
+      <c r="AB48" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="AC48" s="203" t="s">
+      <c r="AC48" s="199" t="s">
         <v>86</v>
       </c>
       <c r="AE48" s="157"/>
       <c r="AF48" s="157"/>
-      <c r="AJ48" s="216"/>
-      <c r="AK48" s="216"/>
-      <c r="AL48" s="216"/>
-      <c r="AM48" s="216"/>
-      <c r="AN48" s="216"/>
-      <c r="AO48" s="216"/>
-      <c r="AP48" s="216"/>
-      <c r="AQ48" s="216"/>
-      <c r="AR48" s="216"/>
-      <c r="AS48" s="216"/>
-      <c r="AT48" s="216"/>
+      <c r="AJ48" s="212"/>
+      <c r="AK48" s="212"/>
+      <c r="AL48" s="212"/>
+      <c r="AM48" s="212"/>
+      <c r="AN48" s="212"/>
+      <c r="AO48" s="212"/>
+      <c r="AP48" s="212"/>
+      <c r="AQ48" s="212"/>
+      <c r="AR48" s="212"/>
+      <c r="AS48" s="212"/>
+      <c r="AT48" s="212"/>
     </row>
     <row r="49" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="303" t="s">
+      <c r="A49" s="278" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="304"/>
-      <c r="C49" s="304"/>
-      <c r="D49" s="304"/>
-      <c r="E49" s="304"/>
-      <c r="F49" s="304"/>
-      <c r="G49" s="304"/>
-      <c r="H49" s="304"/>
-      <c r="I49" s="304"/>
-      <c r="J49" s="304"/>
-      <c r="K49" s="304"/>
-      <c r="L49" s="304"/>
-      <c r="M49" s="304"/>
-      <c r="N49" s="304"/>
-      <c r="O49" s="304"/>
-      <c r="P49" s="304"/>
-      <c r="Q49" s="304"/>
-      <c r="R49" s="304"/>
-      <c r="S49" s="304"/>
-      <c r="T49" s="304"/>
-      <c r="U49" s="304"/>
-      <c r="V49" s="304"/>
-      <c r="W49" s="304"/>
-      <c r="X49" s="304"/>
-      <c r="Y49" s="304"/>
-      <c r="Z49" s="304"/>
-      <c r="AA49" s="304"/>
+      <c r="B49" s="279"/>
+      <c r="C49" s="279"/>
+      <c r="D49" s="279"/>
+      <c r="E49" s="279"/>
+      <c r="F49" s="279"/>
+      <c r="G49" s="279"/>
+      <c r="H49" s="279"/>
+      <c r="I49" s="279"/>
+      <c r="J49" s="279"/>
+      <c r="K49" s="279"/>
+      <c r="L49" s="279"/>
+      <c r="M49" s="279"/>
+      <c r="N49" s="279"/>
+      <c r="O49" s="279"/>
+      <c r="P49" s="279"/>
+      <c r="Q49" s="279"/>
+      <c r="R49" s="279"/>
+      <c r="S49" s="279"/>
+      <c r="T49" s="279"/>
+      <c r="U49" s="279"/>
+      <c r="V49" s="279"/>
+      <c r="W49" s="279"/>
+      <c r="X49" s="279"/>
+      <c r="Y49" s="279"/>
+      <c r="Z49" s="279"/>
+      <c r="AA49" s="279"/>
       <c r="AB49" s="158">
         <f>SUM(AB10:AB47)</f>
         <v>0</v>
@@ -6919,26 +6911,26 @@
       <c r="AI51"/>
     </row>
     <row r="52" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="305" t="s">
+      <c r="A52" s="280" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="307" t="s">
+      <c r="B52" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="307"/>
-      <c r="D52" s="307"/>
-      <c r="E52" s="307"/>
-      <c r="F52" s="309" t="s">
+      <c r="C52" s="282"/>
+      <c r="D52" s="282"/>
+      <c r="E52" s="282"/>
+      <c r="F52" s="284" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="311" t="s">
+      <c r="H52" s="286" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="311"/>
-      <c r="J52" s="311"/>
-      <c r="K52" s="311"/>
-      <c r="L52" s="311"/>
-      <c r="M52" s="311"/>
+      <c r="I52" s="286"/>
+      <c r="J52" s="286"/>
+      <c r="K52" s="286"/>
+      <c r="L52" s="286"/>
+      <c r="M52" s="286"/>
       <c r="O52" s="168" t="s">
         <v>91</v>
       </c>
@@ -6970,432 +6962,424 @@
       <c r="AM52" s="167"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A53" s="306"/>
-      <c r="B53" s="308"/>
-      <c r="C53" s="308"/>
-      <c r="D53" s="308"/>
-      <c r="E53" s="308"/>
-      <c r="F53" s="310"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="311"/>
-      <c r="I53" s="311"/>
-      <c r="J53" s="311"/>
-      <c r="K53" s="311"/>
-      <c r="L53" s="311"/>
-      <c r="M53" s="311"/>
-      <c r="O53" s="312" t="s">
+      <c r="A53" s="281"/>
+      <c r="B53" s="283"/>
+      <c r="C53" s="283"/>
+      <c r="D53" s="283"/>
+      <c r="E53" s="283"/>
+      <c r="F53" s="285"/>
+      <c r="G53" s="343"/>
+      <c r="H53" s="286"/>
+      <c r="I53" s="286"/>
+      <c r="J53" s="286"/>
+      <c r="K53" s="286"/>
+      <c r="L53" s="286"/>
+      <c r="M53" s="286"/>
+      <c r="O53" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="P53" s="313"/>
-      <c r="Q53" s="313"/>
-      <c r="R53" s="314"/>
-      <c r="S53" s="312" t="s">
+      <c r="P53" s="266"/>
+      <c r="Q53" s="266"/>
+      <c r="R53" s="267"/>
+      <c r="S53" s="265" t="s">
         <v>96</v>
       </c>
-      <c r="T53" s="313"/>
-      <c r="U53" s="313"/>
-      <c r="V53" s="313"/>
-      <c r="W53" s="314"/>
-      <c r="X53" s="312" t="s">
+      <c r="T53" s="266"/>
+      <c r="U53" s="266"/>
+      <c r="V53" s="266"/>
+      <c r="W53" s="267"/>
+      <c r="X53" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="Y53" s="313"/>
-      <c r="Z53" s="313"/>
-      <c r="AA53" s="314"/>
-      <c r="AB53" s="312" t="s">
+      <c r="Y53" s="266"/>
+      <c r="Z53" s="266"/>
+      <c r="AA53" s="267"/>
+      <c r="AB53" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="AC53" s="313"/>
-      <c r="AD53" s="314"/>
+      <c r="AC53" s="266"/>
+      <c r="AD53" s="267"/>
       <c r="AK53" s="126"/>
       <c r="AL53" s="166"/>
       <c r="AM53" s="167"/>
     </row>
     <row r="54" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="172" t="s">
+      <c r="A54" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="315" t="s">
+      <c r="B54" s="245" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="315"/>
-      <c r="D54" s="315"/>
-      <c r="E54" s="315"/>
-      <c r="F54" s="173" t="s">
+      <c r="C54" s="245"/>
+      <c r="D54" s="245"/>
+      <c r="E54" s="245"/>
+      <c r="F54" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="174" t="s">
+      <c r="G54" s="342"/>
+      <c r="H54" s="268" t="s">
         <v>102</v>
       </c>
-      <c r="H54" s="316" t="s">
+      <c r="I54" s="269"/>
+      <c r="J54" s="269"/>
+      <c r="K54" s="269"/>
+      <c r="L54" s="270">
+        <f>AB10+AB11</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="271"/>
+      <c r="O54" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="I54" s="317"/>
-      <c r="J54" s="317"/>
-      <c r="K54" s="317"/>
-      <c r="L54" s="318">
-        <f>AB10+AB11</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="319"/>
-      <c r="O54" s="175" t="s">
-        <v>104</v>
-      </c>
-      <c r="P54" s="176"/>
-      <c r="Q54" s="176"/>
-      <c r="R54" s="177"/>
-      <c r="S54" s="178" t="s">
-        <v>104</v>
-      </c>
-      <c r="T54" s="176"/>
-      <c r="U54" s="176"/>
-      <c r="V54" s="176"/>
-      <c r="W54" s="177"/>
-      <c r="X54" s="175" t="s">
-        <v>104</v>
+      <c r="P54" s="174"/>
+      <c r="Q54" s="174"/>
+      <c r="R54" s="175"/>
+      <c r="S54" s="176" t="s">
+        <v>103</v>
+      </c>
+      <c r="T54" s="174"/>
+      <c r="U54" s="174"/>
+      <c r="V54" s="174"/>
+      <c r="W54" s="175"/>
+      <c r="X54" s="173" t="s">
+        <v>103</v>
       </c>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
-      <c r="AA54" s="177"/>
-      <c r="AB54" s="175" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC54" s="179"/>
-      <c r="AD54" s="180"/>
+      <c r="AA54" s="175"/>
+      <c r="AB54" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC54" s="177"/>
+      <c r="AD54" s="178"/>
       <c r="AK54" s="126"/>
       <c r="AL54" s="166"/>
       <c r="AM54" s="167"/>
     </row>
     <row r="55" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="181"/>
-      <c r="B55" s="320"/>
-      <c r="C55" s="320"/>
-      <c r="D55" s="320"/>
-      <c r="E55" s="321"/>
-      <c r="F55" s="181"/>
-      <c r="G55" s="182" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" s="322" t="s">
-        <v>106</v>
-      </c>
-      <c r="I55" s="323"/>
-      <c r="J55" s="323"/>
-      <c r="K55" s="323"/>
-      <c r="L55" s="324">
+      <c r="A55" s="179"/>
+      <c r="B55" s="272"/>
+      <c r="C55" s="272"/>
+      <c r="D55" s="272"/>
+      <c r="E55" s="273"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="342"/>
+      <c r="H55" s="248" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" s="249"/>
+      <c r="J55" s="249"/>
+      <c r="K55" s="249"/>
+      <c r="L55" s="250">
         <f>AB19+AB23+AB24+AB25+AB28+AB29+AB32+AB34+AB37+AB38+AB39</f>
         <v>0</v>
       </c>
-      <c r="M55" s="325"/>
-      <c r="O55" s="183"/>
-      <c r="P55" s="176"/>
-      <c r="Q55" s="176"/>
-      <c r="R55" s="177"/>
-      <c r="S55" s="176"/>
-      <c r="T55" s="176"/>
-      <c r="U55" s="176"/>
-      <c r="V55" s="176"/>
-      <c r="W55" s="177"/>
-      <c r="X55" s="183"/>
+      <c r="M55" s="251"/>
+      <c r="O55" s="180"/>
+      <c r="P55" s="174"/>
+      <c r="Q55" s="174"/>
+      <c r="R55" s="175"/>
+      <c r="S55" s="174"/>
+      <c r="T55" s="174"/>
+      <c r="U55" s="174"/>
+      <c r="V55" s="174"/>
+      <c r="W55" s="175"/>
+      <c r="X55" s="180"/>
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
-      <c r="AA55" s="177"/>
-      <c r="AB55" s="184"/>
-      <c r="AC55" s="179"/>
-      <c r="AD55" s="180"/>
+      <c r="AA55" s="175"/>
+      <c r="AB55" s="181"/>
+      <c r="AC55" s="177"/>
+      <c r="AD55" s="178"/>
       <c r="AK55" s="126"/>
       <c r="AL55" s="166"/>
       <c r="AM55" s="167"/>
     </row>
     <row r="56" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="185"/>
-      <c r="B56" s="315"/>
-      <c r="C56" s="315"/>
-      <c r="D56" s="315"/>
-      <c r="E56" s="315"/>
-      <c r="F56" s="339" t="s">
+      <c r="A56" s="182"/>
+      <c r="B56" s="245"/>
+      <c r="C56" s="245"/>
+      <c r="D56" s="245"/>
+      <c r="E56" s="245"/>
+      <c r="F56" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="322" t="s">
-        <v>108</v>
-      </c>
-      <c r="I56" s="323"/>
-      <c r="J56" s="323"/>
-      <c r="K56" s="323"/>
-      <c r="L56" s="324">
+      <c r="G56" s="346"/>
+      <c r="H56" s="248" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="249"/>
+      <c r="J56" s="249"/>
+      <c r="K56" s="249"/>
+      <c r="L56" s="250">
         <f>AB12+AB13+AB14+AB15+AB16+AB17+AB18+AB20+AB21+AB22+AB26+AB27+AB30+AB31+AB33+AB35+AB36+AB40+AB41</f>
         <v>0</v>
       </c>
-      <c r="M56" s="325"/>
-      <c r="N56" s="187"/>
-      <c r="O56" s="188"/>
-      <c r="P56" s="189"/>
-      <c r="Q56" s="189"/>
-      <c r="R56" s="190"/>
-      <c r="S56" s="326"/>
-      <c r="T56" s="327"/>
-      <c r="U56" s="327"/>
-      <c r="V56" s="327"/>
-      <c r="W56" s="328"/>
-      <c r="X56" s="183"/>
+      <c r="M56" s="251"/>
+      <c r="N56" s="183"/>
+      <c r="O56" s="184"/>
+      <c r="P56" s="185"/>
+      <c r="Q56" s="185"/>
+      <c r="R56" s="186"/>
+      <c r="S56" s="254"/>
+      <c r="T56" s="255"/>
+      <c r="U56" s="255"/>
+      <c r="V56" s="255"/>
+      <c r="W56" s="256"/>
+      <c r="X56" s="180"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
-      <c r="AA56" s="177"/>
-      <c r="AB56" s="184"/>
-      <c r="AC56" s="179"/>
-      <c r="AD56" s="180"/>
+      <c r="AA56" s="175"/>
+      <c r="AB56" s="181"/>
+      <c r="AC56" s="177"/>
+      <c r="AD56" s="178"/>
       <c r="AK56" s="126"/>
       <c r="AL56" s="166"/>
       <c r="AM56" s="167"/>
     </row>
     <row r="57" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="191"/>
-      <c r="B57" s="329"/>
-      <c r="C57" s="329"/>
-      <c r="D57" s="329"/>
-      <c r="E57" s="329"/>
-      <c r="F57" s="340"/>
-      <c r="G57" s="186" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" s="330" t="s">
-        <v>110</v>
-      </c>
-      <c r="I57" s="331"/>
-      <c r="J57" s="331"/>
-      <c r="K57" s="331"/>
-      <c r="L57" s="332">
+      <c r="A57" s="187"/>
+      <c r="B57" s="257"/>
+      <c r="C57" s="257"/>
+      <c r="D57" s="257"/>
+      <c r="E57" s="257"/>
+      <c r="F57" s="247"/>
+      <c r="G57" s="345"/>
+      <c r="H57" s="258" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" s="259"/>
+      <c r="J57" s="259"/>
+      <c r="K57" s="259"/>
+      <c r="L57" s="260">
         <f>AB42+AB43+AB44+AB45+AB46+AB47</f>
         <v>0</v>
       </c>
-      <c r="M57" s="333"/>
-      <c r="N57" s="187"/>
-      <c r="O57" s="192" t="s">
-        <v>111</v>
-      </c>
-      <c r="P57" s="193"/>
-      <c r="Q57" s="193"/>
-      <c r="R57" s="193"/>
-      <c r="S57" s="334" t="s">
-        <v>111</v>
-      </c>
-      <c r="T57" s="335"/>
-      <c r="U57" s="335"/>
-      <c r="V57" s="335"/>
-      <c r="W57" s="336"/>
-      <c r="X57" s="192" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y57" s="194"/>
-      <c r="Z57" s="194"/>
-      <c r="AA57" s="195"/>
-      <c r="AB57" s="192" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC57" s="196"/>
-      <c r="AD57" s="197"/>
+      <c r="M57" s="261"/>
+      <c r="N57" s="183"/>
+      <c r="O57" s="188" t="s">
+        <v>107</v>
+      </c>
+      <c r="P57" s="189"/>
+      <c r="Q57" s="189"/>
+      <c r="R57" s="189"/>
+      <c r="S57" s="262" t="s">
+        <v>107</v>
+      </c>
+      <c r="T57" s="263"/>
+      <c r="U57" s="263"/>
+      <c r="V57" s="263"/>
+      <c r="W57" s="264"/>
+      <c r="X57" s="188" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y57" s="190"/>
+      <c r="Z57" s="190"/>
+      <c r="AA57" s="191"/>
+      <c r="AB57" s="188" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC57" s="192"/>
+      <c r="AD57" s="193"/>
       <c r="AK57" s="126"/>
       <c r="AL57" s="1"/>
       <c r="AM57" s="2"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A58" s="198"/>
-      <c r="B58" s="199"/>
-      <c r="C58" s="199"/>
-      <c r="D58" s="199"/>
-      <c r="E58" s="199"/>
-      <c r="F58" s="199"/>
-      <c r="G58" s="199"/>
-      <c r="H58" s="199"/>
-      <c r="I58" s="199"/>
-      <c r="J58" s="199"/>
-      <c r="K58" s="199"/>
-      <c r="W58" s="199"/>
-      <c r="X58" s="199"/>
-      <c r="Y58" s="199"/>
-      <c r="Z58" s="199"/>
-      <c r="AA58" s="199"/>
-      <c r="AB58" s="199"/>
-      <c r="AC58" s="199"/>
-      <c r="AD58" s="199"/>
+      <c r="A58" s="194"/>
+      <c r="B58" s="195"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="344"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
+      <c r="K58" s="195"/>
+      <c r="W58" s="195"/>
+      <c r="X58" s="195"/>
+      <c r="Y58" s="195"/>
+      <c r="Z58" s="195"/>
+      <c r="AA58" s="195"/>
+      <c r="AB58" s="195"/>
+      <c r="AC58" s="195"/>
+      <c r="AD58" s="195"/>
       <c r="AK58" s="126"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="2"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A59" s="198"/>
-      <c r="B59" s="199"/>
-      <c r="C59" s="199"/>
-      <c r="D59" s="199"/>
-      <c r="E59" s="199"/>
-      <c r="F59" s="199"/>
-      <c r="G59" s="199"/>
-      <c r="H59" s="199"/>
-      <c r="I59" s="199"/>
-      <c r="J59" s="199"/>
-      <c r="K59" s="199"/>
-      <c r="V59" s="199"/>
-      <c r="W59" s="199"/>
-      <c r="X59" s="199"/>
-      <c r="Y59" s="199"/>
-      <c r="Z59" s="199"/>
-      <c r="AA59" s="199"/>
-      <c r="AB59" s="199"/>
-      <c r="AC59" s="199"/>
-      <c r="AD59" s="199"/>
+      <c r="A59" s="194"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="195"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="195"/>
+      <c r="J59" s="195"/>
+      <c r="K59" s="195"/>
+      <c r="V59" s="195"/>
+      <c r="W59" s="195"/>
+      <c r="X59" s="195"/>
+      <c r="Y59" s="195"/>
+      <c r="Z59" s="195"/>
+      <c r="AA59" s="195"/>
+      <c r="AB59" s="195"/>
+      <c r="AC59" s="195"/>
+      <c r="AD59" s="195"/>
       <c r="AK59" s="126"/>
       <c r="AL59" s="126"/>
       <c r="AM59" s="1"/>
       <c r="AN59" s="2"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="216"/>
-      <c r="C60" s="216"/>
-      <c r="D60" s="216"/>
-      <c r="E60" s="216"/>
-      <c r="F60" s="216"/>
-      <c r="G60" s="216"/>
-      <c r="H60" s="341"/>
-      <c r="I60" s="341"/>
-      <c r="J60" s="341"/>
-      <c r="K60" s="341"/>
-      <c r="L60" s="341"/>
-      <c r="M60" s="341"/>
-      <c r="N60" s="216"/>
-      <c r="O60" s="216"/>
+      <c r="B60" s="212"/>
+      <c r="C60" s="212"/>
+      <c r="D60" s="212"/>
+      <c r="E60" s="212"/>
+      <c r="F60" s="212"/>
+      <c r="G60" s="212"/>
+      <c r="H60" s="252"/>
+      <c r="I60" s="252"/>
+      <c r="J60" s="252"/>
+      <c r="K60" s="252"/>
+      <c r="L60" s="252"/>
+      <c r="M60" s="252"/>
+      <c r="N60" s="212"/>
+      <c r="O60" s="212"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="216"/>
-      <c r="C61" s="216"/>
-      <c r="D61" s="216"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="216"/>
-      <c r="G61" s="229"/>
-      <c r="H61" s="341"/>
-      <c r="I61" s="341"/>
-      <c r="J61" s="341"/>
-      <c r="K61" s="341"/>
-      <c r="L61" s="341"/>
-      <c r="M61" s="341"/>
-      <c r="N61" s="216"/>
-      <c r="O61" s="216"/>
+      <c r="B61" s="212"/>
+      <c r="C61" s="212"/>
+      <c r="D61" s="212"/>
+      <c r="E61" s="212"/>
+      <c r="F61" s="212"/>
+      <c r="G61" s="225"/>
+      <c r="H61" s="252"/>
+      <c r="I61" s="252"/>
+      <c r="J61" s="252"/>
+      <c r="K61" s="252"/>
+      <c r="L61" s="252"/>
+      <c r="M61" s="252"/>
+      <c r="N61" s="212"/>
+      <c r="O61" s="212"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="216"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="216"/>
-      <c r="E62" s="216"/>
-      <c r="F62" s="216"/>
-      <c r="G62" s="230"/>
-      <c r="H62" s="342"/>
-      <c r="I62" s="337"/>
-      <c r="J62" s="337"/>
-      <c r="K62" s="337"/>
-      <c r="L62" s="338"/>
-      <c r="M62" s="338"/>
-      <c r="N62" s="231"/>
-      <c r="O62" s="216"/>
+      <c r="B62" s="212"/>
+      <c r="C62" s="212"/>
+      <c r="D62" s="212"/>
+      <c r="E62" s="212"/>
+      <c r="F62" s="212"/>
+      <c r="G62" s="226"/>
+      <c r="H62" s="253"/>
+      <c r="I62" s="240"/>
+      <c r="J62" s="240"/>
+      <c r="K62" s="240"/>
+      <c r="L62" s="241"/>
+      <c r="M62" s="241"/>
+      <c r="N62" s="227"/>
+      <c r="O62" s="212"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="216"/>
-      <c r="C63" s="216"/>
-      <c r="D63" s="216"/>
-      <c r="E63" s="216"/>
-      <c r="F63" s="216"/>
-      <c r="G63" s="230"/>
-      <c r="H63" s="337"/>
-      <c r="I63" s="337"/>
-      <c r="J63" s="337"/>
-      <c r="K63" s="337"/>
-      <c r="L63" s="338"/>
-      <c r="M63" s="338"/>
-      <c r="N63" s="231"/>
-      <c r="O63" s="216"/>
-      <c r="AH63" s="201"/>
+      <c r="B63" s="212"/>
+      <c r="C63" s="212"/>
+      <c r="D63" s="212"/>
+      <c r="E63" s="212"/>
+      <c r="F63" s="212"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="240"/>
+      <c r="I63" s="240"/>
+      <c r="J63" s="240"/>
+      <c r="K63" s="240"/>
+      <c r="L63" s="241"/>
+      <c r="M63" s="241"/>
+      <c r="N63" s="227"/>
+      <c r="O63" s="212"/>
+      <c r="AH63" s="197"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="216"/>
-      <c r="C64" s="216"/>
-      <c r="D64" s="216"/>
-      <c r="E64" s="216"/>
-      <c r="F64" s="216"/>
-      <c r="G64" s="230"/>
-      <c r="H64" s="337"/>
-      <c r="I64" s="337"/>
-      <c r="J64" s="337"/>
-      <c r="K64" s="337"/>
-      <c r="L64" s="338"/>
-      <c r="M64" s="338"/>
-      <c r="N64" s="231"/>
-      <c r="O64" s="216"/>
-      <c r="AH64" s="202"/>
+      <c r="B64" s="212"/>
+      <c r="C64" s="212"/>
+      <c r="D64" s="212"/>
+      <c r="E64" s="212"/>
+      <c r="F64" s="212"/>
+      <c r="G64" s="226"/>
+      <c r="H64" s="240"/>
+      <c r="I64" s="240"/>
+      <c r="J64" s="240"/>
+      <c r="K64" s="240"/>
+      <c r="L64" s="241"/>
+      <c r="M64" s="241"/>
+      <c r="N64" s="227"/>
+      <c r="O64" s="212"/>
+      <c r="AH64" s="198"/>
     </row>
     <row r="65" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B65" s="216"/>
-      <c r="C65" s="216"/>
-      <c r="D65" s="216"/>
-      <c r="E65" s="216"/>
-      <c r="F65" s="216"/>
-      <c r="G65" s="230"/>
-      <c r="H65" s="337"/>
-      <c r="I65" s="337"/>
-      <c r="J65" s="337"/>
-      <c r="K65" s="337"/>
-      <c r="L65" s="338"/>
-      <c r="M65" s="338"/>
-      <c r="N65" s="231"/>
-      <c r="O65" s="216"/>
+      <c r="B65" s="212"/>
+      <c r="C65" s="212"/>
+      <c r="D65" s="212"/>
+      <c r="E65" s="212"/>
+      <c r="F65" s="212"/>
+      <c r="G65" s="226"/>
+      <c r="H65" s="240"/>
+      <c r="I65" s="240"/>
+      <c r="J65" s="240"/>
+      <c r="K65" s="240"/>
+      <c r="L65" s="241"/>
+      <c r="M65" s="241"/>
+      <c r="N65" s="227"/>
+      <c r="O65" s="212"/>
     </row>
     <row r="66" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B66" s="216"/>
-      <c r="C66" s="216"/>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="216"/>
-      <c r="G66" s="230"/>
-      <c r="H66" s="216"/>
-      <c r="I66" s="232"/>
-      <c r="J66" s="232"/>
-      <c r="K66" s="232"/>
-      <c r="L66" s="343"/>
-      <c r="M66" s="343"/>
-      <c r="N66" s="216"/>
-      <c r="O66" s="216"/>
+      <c r="B66" s="212"/>
+      <c r="C66" s="212"/>
+      <c r="D66" s="212"/>
+      <c r="E66" s="212"/>
+      <c r="F66" s="212"/>
+      <c r="G66" s="226"/>
+      <c r="H66" s="212"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="228"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="242"/>
+      <c r="M66" s="242"/>
+      <c r="N66" s="212"/>
+      <c r="O66" s="212"/>
     </row>
     <row r="67" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B67" s="216"/>
-      <c r="C67" s="216"/>
-      <c r="D67" s="216"/>
-      <c r="E67" s="216"/>
-      <c r="F67" s="216"/>
-      <c r="G67" s="230"/>
-      <c r="H67" s="216"/>
-      <c r="I67" s="232"/>
-      <c r="J67" s="232"/>
-      <c r="K67" s="232"/>
-      <c r="L67" s="344"/>
-      <c r="M67" s="344"/>
-      <c r="N67" s="216"/>
-      <c r="O67" s="216"/>
+      <c r="B67" s="212"/>
+      <c r="C67" s="212"/>
+      <c r="D67" s="212"/>
+      <c r="E67" s="212"/>
+      <c r="F67" s="212"/>
+      <c r="G67" s="226"/>
+      <c r="H67" s="212"/>
+      <c r="I67" s="228"/>
+      <c r="J67" s="228"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="243"/>
+      <c r="M67" s="243"/>
+      <c r="N67" s="212"/>
+      <c r="O67" s="212"/>
     </row>
     <row r="68" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="216"/>
-      <c r="C68" s="216"/>
-      <c r="D68" s="216"/>
-      <c r="E68" s="216"/>
-      <c r="F68" s="216"/>
-      <c r="G68" s="230"/>
-      <c r="H68" s="216"/>
-      <c r="I68" s="232"/>
-      <c r="J68" s="232"/>
-      <c r="K68" s="232"/>
-      <c r="L68" s="345"/>
-      <c r="M68" s="345"/>
-      <c r="N68" s="233"/>
-      <c r="O68" s="216"/>
+      <c r="B68" s="212"/>
+      <c r="C68" s="212"/>
+      <c r="D68" s="212"/>
+      <c r="E68" s="212"/>
+      <c r="F68" s="212"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="212"/>
+      <c r="I68" s="228"/>
+      <c r="J68" s="228"/>
+      <c r="K68" s="228"/>
+      <c r="L68" s="244"/>
+      <c r="M68" s="244"/>
+      <c r="N68" s="229"/>
+      <c r="O68" s="212"/>
       <c r="AF68" s="80"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="2"/>
@@ -7405,7 +7389,7 @@
       <c r="AM68" s="2"/>
     </row>
     <row r="69" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G69" s="200"/>
+      <c r="G69" s="196"/>
       <c r="AF69" s="80"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="2"/>
@@ -7415,7 +7399,7 @@
       <c r="AM69" s="2"/>
     </row>
     <row r="70" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G70" s="200"/>
+      <c r="G70" s="196"/>
       <c r="AF70" s="80"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="2"/>
@@ -7425,7 +7409,7 @@
       <c r="AM70" s="2"/>
     </row>
     <row r="71" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G71" s="200"/>
+      <c r="G71" s="196"/>
       <c r="AF71" s="80"/>
       <c r="AG71" s="1"/>
       <c r="AI71" s="1"/>
@@ -7435,7 +7419,7 @@
       <c r="AN71" s="1"/>
     </row>
     <row r="72" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G72" s="200"/>
+      <c r="G72" s="196"/>
       <c r="AF72" s="80"/>
       <c r="AG72" s="1"/>
       <c r="AH72" s="2"/>
@@ -7443,7 +7427,7 @@
       <c r="AK72" s="80"/>
     </row>
     <row r="73" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G73" s="200"/>
+      <c r="G73" s="196"/>
       <c r="AF73" s="80"/>
       <c r="AG73" s="1"/>
       <c r="AH73" s="2"/>
@@ -7451,42 +7435,42 @@
       <c r="AK73" s="80"/>
     </row>
     <row r="74" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G74" s="200"/>
+      <c r="G74" s="196"/>
       <c r="AF74" s="80"/>
       <c r="AG74" s="1"/>
       <c r="AI74" s="1"/>
       <c r="AK74" s="80"/>
     </row>
     <row r="75" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G75" s="200"/>
+      <c r="G75" s="196"/>
       <c r="AF75" s="80"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="2"/>
       <c r="AI75"/>
     </row>
     <row r="76" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G76" s="200"/>
+      <c r="G76" s="196"/>
       <c r="AF76" s="80"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="2"/>
       <c r="AI76"/>
     </row>
     <row r="77" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G77" s="200"/>
+      <c r="G77" s="196"/>
       <c r="AF77" s="58"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="2"/>
       <c r="AI77" s="58"/>
     </row>
     <row r="78" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G78" s="200"/>
+      <c r="G78" s="196"/>
       <c r="AF78" s="80"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="2"/>
       <c r="AI78"/>
     </row>
     <row r="79" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="G79" s="200"/>
+      <c r="G79" s="196"/>
       <c r="AF79" s="80"/>
       <c r="AG79" s="1"/>
       <c r="AH79" s="2"/>
@@ -7511,55 +7495,17 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="H60:M61"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="S56:W56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="S57:W57"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A49:AA49"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="H52:M53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:W53"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="W7:AA7"/>
@@ -7576,17 +7522,55 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:T7"/>
     <mergeCell ref="U7:V8"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A2:AD2"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A49:AA49"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="H52:M53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:W53"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="S56:W56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="S57:W57"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="H60:M61"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="L68:M68"/>
   </mergeCells>
   <conditionalFormatting sqref="E47:G47 E10:G45">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
